--- a/01_画面設計書.xlsx
+++ b/01_画面設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\asofs1\SEC_ABCC\システム系\学科\システム開発分野2年\2022\07_企業連携\ドキュメント関連\設計書フォーマット\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Web\2023Dev3Early\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCCA21D-E230-4C72-AE2A-474C0FA68D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FD6A1C-C46D-4471-B2ED-2AA72E419A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="25515" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>xxxx/xx/xx</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>麻生情報ビジネス専門学校</t>
     <rPh sb="0" eb="2">
       <t>アソウ</t>
@@ -128,16 +124,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ガッコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>xxxxxxxxxx科2年　クラス</t>
-    <rPh sb="10" eb="11">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ネン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -691,6 +677,23 @@
     <rPh sb="2" eb="4">
       <t>テジュン</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>情報工学科3年　Aクラス</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウホウコウガク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スマートデリシャス</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1061,19 +1064,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1185,9 +1181,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1358,6 +1351,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1376,6 +1408,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1397,60 +1441,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1508,6 +1498,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1541,13 +1540,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2362,51 +2367,51 @@
   <dimension ref="A1:FT30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="150" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="4.125" style="10" customWidth="1"/>
-    <col min="9" max="32" width="4.125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
+    <col min="5" max="8" width="4.109375" style="10" customWidth="1"/>
+    <col min="9" max="32" width="4.109375" style="1" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:176" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
@@ -2577,17 +2582,17 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="138" t="s">
+      <c r="Y2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="23"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="184">
+        <v>45040</v>
+      </c>
+      <c r="AB2" s="185"/>
+      <c r="AC2" s="185"/>
+      <c r="AD2" s="186"/>
+      <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
@@ -2651,13 +2656,14 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
+      <c r="Y4" s="187" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="187"/>
+      <c r="AA4" s="187"/>
+      <c r="AB4" s="187"/>
+      <c r="AC4" s="187"/>
+      <c r="AD4" s="187"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="13"/>
@@ -2687,39 +2693,40 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
+      <c r="Y5" s="187" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" s="187"/>
+      <c r="AA5" s="187"/>
+      <c r="AB5" s="187"/>
+      <c r="AC5" s="187"/>
+      <c r="AD5" s="187"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="147" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="76"/>
+      <c r="B6" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="72"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -2738,24 +2745,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="142"/>
+      <c r="B7" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="145"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="188" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="130"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -2763,40 +2772,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="138" t="s">
+      <c r="Y7" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="128"/>
+      <c r="AA7" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="128"/>
+      <c r="AC7" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="138" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB7" s="139"/>
-      <c r="AC7" s="138" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD7" s="139"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="71"/>
+      <c r="AD7" s="128"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="67"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="145"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="133"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -2804,14 +2813,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="125"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="125"/>
-      <c r="AB8" s="126"/>
-      <c r="AC8" s="125"/>
-      <c r="AD8" s="126"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="71"/>
+      <c r="Y8" s="134"/>
+      <c r="Z8" s="135"/>
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="135"/>
+      <c r="AC8" s="134"/>
+      <c r="AD8" s="135"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="67"/>
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
@@ -2839,14 +2848,14 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="71"/>
+      <c r="Y9" s="136"/>
+      <c r="Z9" s="137"/>
+      <c r="AA9" s="136"/>
+      <c r="AB9" s="137"/>
+      <c r="AC9" s="136"/>
+      <c r="AD9" s="137"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="67"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:176" ht="15" customHeight="1">
@@ -2874,14 +2883,14 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="129"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="130"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="71"/>
+      <c r="Y10" s="138"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="138"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="67"/>
       <c r="AG10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15" customHeight="1">
@@ -2920,208 +2929,208 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="146" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="146"/>
-      <c r="U12" s="146"/>
-      <c r="V12" s="146"/>
-      <c r="W12" s="146"/>
-      <c r="X12" s="146"/>
-      <c r="Y12" s="146"/>
-      <c r="Z12" s="146"/>
-      <c r="AA12" s="146"/>
-      <c r="AB12" s="146"/>
-      <c r="AC12" s="146"/>
-      <c r="AD12" s="146"/>
-      <c r="AE12" s="17"/>
+      <c r="B12" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140"/>
+      <c r="U12" s="140"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="140"/>
+      <c r="AB12" s="140"/>
+      <c r="AC12" s="140"/>
+      <c r="AD12" s="140"/>
+      <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="146"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="146"/>
-      <c r="S13" s="146"/>
-      <c r="T13" s="146"/>
-      <c r="U13" s="146"/>
-      <c r="V13" s="146"/>
-      <c r="W13" s="146"/>
-      <c r="X13" s="146"/>
-      <c r="Y13" s="146"/>
-      <c r="Z13" s="146"/>
-      <c r="AA13" s="146"/>
-      <c r="AB13" s="146"/>
-      <c r="AC13" s="146"/>
-      <c r="AD13" s="146"/>
-      <c r="AE13" s="17"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="140"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="140"/>
+      <c r="W13" s="140"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="140"/>
+      <c r="Z13" s="140"/>
+      <c r="AA13" s="140"/>
+      <c r="AB13" s="140"/>
+      <c r="AC13" s="140"/>
+      <c r="AD13" s="140"/>
+      <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="146"/>
-      <c r="S14" s="146"/>
-      <c r="T14" s="146"/>
-      <c r="U14" s="146"/>
-      <c r="V14" s="146"/>
-      <c r="W14" s="146"/>
-      <c r="X14" s="146"/>
-      <c r="Y14" s="146"/>
-      <c r="Z14" s="146"/>
-      <c r="AA14" s="146"/>
-      <c r="AB14" s="146"/>
-      <c r="AC14" s="146"/>
-      <c r="AD14" s="146"/>
-      <c r="AE14" s="17"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140"/>
+      <c r="S14" s="140"/>
+      <c r="T14" s="140"/>
+      <c r="U14" s="140"/>
+      <c r="V14" s="140"/>
+      <c r="W14" s="140"/>
+      <c r="X14" s="140"/>
+      <c r="Y14" s="140"/>
+      <c r="Z14" s="140"/>
+      <c r="AA14" s="140"/>
+      <c r="AB14" s="140"/>
+      <c r="AC14" s="140"/>
+      <c r="AD14" s="140"/>
+      <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
-      <c r="AE15" s="17"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="15"/>
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
-      <c r="AE16" s="17"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="15"/>
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="67"/>
-      <c r="AD17" s="67"/>
-      <c r="AE17" s="17"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="15"/>
       <c r="AF17" s="2"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
@@ -3161,7 +3170,7 @@
     <row r="19" spans="1:32" ht="15" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="2"/>
@@ -3230,316 +3239,316 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="122" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="123"/>
-      <c r="X21" s="123"/>
-      <c r="Y21" s="123"/>
-      <c r="Z21" s="123"/>
-      <c r="AA21" s="124"/>
-      <c r="AB21" s="122" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC21" s="123"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="16"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="119"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="119"/>
+      <c r="Z21" s="119"/>
+      <c r="AA21" s="120"/>
+      <c r="AB21" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC21" s="119"/>
+      <c r="AD21" s="120"/>
+      <c r="AE21" s="14"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="151"/>
-      <c r="Q22" s="151"/>
-      <c r="R22" s="151"/>
-      <c r="S22" s="151"/>
-      <c r="T22" s="151"/>
-      <c r="U22" s="151"/>
-      <c r="V22" s="151"/>
-      <c r="W22" s="151"/>
-      <c r="X22" s="151"/>
-      <c r="Y22" s="151"/>
-      <c r="Z22" s="151"/>
-      <c r="AA22" s="152"/>
-      <c r="AB22" s="122"/>
-      <c r="AC22" s="123"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="16"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="122"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="122"/>
+      <c r="W22" s="122"/>
+      <c r="X22" s="122"/>
+      <c r="Y22" s="122"/>
+      <c r="Z22" s="122"/>
+      <c r="AA22" s="123"/>
+      <c r="AB22" s="118"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="120"/>
+      <c r="AE22" s="14"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="151"/>
-      <c r="Q23" s="151"/>
-      <c r="R23" s="151"/>
-      <c r="S23" s="151"/>
-      <c r="T23" s="151"/>
-      <c r="U23" s="151"/>
-      <c r="V23" s="151"/>
-      <c r="W23" s="151"/>
-      <c r="X23" s="151"/>
-      <c r="Y23" s="151"/>
-      <c r="Z23" s="151"/>
-      <c r="AA23" s="152"/>
-      <c r="AB23" s="122"/>
-      <c r="AC23" s="123"/>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="16"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="122"/>
+      <c r="T23" s="122"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="122"/>
+      <c r="W23" s="122"/>
+      <c r="X23" s="122"/>
+      <c r="Y23" s="122"/>
+      <c r="Z23" s="122"/>
+      <c r="AA23" s="123"/>
+      <c r="AB23" s="118"/>
+      <c r="AC23" s="119"/>
+      <c r="AD23" s="120"/>
+      <c r="AE23" s="14"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="151"/>
-      <c r="R24" s="151"/>
-      <c r="S24" s="151"/>
-      <c r="T24" s="151"/>
-      <c r="U24" s="151"/>
-      <c r="V24" s="151"/>
-      <c r="W24" s="151"/>
-      <c r="X24" s="151"/>
-      <c r="Y24" s="151"/>
-      <c r="Z24" s="151"/>
-      <c r="AA24" s="152"/>
-      <c r="AB24" s="122"/>
-      <c r="AC24" s="123"/>
-      <c r="AD24" s="124"/>
-      <c r="AE24" s="16"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="122"/>
+      <c r="W24" s="122"/>
+      <c r="X24" s="122"/>
+      <c r="Y24" s="122"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="123"/>
+      <c r="AB24" s="118"/>
+      <c r="AC24" s="119"/>
+      <c r="AD24" s="120"/>
+      <c r="AE24" s="14"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="151"/>
-      <c r="Q25" s="151"/>
-      <c r="R25" s="151"/>
-      <c r="S25" s="151"/>
-      <c r="T25" s="151"/>
-      <c r="U25" s="151"/>
-      <c r="V25" s="151"/>
-      <c r="W25" s="151"/>
-      <c r="X25" s="151"/>
-      <c r="Y25" s="151"/>
-      <c r="Z25" s="151"/>
-      <c r="AA25" s="152"/>
-      <c r="AB25" s="122"/>
-      <c r="AC25" s="123"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="16"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="122"/>
+      <c r="V25" s="122"/>
+      <c r="W25" s="122"/>
+      <c r="X25" s="122"/>
+      <c r="Y25" s="122"/>
+      <c r="Z25" s="122"/>
+      <c r="AA25" s="123"/>
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="119"/>
+      <c r="AD25" s="120"/>
+      <c r="AE25" s="14"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="151"/>
-      <c r="R26" s="151"/>
-      <c r="S26" s="151"/>
-      <c r="T26" s="151"/>
-      <c r="U26" s="151"/>
-      <c r="V26" s="151"/>
-      <c r="W26" s="151"/>
-      <c r="X26" s="151"/>
-      <c r="Y26" s="151"/>
-      <c r="Z26" s="151"/>
-      <c r="AA26" s="152"/>
-      <c r="AB26" s="122"/>
-      <c r="AC26" s="123"/>
-      <c r="AD26" s="124"/>
-      <c r="AE26" s="16"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="122"/>
+      <c r="T26" s="122"/>
+      <c r="U26" s="122"/>
+      <c r="V26" s="122"/>
+      <c r="W26" s="122"/>
+      <c r="X26" s="122"/>
+      <c r="Y26" s="122"/>
+      <c r="Z26" s="122"/>
+      <c r="AA26" s="123"/>
+      <c r="AB26" s="118"/>
+      <c r="AC26" s="119"/>
+      <c r="AD26" s="120"/>
+      <c r="AE26" s="14"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="151"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="151"/>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="152"/>
-      <c r="AB27" s="122"/>
-      <c r="AC27" s="123"/>
-      <c r="AD27" s="124"/>
-      <c r="AE27" s="16"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="122"/>
+      <c r="T27" s="122"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="122"/>
+      <c r="W27" s="122"/>
+      <c r="X27" s="122"/>
+      <c r="Y27" s="122"/>
+      <c r="Z27" s="122"/>
+      <c r="AA27" s="123"/>
+      <c r="AB27" s="118"/>
+      <c r="AC27" s="119"/>
+      <c r="AD27" s="120"/>
+      <c r="AE27" s="14"/>
       <c r="AF27" s="2"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="21"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="18"/>
       <c r="AF28" s="2"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="21"/>
-      <c r="AE29" s="21"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
       <c r="AF29" s="2"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
@@ -3577,16 +3586,24 @@
       <c r="AF30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+  <mergeCells count="42">
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AD5"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -3603,20 +3620,15 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -3636,283 +3648,283 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.25" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.25" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.21875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.21875" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.21875" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="58"/>
+    </row>
+    <row r="2" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A2" s="151" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="152"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="61"/>
-    </row>
-    <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="156" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="25" t="s">
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="49"/>
+    </row>
+    <row r="3" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A3" s="154"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="165" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="165"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="52"/>
-    </row>
-    <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="159"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="25" t="s">
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="49"/>
+    </row>
+    <row r="4" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A4" s="157"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="165" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="52"/>
-    </row>
-    <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="162"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="25" t="s">
+      <c r="AB4" s="160"/>
+      <c r="AC4" s="160"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="49"/>
+    </row>
+    <row r="5" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A5" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="165" t="s">
+      <c r="B5" s="152"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="165"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="52"/>
-    </row>
-    <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="156" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="43" t="s">
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="49"/>
+    </row>
+    <row r="6" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A6" s="157"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="165" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="52"/>
-    </row>
-    <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="162"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="165" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB6" s="165"/>
-      <c r="AC6" s="165"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="52"/>
+      <c r="AB6" s="160"/>
+      <c r="AC6" s="160"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="49"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="50"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="47"/>
     </row>
     <row r="8" spans="1:33" ht="12.75" customHeight="1">
       <c r="A8" s="5"/>
@@ -5168,480 +5180,480 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="46.25" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="46.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A2" s="164" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A3" s="165"/>
+      <c r="B3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A4" s="166"/>
+      <c r="B4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="167"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A5" s="164" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="167"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A6" s="166"/>
+      <c r="B6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="167"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="162"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" customHeight="1">
+      <c r="A9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="169" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="54"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="170"/>
-      <c r="B3" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="54"/>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="171"/>
-      <c r="B4" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="172"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="54"/>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="169" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="43" t="s">
+      <c r="B9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="166" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1">
-      <c r="A9" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="27" t="s">
+      <c r="H9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="I9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="37"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="41"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="31"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="41"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="31"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="31"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="31"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="31"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="31"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="31"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="31"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="31"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="31"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="31"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="31"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="31"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="31"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="31"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="31"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A34" s="28"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="31"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="41"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="38"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A36" s="28"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="41"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="38"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="31"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="28"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A38" s="28"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="31"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5656,7 +5668,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5671,283 +5683,283 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.25" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.25" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.21875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.21875" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.21875" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A1" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="61"/>
+      <c r="A1" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="58"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="151" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="152"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="25" t="s">
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="49"/>
+    </row>
+    <row r="3" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A3" s="154"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="165" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="165"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="52"/>
-    </row>
-    <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="159"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="25" t="s">
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="49"/>
+    </row>
+    <row r="4" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A4" s="157"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="165" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="52"/>
-    </row>
-    <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="162"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="25" t="s">
+      <c r="AB4" s="160"/>
+      <c r="AC4" s="160"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="49"/>
+    </row>
+    <row r="5" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A5" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="165" t="s">
+      <c r="B5" s="152"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="165"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="52"/>
-    </row>
-    <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="156" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="43" t="s">
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="49"/>
+    </row>
+    <row r="6" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A6" s="157"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="165" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="52"/>
-    </row>
-    <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="162"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="165" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB6" s="165"/>
-      <c r="AC6" s="165"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="52"/>
+      <c r="AB6" s="160"/>
+      <c r="AC6" s="160"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="49"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="50"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="47"/>
     </row>
     <row r="8" spans="1:33" ht="12.75" customHeight="1">
       <c r="A8" s="5"/>
@@ -7203,915 +7215,921 @@
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="14" width="8.125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="14" width="8.109375" customWidth="1"/>
     <col min="15" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="186" t="s">
+    <row r="1" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="170" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="172"/>
+    </row>
+    <row r="2" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="173" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="174"/>
+      <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="188"/>
-    </row>
-    <row r="2" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="175" t="s">
+      <c r="D2" s="167"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="25" t="s">
+      <c r="R2" s="180"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="89"/>
+    </row>
+    <row r="3" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="175"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="181" t="s">
+      <c r="D3" s="167"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="182"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="93"/>
-    </row>
-    <row r="3" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="177"/>
-      <c r="B3" s="178"/>
-      <c r="C3" s="25" t="s">
+      <c r="R3" s="180"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="89"/>
+    </row>
+    <row r="4" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="177"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="181" t="s">
+      <c r="D4" s="167"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="179" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="180"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="89"/>
+    </row>
+    <row r="5" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="93"/>
-    </row>
-    <row r="4" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="25" t="s">
+      <c r="B5" s="174"/>
+      <c r="C5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="181" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="182"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="93"/>
-    </row>
-    <row r="5" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="175" t="s">
+      <c r="D5" s="167"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="25" t="s">
+      <c r="R5" s="180"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="89"/>
+    </row>
+    <row r="6" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="175"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="181" t="s">
+      <c r="D6" s="181"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="182"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="93"/>
-    </row>
-    <row r="6" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="177"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="25" t="s">
+      <c r="G6" s="183"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="183"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="185" t="s">
+      <c r="R6" s="108"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="89"/>
+    </row>
+    <row r="7" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="177"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="185"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="111" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="89"/>
+    </row>
+    <row r="8" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="R6" s="112"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="93"/>
-    </row>
-    <row r="7" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="179"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="25" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="181"/>
-      <c r="R7" s="182"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="93"/>
-    </row>
-    <row r="8" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="45" t="s">
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="44"/>
+    </row>
+    <row r="9" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="91"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="97"/>
+    </row>
+    <row r="10" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="93"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="98"/>
+    </row>
+    <row r="11" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="93"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="98"/>
+    </row>
+    <row r="12" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="93"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="98"/>
+    </row>
+    <row r="13" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="93"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="98"/>
+    </row>
+    <row r="14" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="93"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="98"/>
+    </row>
+    <row r="15" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="93"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="98"/>
+    </row>
+    <row r="16" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="93"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="98"/>
+    </row>
+    <row r="17" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="93"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="98"/>
+    </row>
+    <row r="18" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="93"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="98"/>
+    </row>
+    <row r="19" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="93"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="98"/>
+    </row>
+    <row r="20" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="93"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="98"/>
+    </row>
+    <row r="21" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="93"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="98"/>
+    </row>
+    <row r="22" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="93"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="98"/>
+    </row>
+    <row r="23" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="93"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="98"/>
+    </row>
+    <row r="24" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="93"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="98"/>
+    </row>
+    <row r="25" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="93"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="98"/>
+    </row>
+    <row r="26" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="93"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="98"/>
+    </row>
+    <row r="27" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="93"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="98"/>
+    </row>
+    <row r="28" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="93"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="98"/>
+    </row>
+    <row r="29" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="99"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="101"/>
+    </row>
+    <row r="30" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="45" t="s">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="54"/>
+    </row>
+    <row r="31" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
-    </row>
-    <row r="9" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="95"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="101"/>
-    </row>
-    <row r="10" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="97"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="102"/>
-    </row>
-    <row r="11" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="97"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="102"/>
-    </row>
-    <row r="12" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="97"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="102"/>
-    </row>
-    <row r="13" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="97"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="102"/>
-    </row>
-    <row r="14" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="97"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="102"/>
-    </row>
-    <row r="15" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="97"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="102"/>
-    </row>
-    <row r="16" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="97"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="102"/>
-    </row>
-    <row r="17" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="97"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="102"/>
-    </row>
-    <row r="18" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="97"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="102"/>
-    </row>
-    <row r="19" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="97"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="102"/>
-    </row>
-    <row r="20" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="97"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="102"/>
-    </row>
-    <row r="21" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="97"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="102"/>
-    </row>
-    <row r="22" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="97"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="102"/>
-    </row>
-    <row r="23" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="97"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="102"/>
-    </row>
-    <row r="24" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="97"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="102"/>
-    </row>
-    <row r="25" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="97"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="102"/>
-    </row>
-    <row r="26" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="97"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="102"/>
-    </row>
-    <row r="27" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="97"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="102"/>
-    </row>
-    <row r="28" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="97"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="102"/>
-    </row>
-    <row r="29" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="103"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="105"/>
-    </row>
-    <row r="30" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="94" t="s">
+      <c r="B31" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="57"/>
-    </row>
-    <row r="31" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="26" t="s">
+      <c r="C31" s="96"/>
+      <c r="D31" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="98" t="s">
+      <c r="E31" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100" t="s">
+      <c r="F31" s="103"/>
+      <c r="G31" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="106" t="s">
+      <c r="H31" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="107"/>
-      <c r="G31" s="26" t="s">
+      <c r="I31" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="J31" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="98" t="s">
+      <c r="K31" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="J31" s="98" t="s">
+      <c r="L31" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="K31" s="98" t="s">
+      <c r="M31" s="105"/>
+      <c r="N31" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="L31" s="108" t="s">
+      <c r="O31" s="105"/>
+      <c r="P31" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="M31" s="109"/>
-      <c r="N31" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="O31" s="109"/>
-      <c r="P31" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="100"/>
-    </row>
-    <row r="32" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="30"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="66"/>
-    </row>
-    <row r="33" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="30"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="66"/>
-    </row>
-    <row r="34" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="30"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="66"/>
-    </row>
-    <row r="35" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="63"/>
-      <c r="R35" s="63"/>
-      <c r="S35" s="63"/>
-      <c r="T35" s="66"/>
-    </row>
-    <row r="36" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="30"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
-      <c r="T36" s="66"/>
-    </row>
-    <row r="37" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="30"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="66"/>
-    </row>
-    <row r="38" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="63"/>
-      <c r="S38" s="63"/>
-      <c r="T38" s="66"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="96"/>
+    </row>
+    <row r="32" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="27"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="62"/>
+    </row>
+    <row r="33" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="27"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="62"/>
+    </row>
+    <row r="34" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="27"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="62"/>
+    </row>
+    <row r="35" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A35" s="27"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="62"/>
+    </row>
+    <row r="36" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A36" s="27"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="62"/>
+    </row>
+    <row r="37" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A37" s="27"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="62"/>
+    </row>
+    <row r="38" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A38" s="27"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -8120,12 +8138,6 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8142,696 +8154,696 @@
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="43.125" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="78"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="79" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="K2" s="77"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="78"/>
+      <c r="B3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="80" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="81"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="25" t="s">
+      <c r="K3" s="79"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="78"/>
+      <c r="B4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="80" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="77"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="83"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="81"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="C5" s="167"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="K5" s="81"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="82"/>
+      <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="80" t="s">
+      <c r="C6" s="167"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="85"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="A6" s="86"/>
-      <c r="B6" s="25" t="s">
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="30" t="s">
+      <c r="K6" s="81"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="83"/>
+      <c r="B7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="80" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="81"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="85"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="85"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="A8" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="26" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="26" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="91"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="93"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="93"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="93"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="93"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="93"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="93"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="93"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="93"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="93"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="93"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="A20" s="93"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="93"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="93"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
+      <c r="A23" s="93"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1">
+      <c r="A24" s="93"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="93"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="93"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="93"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="93"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="A29" s="93"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="A9" s="95"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="A10" s="97"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="97"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="97"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="97"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="97"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="A15" s="97"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="97"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1">
-      <c r="A17" s="97"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="A18" s="97"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1">
-      <c r="A19" s="97"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1">
-      <c r="A20" s="97"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="A21" s="97"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="A22" s="97"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1">
-      <c r="A23" s="97"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1">
-      <c r="A24" s="97"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1">
-      <c r="A25" s="97"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1">
-      <c r="A26" s="97"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1">
-      <c r="A27" s="97"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1">
-      <c r="A28" s="97"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1">
-      <c r="A29" s="97"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="100"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="96"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
-      <c r="A30" s="97"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="121"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="117"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
-      <c r="A31" s="97"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="114"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="110"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
-      <c r="A32" s="97"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="114"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="110"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
-      <c r="A33" s="97"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="114"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="110"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
-      <c r="A34" s="97"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="114"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="110"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
-      <c r="A35" s="97"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="114"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="110"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
-      <c r="A36" s="97"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="114"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="110"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
-      <c r="A37" s="97"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="114"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="110"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
-      <c r="A38" s="97"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="114"/>
+      <c r="A38" s="93"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="110"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
-      <c r="A39" s="97"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="114"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="110"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
-      <c r="A40" s="97"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="114"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="110"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
-      <c r="A41" s="97"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="114"/>
+      <c r="A41" s="93"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="109"/>
+      <c r="K41" s="110"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
-      <c r="A42" s="97"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="114"/>
+      <c r="A42" s="93"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="110"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
-      <c r="A43" s="97"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="114"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="110"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
-      <c r="A44" s="97"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="114"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="110"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
-      <c r="A45" s="97"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="114"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="110"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
-      <c r="A46" s="97"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="114"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="109"/>
+      <c r="K46" s="110"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
-      <c r="A47" s="97"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="114"/>
+      <c r="A47" s="93"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="109"/>
+      <c r="K47" s="110"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
-      <c r="A48" s="97"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="114"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="110"/>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1">
-      <c r="A49" s="103"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="115"/>
-      <c r="K49" s="116"/>
+      <c r="A49" s="99"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8846,21 +8858,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -9004,14 +9001,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE99DE6A-D5AF-458E-878B-96B0555D5097}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b2741836-0272-4e3d-8a51-652512547cb8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE99DE6A-D5AF-458E-878B-96B0555D5097}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_画面設計書.xlsx
+++ b/01_画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Web\2023Dev3Early\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FD6A1C-C46D-4471-B2ED-2AA72E419A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD2D1A1-8CF7-4039-B818-5A3A22455FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -694,6 +694,27 @@
   </si>
   <si>
     <t>スマートデリシャス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ver1.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>書類の作成</t>
+    <rPh sb="0" eb="2">
+      <t>ショルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1047,7 +1068,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -1162,7 +1183,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1351,6 +1371,93 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1369,78 +1476,6 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1498,6 +1533,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1507,53 +1575,50 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2366,8 +2431,8 @@
   </sheetPr>
   <dimension ref="A1:FT30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="150" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="150" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -2380,38 +2445,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:176" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
@@ -2582,16 +2647,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="127" t="s">
+      <c r="Y2" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="184">
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="145">
         <v>45040</v>
       </c>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="185"/>
-      <c r="AD2" s="186"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="147"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -2656,14 +2721,14 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="187" t="s">
+      <c r="Y4" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="187"/>
-      <c r="AA4" s="187"/>
-      <c r="AB4" s="187"/>
-      <c r="AC4" s="187"/>
-      <c r="AD4" s="187"/>
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="148"/>
+      <c r="AB4" s="148"/>
+      <c r="AC4" s="148"/>
+      <c r="AD4" s="148"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="13"/>
@@ -2693,40 +2758,40 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="187" t="s">
+      <c r="Y5" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="187"/>
-      <c r="AA5" s="187"/>
-      <c r="AB5" s="187"/>
-      <c r="AC5" s="187"/>
-      <c r="AD5" s="187"/>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
+      <c r="AD5" s="148"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="141" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="72"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="71"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -2745,26 +2810,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="188" t="s">
+      <c r="C7" s="127"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="130"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="137"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -2772,40 +2837,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="127" t="s">
+      <c r="Y7" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="128"/>
-      <c r="AA7" s="127" t="s">
+      <c r="Z7" s="134"/>
+      <c r="AA7" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="128"/>
-      <c r="AC7" s="127" t="s">
+      <c r="AB7" s="134"/>
+      <c r="AC7" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="128"/>
+      <c r="AD7" s="134"/>
       <c r="AE7" s="20"/>
-      <c r="AF7" s="67"/>
+      <c r="AF7" s="66"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="148"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="133"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="140"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -2813,14 +2878,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="134"/>
-      <c r="Z8" s="135"/>
-      <c r="AA8" s="134"/>
-      <c r="AB8" s="135"/>
-      <c r="AC8" s="134"/>
-      <c r="AD8" s="135"/>
+      <c r="Y8" s="120"/>
+      <c r="Z8" s="121"/>
+      <c r="AA8" s="120"/>
+      <c r="AB8" s="121"/>
+      <c r="AC8" s="120"/>
+      <c r="AD8" s="121"/>
       <c r="AE8" s="18"/>
-      <c r="AF8" s="67"/>
+      <c r="AF8" s="66"/>
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
@@ -2848,14 +2913,14 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="136"/>
-      <c r="Z9" s="137"/>
-      <c r="AA9" s="136"/>
-      <c r="AB9" s="137"/>
-      <c r="AC9" s="136"/>
-      <c r="AD9" s="137"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="123"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="123"/>
       <c r="AE9" s="18"/>
-      <c r="AF9" s="67"/>
+      <c r="AF9" s="66"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:176" ht="15" customHeight="1">
@@ -2883,14 +2948,14 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="138"/>
-      <c r="Z10" s="139"/>
-      <c r="AA10" s="138"/>
-      <c r="AB10" s="139"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="139"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="125"/>
+      <c r="AA10" s="124"/>
+      <c r="AB10" s="125"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="125"/>
       <c r="AE10" s="18"/>
-      <c r="AF10" s="67"/>
+      <c r="AF10" s="66"/>
       <c r="AG10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15" customHeight="1">
@@ -2929,207 +2994,207 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="140"/>
-      <c r="Q12" s="140"/>
-      <c r="R12" s="140"/>
-      <c r="S12" s="140"/>
-      <c r="T12" s="140"/>
-      <c r="U12" s="140"/>
-      <c r="V12" s="140"/>
-      <c r="W12" s="140"/>
-      <c r="X12" s="140"/>
-      <c r="Y12" s="140"/>
-      <c r="Z12" s="140"/>
-      <c r="AA12" s="140"/>
-      <c r="AB12" s="140"/>
-      <c r="AC12" s="140"/>
-      <c r="AD12" s="140"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="141"/>
+      <c r="N12" s="141"/>
+      <c r="O12" s="141"/>
+      <c r="P12" s="141"/>
+      <c r="Q12" s="141"/>
+      <c r="R12" s="141"/>
+      <c r="S12" s="141"/>
+      <c r="T12" s="141"/>
+      <c r="U12" s="141"/>
+      <c r="V12" s="141"/>
+      <c r="W12" s="141"/>
+      <c r="X12" s="141"/>
+      <c r="Y12" s="141"/>
+      <c r="Z12" s="141"/>
+      <c r="AA12" s="141"/>
+      <c r="AB12" s="141"/>
+      <c r="AC12" s="141"/>
+      <c r="AD12" s="141"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="140"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="140"/>
-      <c r="Q13" s="140"/>
-      <c r="R13" s="140"/>
-      <c r="S13" s="140"/>
-      <c r="T13" s="140"/>
-      <c r="U13" s="140"/>
-      <c r="V13" s="140"/>
-      <c r="W13" s="140"/>
-      <c r="X13" s="140"/>
-      <c r="Y13" s="140"/>
-      <c r="Z13" s="140"/>
-      <c r="AA13" s="140"/>
-      <c r="AB13" s="140"/>
-      <c r="AC13" s="140"/>
-      <c r="AD13" s="140"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="141"/>
+      <c r="N13" s="141"/>
+      <c r="O13" s="141"/>
+      <c r="P13" s="141"/>
+      <c r="Q13" s="141"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="141"/>
+      <c r="U13" s="141"/>
+      <c r="V13" s="141"/>
+      <c r="W13" s="141"/>
+      <c r="X13" s="141"/>
+      <c r="Y13" s="141"/>
+      <c r="Z13" s="141"/>
+      <c r="AA13" s="141"/>
+      <c r="AB13" s="141"/>
+      <c r="AC13" s="141"/>
+      <c r="AD13" s="141"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="140"/>
-      <c r="S14" s="140"/>
-      <c r="T14" s="140"/>
-      <c r="U14" s="140"/>
-      <c r="V14" s="140"/>
-      <c r="W14" s="140"/>
-      <c r="X14" s="140"/>
-      <c r="Y14" s="140"/>
-      <c r="Z14" s="140"/>
-      <c r="AA14" s="140"/>
-      <c r="AB14" s="140"/>
-      <c r="AC14" s="140"/>
-      <c r="AD14" s="140"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="141"/>
+      <c r="N14" s="141"/>
+      <c r="O14" s="141"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="141"/>
+      <c r="R14" s="141"/>
+      <c r="S14" s="141"/>
+      <c r="T14" s="141"/>
+      <c r="U14" s="141"/>
+      <c r="V14" s="141"/>
+      <c r="W14" s="141"/>
+      <c r="X14" s="141"/>
+      <c r="Y14" s="141"/>
+      <c r="Z14" s="141"/>
+      <c r="AA14" s="141"/>
+      <c r="AB14" s="141"/>
+      <c r="AC14" s="141"/>
+      <c r="AD14" s="141"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="63"/>
-      <c r="AC15" s="63"/>
-      <c r="AD15" s="63"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
       <c r="AE15" s="15"/>
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="63"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="63"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
       <c r="AE16" s="15"/>
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
       <c r="AE17" s="15"/>
       <c r="AF17" s="2"/>
     </row>
@@ -3239,247 +3304,255 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="118" t="s">
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="118" t="s">
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
-      <c r="T21" s="119"/>
-      <c r="U21" s="119"/>
-      <c r="V21" s="119"/>
-      <c r="W21" s="119"/>
-      <c r="X21" s="119"/>
-      <c r="Y21" s="119"/>
-      <c r="Z21" s="119"/>
-      <c r="AA21" s="120"/>
-      <c r="AB21" s="118" t="s">
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="118"/>
+      <c r="Z21" s="118"/>
+      <c r="AA21" s="119"/>
+      <c r="AB21" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="AC21" s="119"/>
-      <c r="AD21" s="120"/>
+      <c r="AC21" s="118"/>
+      <c r="AD21" s="119"/>
       <c r="AE21" s="14"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="122"/>
-      <c r="T22" s="122"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="122"/>
-      <c r="W22" s="122"/>
-      <c r="X22" s="122"/>
-      <c r="Y22" s="122"/>
-      <c r="Z22" s="122"/>
-      <c r="AA22" s="123"/>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="119"/>
-      <c r="AD22" s="120"/>
+      <c r="B22" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="152">
+        <v>45040</v>
+      </c>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="149" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" s="150"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="150"/>
+      <c r="Q22" s="150"/>
+      <c r="R22" s="150"/>
+      <c r="S22" s="150"/>
+      <c r="T22" s="150"/>
+      <c r="U22" s="150"/>
+      <c r="V22" s="150"/>
+      <c r="W22" s="150"/>
+      <c r="X22" s="150"/>
+      <c r="Y22" s="150"/>
+      <c r="Z22" s="150"/>
+      <c r="AA22" s="151"/>
+      <c r="AB22" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC22" s="118"/>
+      <c r="AD22" s="119"/>
       <c r="AE22" s="14"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="122"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="122"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="122"/>
-      <c r="U23" s="122"/>
-      <c r="V23" s="122"/>
-      <c r="W23" s="122"/>
-      <c r="X23" s="122"/>
-      <c r="Y23" s="122"/>
-      <c r="Z23" s="122"/>
-      <c r="AA23" s="123"/>
-      <c r="AB23" s="118"/>
-      <c r="AC23" s="119"/>
-      <c r="AD23" s="120"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="150"/>
+      <c r="Q23" s="150"/>
+      <c r="R23" s="150"/>
+      <c r="S23" s="150"/>
+      <c r="T23" s="150"/>
+      <c r="U23" s="150"/>
+      <c r="V23" s="150"/>
+      <c r="W23" s="150"/>
+      <c r="X23" s="150"/>
+      <c r="Y23" s="150"/>
+      <c r="Z23" s="150"/>
+      <c r="AA23" s="151"/>
+      <c r="AB23" s="117"/>
+      <c r="AC23" s="118"/>
+      <c r="AD23" s="119"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="122"/>
-      <c r="T24" s="122"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="122"/>
-      <c r="W24" s="122"/>
-      <c r="X24" s="122"/>
-      <c r="Y24" s="122"/>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="123"/>
-      <c r="AB24" s="118"/>
-      <c r="AC24" s="119"/>
-      <c r="AD24" s="120"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="150"/>
+      <c r="M24" s="150"/>
+      <c r="N24" s="150"/>
+      <c r="O24" s="150"/>
+      <c r="P24" s="150"/>
+      <c r="Q24" s="150"/>
+      <c r="R24" s="150"/>
+      <c r="S24" s="150"/>
+      <c r="T24" s="150"/>
+      <c r="U24" s="150"/>
+      <c r="V24" s="150"/>
+      <c r="W24" s="150"/>
+      <c r="X24" s="150"/>
+      <c r="Y24" s="150"/>
+      <c r="Z24" s="150"/>
+      <c r="AA24" s="151"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="118"/>
+      <c r="AD24" s="119"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="122"/>
-      <c r="X25" s="122"/>
-      <c r="Y25" s="122"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="123"/>
-      <c r="AB25" s="118"/>
-      <c r="AC25" s="119"/>
-      <c r="AD25" s="120"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="150"/>
+      <c r="Q25" s="150"/>
+      <c r="R25" s="150"/>
+      <c r="S25" s="150"/>
+      <c r="T25" s="150"/>
+      <c r="U25" s="150"/>
+      <c r="V25" s="150"/>
+      <c r="W25" s="150"/>
+      <c r="X25" s="150"/>
+      <c r="Y25" s="150"/>
+      <c r="Z25" s="150"/>
+      <c r="AA25" s="151"/>
+      <c r="AB25" s="117"/>
+      <c r="AC25" s="118"/>
+      <c r="AD25" s="119"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="122"/>
-      <c r="R26" s="122"/>
-      <c r="S26" s="122"/>
-      <c r="T26" s="122"/>
-      <c r="U26" s="122"/>
-      <c r="V26" s="122"/>
-      <c r="W26" s="122"/>
-      <c r="X26" s="122"/>
-      <c r="Y26" s="122"/>
-      <c r="Z26" s="122"/>
-      <c r="AA26" s="123"/>
-      <c r="AB26" s="118"/>
-      <c r="AC26" s="119"/>
-      <c r="AD26" s="120"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
+      <c r="N26" s="150"/>
+      <c r="O26" s="150"/>
+      <c r="P26" s="150"/>
+      <c r="Q26" s="150"/>
+      <c r="R26" s="150"/>
+      <c r="S26" s="150"/>
+      <c r="T26" s="150"/>
+      <c r="U26" s="150"/>
+      <c r="V26" s="150"/>
+      <c r="W26" s="150"/>
+      <c r="X26" s="150"/>
+      <c r="Y26" s="150"/>
+      <c r="Z26" s="150"/>
+      <c r="AA26" s="151"/>
+      <c r="AB26" s="117"/>
+      <c r="AC26" s="118"/>
+      <c r="AD26" s="119"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="122"/>
-      <c r="T27" s="122"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="122"/>
-      <c r="W27" s="122"/>
-      <c r="X27" s="122"/>
-      <c r="Y27" s="122"/>
-      <c r="Z27" s="122"/>
-      <c r="AA27" s="123"/>
-      <c r="AB27" s="118"/>
-      <c r="AC27" s="119"/>
-      <c r="AD27" s="120"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="150"/>
+      <c r="R27" s="150"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="150"/>
+      <c r="U27" s="150"/>
+      <c r="V27" s="150"/>
+      <c r="W27" s="150"/>
+      <c r="X27" s="150"/>
+      <c r="Y27" s="150"/>
+      <c r="Z27" s="150"/>
+      <c r="AA27" s="151"/>
+      <c r="AB27" s="117"/>
+      <c r="AC27" s="118"/>
+      <c r="AD27" s="119"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="2"/>
     </row>
@@ -3587,23 +3660,15 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -3620,15 +3685,23 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -3642,8 +3715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2FA301-F346-4BB4-A6BC-EB44CCEDDEA4}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -3656,240 +3729,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="58"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="156"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="160" t="s">
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="49"/>
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="192"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="193"/>
+      <c r="AG2" s="194"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="154"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="22" t="s">
+      <c r="A3" s="158"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="160" t="s">
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="193"/>
+      <c r="Q3" s="193"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="193"/>
+      <c r="T3" s="193"/>
+      <c r="U3" s="193"/>
+      <c r="V3" s="193"/>
+      <c r="W3" s="193"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="49"/>
+      <c r="AB3" s="198"/>
+      <c r="AC3" s="198"/>
+      <c r="AD3" s="192"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="193"/>
+      <c r="AG3" s="194"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="157"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="22" t="s">
+      <c r="A4" s="161"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="160" t="s">
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="193"/>
+      <c r="M4" s="193"/>
+      <c r="N4" s="193"/>
+      <c r="O4" s="193"/>
+      <c r="P4" s="193"/>
+      <c r="Q4" s="193"/>
+      <c r="R4" s="193"/>
+      <c r="S4" s="193"/>
+      <c r="T4" s="193"/>
+      <c r="U4" s="193"/>
+      <c r="V4" s="193"/>
+      <c r="W4" s="193"/>
+      <c r="X4" s="193"/>
+      <c r="Y4" s="193"/>
+      <c r="Z4" s="194"/>
+      <c r="AA4" s="198" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="160"/>
-      <c r="AC4" s="160"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="49"/>
+      <c r="AB4" s="198"/>
+      <c r="AC4" s="198"/>
+      <c r="AD4" s="192"/>
+      <c r="AE4" s="193"/>
+      <c r="AF4" s="193"/>
+      <c r="AG4" s="194"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="40" t="s">
+      <c r="B5" s="156"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="195" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="160" t="s">
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
+      <c r="K5" s="193"/>
+      <c r="L5" s="193"/>
+      <c r="M5" s="193"/>
+      <c r="N5" s="193"/>
+      <c r="O5" s="193"/>
+      <c r="P5" s="193"/>
+      <c r="Q5" s="193"/>
+      <c r="R5" s="193"/>
+      <c r="S5" s="193"/>
+      <c r="T5" s="193"/>
+      <c r="U5" s="193"/>
+      <c r="V5" s="193"/>
+      <c r="W5" s="193"/>
+      <c r="X5" s="193"/>
+      <c r="Y5" s="193"/>
+      <c r="Z5" s="194"/>
+      <c r="AA5" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="160"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="49"/>
+      <c r="AB5" s="198"/>
+      <c r="AC5" s="198"/>
+      <c r="AD5" s="192"/>
+      <c r="AE5" s="193"/>
+      <c r="AF5" s="193"/>
+      <c r="AG5" s="194"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="157"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="87" t="s">
+      <c r="A6" s="161"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="160" t="s">
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="193"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="193"/>
+      <c r="Y6" s="193"/>
+      <c r="Z6" s="194"/>
+      <c r="AA6" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="160"/>
-      <c r="AC6" s="160"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="49"/>
+      <c r="AB6" s="198"/>
+      <c r="AC6" s="198"/>
+      <c r="AD6" s="192"/>
+      <c r="AE6" s="193"/>
+      <c r="AF6" s="193"/>
+      <c r="AG6" s="194"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -5152,7 +5225,13 @@
       <c r="AG45" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="22">
+    <mergeCell ref="H6:Z6"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
@@ -5160,6 +5239,15 @@
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="AA5:AC5"/>
     <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H2:Z2"/>
+    <mergeCell ref="H3:Z3"/>
+    <mergeCell ref="H4:Z4"/>
+    <mergeCell ref="H5:Z5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5177,7 +5265,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B2" sqref="B2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -5192,96 +5280,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="23" t="s">
+      <c r="C2" s="189"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="51"/>
+      <c r="I2" s="201"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="165"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="169"/>
+      <c r="B3" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="23" t="s">
+      <c r="C3" s="189"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="51"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="166"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="170"/>
+      <c r="B4" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="23" t="s">
+      <c r="C4" s="189"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="200" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="51"/>
+      <c r="I4" s="201"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="23" t="s">
+      <c r="C5" s="189"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="199"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="166"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="170"/>
+      <c r="B6" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="167"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="23" t="s">
+      <c r="C6" s="189"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="199"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1">
       <c r="A7" s="21"/>
@@ -5298,11 +5386,11 @@
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="161" t="s">
+      <c r="D8" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="162"/>
-      <c r="F8" s="163"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="167"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -5677,8 +5765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -5691,239 +5779,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="58"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="156"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
       <c r="Z2" s="49"/>
-      <c r="AA2" s="160" t="s">
+      <c r="AA2" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
       <c r="AG2" s="49"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="154"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="22" t="s">
+      <c r="A3" s="158"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="49"/>
-      <c r="AA3" s="160" t="s">
+      <c r="AA3" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
       <c r="AG3" s="49"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="157"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="22" t="s">
+      <c r="A4" s="161"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
       <c r="Z4" s="49"/>
-      <c r="AA4" s="160" t="s">
+      <c r="AA4" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="160"/>
-      <c r="AC4" s="160"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
+      <c r="AB4" s="164"/>
+      <c r="AC4" s="164"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
       <c r="AG4" s="49"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="153"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="157"/>
       <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
       <c r="G5" s="49"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
       <c r="Z5" s="49"/>
-      <c r="AA5" s="160" t="s">
+      <c r="AA5" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="160"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
+      <c r="AB5" s="164"/>
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
       <c r="AG5" s="49"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="157"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="87" t="s">
+      <c r="A6" s="161"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="86" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
       <c r="G6" s="49"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
       <c r="Z6" s="49"/>
-      <c r="AA6" s="160" t="s">
+      <c r="AA6" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="160"/>
-      <c r="AC6" s="160"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
+      <c r="AB6" s="164"/>
+      <c r="AC6" s="164"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
       <c r="AG6" s="49"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
@@ -7187,7 +7275,7 @@
       <c r="AG45" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="AA5:AC5"/>
     <mergeCell ref="AA6:AC6"/>
@@ -7195,6 +7283,9 @@
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -7227,188 +7318,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="172"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="186"/>
+      <c r="T1" s="187"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="174"/>
+      <c r="B2" s="175"/>
       <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="167"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="179" t="s">
+      <c r="D2" s="171"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="180"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="89"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="175"/>
-      <c r="B3" s="176"/>
+      <c r="A3" s="176"/>
+      <c r="B3" s="177"/>
       <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="179" t="s">
+      <c r="D3" s="171"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="180"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="89"/>
+      <c r="R3" s="181"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="177"/>
-      <c r="B4" s="178"/>
+      <c r="A4" s="178"/>
+      <c r="B4" s="179"/>
       <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="179" t="s">
+      <c r="D4" s="171"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="180"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="89"/>
+      <c r="R4" s="181"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="88"/>
     </row>
     <row r="5" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="174"/>
+      <c r="B5" s="175"/>
       <c r="C5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="179" t="s">
+      <c r="D5" s="171"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="172"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="180"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="89"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="88"/>
     </row>
     <row r="6" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="175"/>
-      <c r="B6" s="176"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="177"/>
       <c r="C6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="183" t="s">
+      <c r="D6" s="182"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="183"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="107" t="s">
+      <c r="G6" s="184"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="108"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="89"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="88"/>
     </row>
     <row r="7" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="177"/>
-      <c r="B7" s="178"/>
+      <c r="A7" s="178"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="89"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="181"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="88"/>
     </row>
     <row r="8" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="42" t="s">
@@ -7437,29 +7528,29 @@
       <c r="T8" s="44"/>
     </row>
     <row r="9" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="97"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="96"/>
     </row>
     <row r="10" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="93"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -7471,17 +7562,17 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="93"/>
+      <c r="M10" s="92"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
-      <c r="T10" s="98"/>
+      <c r="T10" s="97"/>
     </row>
     <row r="11" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="93"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -7493,17 +7584,17 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="93"/>
+      <c r="M11" s="92"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
-      <c r="T11" s="98"/>
+      <c r="T11" s="97"/>
     </row>
     <row r="12" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="93"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -7515,17 +7606,17 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
-      <c r="M12" s="93"/>
+      <c r="M12" s="92"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
-      <c r="T12" s="98"/>
+      <c r="T12" s="97"/>
     </row>
     <row r="13" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="93"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -7537,17 +7628,17 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="93"/>
+      <c r="M13" s="92"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
-      <c r="T13" s="98"/>
+      <c r="T13" s="97"/>
     </row>
     <row r="14" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="93"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -7559,17 +7650,17 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="93"/>
+      <c r="M14" s="92"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
-      <c r="T14" s="98"/>
+      <c r="T14" s="97"/>
     </row>
     <row r="15" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="93"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -7581,17 +7672,17 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
-      <c r="M15" s="93"/>
+      <c r="M15" s="92"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="98"/>
+      <c r="T15" s="97"/>
     </row>
     <row r="16" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="93"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -7603,17 +7694,17 @@
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
-      <c r="M16" s="93"/>
+      <c r="M16" s="92"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
-      <c r="T16" s="98"/>
+      <c r="T16" s="97"/>
     </row>
     <row r="17" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="93"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -7625,17 +7716,17 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
-      <c r="M17" s="93"/>
+      <c r="M17" s="92"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="98"/>
+      <c r="T17" s="97"/>
     </row>
     <row r="18" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="93"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -7647,17 +7738,17 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
-      <c r="M18" s="93"/>
+      <c r="M18" s="92"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="98"/>
+      <c r="T18" s="97"/>
     </row>
     <row r="19" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="93"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -7669,17 +7760,17 @@
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="93"/>
+      <c r="M19" s="92"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
-      <c r="T19" s="98"/>
+      <c r="T19" s="97"/>
     </row>
     <row r="20" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="93"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -7691,17 +7782,17 @@
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
-      <c r="M20" s="93"/>
+      <c r="M20" s="92"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
-      <c r="T20" s="98"/>
+      <c r="T20" s="97"/>
     </row>
     <row r="21" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="93"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -7713,17 +7804,17 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="93"/>
+      <c r="M21" s="92"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
-      <c r="T21" s="98"/>
+      <c r="T21" s="97"/>
     </row>
     <row r="22" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="93"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -7735,17 +7826,17 @@
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
-      <c r="M22" s="93"/>
+      <c r="M22" s="92"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="98"/>
+      <c r="T22" s="97"/>
     </row>
     <row r="23" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="93"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -7757,17 +7848,17 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="93"/>
+      <c r="M23" s="92"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
-      <c r="T23" s="98"/>
+      <c r="T23" s="97"/>
     </row>
     <row r="24" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="93"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -7779,17 +7870,17 @@
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
-      <c r="M24" s="93"/>
+      <c r="M24" s="92"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
-      <c r="T24" s="98"/>
+      <c r="T24" s="97"/>
     </row>
     <row r="25" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="93"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -7801,17 +7892,17 @@
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
-      <c r="M25" s="93"/>
+      <c r="M25" s="92"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="98"/>
+      <c r="T25" s="97"/>
     </row>
     <row r="26" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="93"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -7823,17 +7914,17 @@
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="93"/>
+      <c r="M26" s="92"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="98"/>
+      <c r="T26" s="97"/>
     </row>
     <row r="27" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="93"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -7845,17 +7936,17 @@
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
-      <c r="M27" s="93"/>
+      <c r="M27" s="92"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="98"/>
+      <c r="T27" s="97"/>
     </row>
     <row r="28" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="93"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -7867,269 +7958,263 @@
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="93"/>
+      <c r="M28" s="92"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="98"/>
+      <c r="T28" s="97"/>
     </row>
     <row r="29" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="99"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="101"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="100"/>
     </row>
     <row r="30" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="54"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="53"/>
     </row>
     <row r="31" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96" t="s">
+      <c r="C31" s="95"/>
+      <c r="D31" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="102" t="s">
+      <c r="E31" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="103"/>
+      <c r="F31" s="102"/>
       <c r="G31" s="23" t="s">
         <v>58</v>
       </c>
       <c r="H31" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="94" t="s">
+      <c r="I31" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="J31" s="94" t="s">
+      <c r="J31" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="K31" s="94" t="s">
+      <c r="K31" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="L31" s="104" t="s">
+      <c r="L31" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="M31" s="105"/>
-      <c r="N31" s="106" t="s">
+      <c r="M31" s="104"/>
+      <c r="N31" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="O31" s="105"/>
-      <c r="P31" s="94" t="s">
+      <c r="O31" s="104"/>
+      <c r="P31" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="96"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="95"/>
     </row>
     <row r="32" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="27"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="88"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="87"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="62"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="61"/>
     </row>
     <row r="33" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="27"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="88"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="87"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="62"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="61"/>
     </row>
     <row r="34" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="27"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="88"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="62"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="61"/>
     </row>
     <row r="35" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="27"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="88"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="87"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="62"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="61"/>
     </row>
     <row r="36" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="27"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="88"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="87"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="62"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="61"/>
     </row>
     <row r="37" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="27"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="88"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="87"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="62"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="61"/>
     </row>
     <row r="38" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="27"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="88"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="87"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="62"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -8138,6 +8223,12 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8165,135 +8256,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="74"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="76" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="77"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
-      <c r="A3" s="78"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="76" t="s">
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="79"/>
+      <c r="K3" s="78"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="78"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="77"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="76" t="s">
+      <c r="C5" s="171"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="81"/>
+      <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="A6" s="82"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="167"/>
-      <c r="D6" s="169"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="76" t="s">
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="81"/>
+      <c r="K6" s="80"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
-      <c r="A7" s="83"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="81"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="80"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="23" t="s">
         <v>54</v>
       </c>
@@ -8311,12 +8402,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="22"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
@@ -8324,7 +8415,7 @@
       <c r="K9" s="35"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="A10" s="93"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -8337,7 +8428,7 @@
       <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="93"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -8350,7 +8441,7 @@
       <c r="K11" s="35"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="93"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -8363,7 +8454,7 @@
       <c r="K12" s="35"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="93"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -8376,7 +8467,7 @@
       <c r="K13" s="35"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="93"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -8389,7 +8480,7 @@
       <c r="K14" s="35"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="A15" s="93"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -8402,7 +8493,7 @@
       <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="93"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -8415,7 +8506,7 @@
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1">
-      <c r="A17" s="93"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -8428,7 +8519,7 @@
       <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="A18" s="93"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -8441,7 +8532,7 @@
       <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
-      <c r="A19" s="93"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -8454,7 +8545,7 @@
       <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
-      <c r="A20" s="93"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -8467,7 +8558,7 @@
       <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="A21" s="93"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -8480,7 +8571,7 @@
       <c r="K21" s="35"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="A22" s="93"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -8493,7 +8584,7 @@
       <c r="K22" s="35"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
-      <c r="A23" s="93"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -8506,7 +8597,7 @@
       <c r="K23" s="35"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
-      <c r="A24" s="93"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -8519,7 +8610,7 @@
       <c r="K24" s="35"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
-      <c r="A25" s="93"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -8532,7 +8623,7 @@
       <c r="K25" s="35"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
-      <c r="A26" s="93"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -8545,7 +8636,7 @@
       <c r="K26" s="35"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
-      <c r="A27" s="93"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -8558,7 +8649,7 @@
       <c r="K27" s="35"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
-      <c r="A28" s="93"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -8571,279 +8662,279 @@
       <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
-      <c r="A29" s="93"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
-      <c r="G29" s="94" t="s">
+      <c r="G29" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="96"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
-      <c r="A30" s="93"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="117"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="116"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
-      <c r="A31" s="93"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="110"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
-      <c r="A32" s="93"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="110"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="109"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
-      <c r="A33" s="93"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="110"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="109"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
-      <c r="A34" s="93"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="110"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="109"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
-      <c r="A35" s="93"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="110"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="109"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
-      <c r="A36" s="93"/>
+      <c r="A36" s="92"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="110"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="109"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
-      <c r="A37" s="93"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="110"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="109"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
-      <c r="A38" s="93"/>
+      <c r="A38" s="92"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="110"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="109"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
-      <c r="A39" s="93"/>
+      <c r="A39" s="92"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="110"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="109"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
-      <c r="A40" s="93"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="110"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="109"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
-      <c r="A41" s="93"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="109"/>
-      <c r="K41" s="110"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="109"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
-      <c r="A42" s="93"/>
+      <c r="A42" s="92"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="110"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="109"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
-      <c r="A43" s="93"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="110"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="109"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
-      <c r="A44" s="93"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="109"/>
-      <c r="K44" s="110"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="109"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
-      <c r="A45" s="93"/>
+      <c r="A45" s="92"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="110"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="109"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
-      <c r="A46" s="93"/>
+      <c r="A46" s="92"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="110"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="109"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
-      <c r="A47" s="93"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="109"/>
-      <c r="K47" s="110"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="109"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
-      <c r="A48" s="93"/>
+      <c r="A48" s="92"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
-      <c r="G48" s="114"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="110"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="109"/>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1">
-      <c r="A49" s="99"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="115"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="112"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8858,6 +8949,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -9001,15 +9101,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9017,6 +9108,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE99DE6A-D5AF-458E-878B-96B0555D5097}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9034,14 +9133,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
   <ds:schemaRefs>

--- a/01_画面設計書.xlsx
+++ b/01_画面設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Web\2023Dev3Early\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web\git\2023Dev3Early\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD2D1A1-8CF7-4039-B818-5A3A22455FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DE21D2-A3E0-4E1B-ACBC-F00B21CC944C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -32,19 +32,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -103,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -717,6 +704,20 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>日髙</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>谷口</t>
+    <rPh sb="0" eb="2">
+      <t>タニグチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1068,7 +1069,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -1362,6 +1363,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1371,6 +1384,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1389,6 +1444,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1410,71 +1489,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1504,7 +1526,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1524,101 +1564,92 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1711,6 +1742,1713 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0C12D9-74F0-E690-96B4-DB903CF8209F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="1390651"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ホーム画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1887D8-217C-4842-9E8F-A210190B6924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="3467101"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>投稿画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E374FAF-A578-4C13-8D56-7EF4772A8535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="2486026"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レシピ提案画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A617DF-1234-4F65-AE62-2DD268EC9482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="2495551"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>下書き画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D925616-400E-459D-B1A4-EDB30D657736}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="1990726"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8294B200-B293-45E6-B1EB-5DFEEB882167}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5172075" y="2476500"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ランキング画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35023B2-C4E7-45C3-82EF-D96227B6CA4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3546054" y="2465368"/>
+          <a:ext cx="1285302" cy="586763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索結果画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF2B97D-C1BF-48AF-B8EA-BF82B70AB6D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8420100" y="2971800"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>いいね画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7773CD6C-3E67-4671-B447-82E476798FF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="3790950"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>お気に入り画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB62E151-146F-425B-A111-00EC6F30D1C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="4600575"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>フォロー一覧画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A24BA0-6237-4B21-A902-0CE958140AB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="5400675"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>下書き保存画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE0FEFE-4FD9-475E-8476-24610C9A3EA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="6219825"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>設定画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="コネクタ: カギ線 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D471D1AC-26CE-9133-82D2-4BCEF902E6BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="971550" y="1685925"/>
+          <a:ext cx="2590800" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8EA56A9-D6C7-4195-B297-F81F40137D4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2590800" y="1685926"/>
+          <a:ext cx="971550" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="コネクタ: カギ線 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C94CD9-A0A2-4E25-8D79-80579867A83D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6305550" y="4381500"/>
+          <a:ext cx="3933824" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C769606-A622-48F4-89C8-50DAC9A5467C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="1685926"/>
+          <a:ext cx="962025" cy="790574"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="コネクタ: カギ線 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE681D5-6FDD-41F5-9E1F-358D8A2C3A9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="1685926"/>
+          <a:ext cx="3248025" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="コネクタ: カギ線 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79460BF3-14E7-4FE3-990E-5BEBCB3FB49D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7920038" y="2767012"/>
+          <a:ext cx="685799" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="コネクタ: カギ線 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2259D9-1966-4E21-B12E-687DBB608F25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7519988" y="3167062"/>
+          <a:ext cx="1504949" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="コネクタ: カギ線 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AAF2AA7-ED35-418E-97CE-CB60ECA7A44B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7110413" y="3576638"/>
+          <a:ext cx="2314574" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="コネクタ: カギ線 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{863A1A5B-DCB9-47D0-9823-5589E55EF18E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6710363" y="3976688"/>
+          <a:ext cx="3114674" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558DF3B8-E64C-1E9C-76E7-4ECDCE0F8A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4177229" y="1965594"/>
+          <a:ext cx="11476" cy="499774"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC59493-E8D2-4F90-88A8-18F859064CF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="3086101"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ACC3F5E-C990-4129-98B8-35E59F4B9E53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3546054" y="3431295"/>
+          <a:ext cx="1285301" cy="586763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>料理詳細画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11476</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1B67CF-F952-4514-AD76-07FBD65CDFE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="63" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4188705" y="3052131"/>
+          <a:ext cx="0" cy="379164"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11477</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>93298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310A517C-847E-4650-8408-4C6C99BE582F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3546055" y="4372318"/>
+          <a:ext cx="1285301" cy="586763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プロフィール画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（他人）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11477</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線矢印コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2100CE5F-4336-48AE-A00B-E5FBC773AF5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="2"/>
+          <a:endCxn id="67" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4188705" y="4018058"/>
+          <a:ext cx="1" cy="354260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>144194</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="コネクタ: カギ線 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEAA6851-AD67-40B0-8D98-EF5963FFBE2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="63" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2722056" y="2900678"/>
+          <a:ext cx="672545" cy="975451"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314327</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>144195</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="コネクタ: カギ線 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5627D94C-3B5B-4191-995D-A806B1BA5354}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="63" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4963071" y="2910891"/>
+          <a:ext cx="682071" cy="945501"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1907,7 +3645,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2431,15 +4169,15 @@
   </sheetPr>
   <dimension ref="A1:FT30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="150" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="138" zoomScaleNormal="150" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
-    <col min="5" max="8" width="4.109375" style="10" customWidth="1"/>
-    <col min="9" max="32" width="4.109375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="4.125" style="10" customWidth="1"/>
+    <col min="9" max="32" width="4.125" style="1" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="13" style="1"/>
   </cols>
@@ -2647,16 +4385,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="133" t="s">
+      <c r="Y2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="145">
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="148">
         <v>45040</v>
       </c>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="146"/>
-      <c r="AD2" s="147"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="150"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -2721,14 +4459,14 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="148" t="s">
+      <c r="Y4" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="148"/>
-      <c r="AA4" s="148"/>
-      <c r="AB4" s="148"/>
-      <c r="AC4" s="148"/>
-      <c r="AD4" s="148"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="13"/>
@@ -2758,14 +4496,14 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="148" t="s">
+      <c r="Y5" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="148"/>
-      <c r="AA5" s="148"/>
-      <c r="AB5" s="148"/>
-      <c r="AC5" s="148"/>
-      <c r="AD5" s="148"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="151"/>
+      <c r="AC5" s="151"/>
+      <c r="AD5" s="151"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -2778,16 +4516,16 @@
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="142" t="s">
+      <c r="F6" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
@@ -2810,26 +4548,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="135" t="s">
+      <c r="C7" s="153"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="137"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="134"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -2837,40 +4575,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="133" t="s">
+      <c r="Y7" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="134"/>
-      <c r="AA7" s="133" t="s">
+      <c r="Z7" s="131"/>
+      <c r="AA7" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="134"/>
-      <c r="AC7" s="133" t="s">
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="134"/>
+      <c r="AD7" s="131"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="66"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="139"/>
-      <c r="Q8" s="140"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="137"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -2878,12 +4616,16 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="120"/>
-      <c r="Z8" s="121"/>
-      <c r="AA8" s="120"/>
-      <c r="AB8" s="121"/>
-      <c r="AC8" s="120"/>
-      <c r="AD8" s="121"/>
+      <c r="Y8" s="204" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z8" s="205"/>
+      <c r="AA8" s="204" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB8" s="205"/>
+      <c r="AC8" s="138"/>
+      <c r="AD8" s="139"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="66"/>
       <c r="AG8" s="2"/>
@@ -2913,12 +4655,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="123"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="122"/>
-      <c r="AD9" s="123"/>
+      <c r="Y9" s="206"/>
+      <c r="Z9" s="207"/>
+      <c r="AA9" s="206"/>
+      <c r="AB9" s="207"/>
+      <c r="AC9" s="140"/>
+      <c r="AD9" s="141"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="66"/>
       <c r="AG9" s="2"/>
@@ -2948,12 +4690,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="125"/>
-      <c r="AA10" s="124"/>
-      <c r="AB10" s="125"/>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="125"/>
+      <c r="Y10" s="208"/>
+      <c r="Z10" s="209"/>
+      <c r="AA10" s="208"/>
+      <c r="AB10" s="209"/>
+      <c r="AC10" s="142"/>
+      <c r="AD10" s="143"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="66"/>
       <c r="AG10" s="12"/>
@@ -2994,105 +4736,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="141"/>
-      <c r="R12" s="141"/>
-      <c r="S12" s="141"/>
-      <c r="T12" s="141"/>
-      <c r="U12" s="141"/>
-      <c r="V12" s="141"/>
-      <c r="W12" s="141"/>
-      <c r="X12" s="141"/>
-      <c r="Y12" s="141"/>
-      <c r="Z12" s="141"/>
-      <c r="AA12" s="141"/>
-      <c r="AB12" s="141"/>
-      <c r="AC12" s="141"/>
-      <c r="AD12" s="141"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="144"/>
+      <c r="T12" s="144"/>
+      <c r="U12" s="144"/>
+      <c r="V12" s="144"/>
+      <c r="W12" s="144"/>
+      <c r="X12" s="144"/>
+      <c r="Y12" s="144"/>
+      <c r="Z12" s="144"/>
+      <c r="AA12" s="144"/>
+      <c r="AB12" s="144"/>
+      <c r="AC12" s="144"/>
+      <c r="AD12" s="144"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="141"/>
-      <c r="T13" s="141"/>
-      <c r="U13" s="141"/>
-      <c r="V13" s="141"/>
-      <c r="W13" s="141"/>
-      <c r="X13" s="141"/>
-      <c r="Y13" s="141"/>
-      <c r="Z13" s="141"/>
-      <c r="AA13" s="141"/>
-      <c r="AB13" s="141"/>
-      <c r="AC13" s="141"/>
-      <c r="AD13" s="141"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="144"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="144"/>
+      <c r="V13" s="144"/>
+      <c r="W13" s="144"/>
+      <c r="X13" s="144"/>
+      <c r="Y13" s="144"/>
+      <c r="Z13" s="144"/>
+      <c r="AA13" s="144"/>
+      <c r="AB13" s="144"/>
+      <c r="AC13" s="144"/>
+      <c r="AD13" s="144"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="141"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="141"/>
-      <c r="T14" s="141"/>
-      <c r="U14" s="141"/>
-      <c r="V14" s="141"/>
-      <c r="W14" s="141"/>
-      <c r="X14" s="141"/>
-      <c r="Y14" s="141"/>
-      <c r="Z14" s="141"/>
-      <c r="AA14" s="141"/>
-      <c r="AB14" s="141"/>
-      <c r="AC14" s="141"/>
-      <c r="AD14" s="141"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="144"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="144"/>
+      <c r="S14" s="144"/>
+      <c r="T14" s="144"/>
+      <c r="U14" s="144"/>
+      <c r="V14" s="144"/>
+      <c r="W14" s="144"/>
+      <c r="X14" s="144"/>
+      <c r="Y14" s="144"/>
+      <c r="Z14" s="144"/>
+      <c r="AA14" s="144"/>
+      <c r="AB14" s="144"/>
+      <c r="AC14" s="144"/>
+      <c r="AD14" s="144"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
@@ -3304,255 +5046,255 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="117" t="s">
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="117" t="s">
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="119"/>
-      <c r="AB21" s="117" t="s">
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="122"/>
+      <c r="T21" s="122"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="122"/>
+      <c r="X21" s="122"/>
+      <c r="Y21" s="122"/>
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="123"/>
+      <c r="AB21" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="AC21" s="118"/>
-      <c r="AD21" s="119"/>
+      <c r="AC21" s="122"/>
+      <c r="AD21" s="123"/>
       <c r="AE21" s="14"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="152">
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="127">
         <v>45040</v>
       </c>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="149" t="s">
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="150"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="150"/>
-      <c r="O22" s="150"/>
-      <c r="P22" s="150"/>
-      <c r="Q22" s="150"/>
-      <c r="R22" s="150"/>
-      <c r="S22" s="150"/>
-      <c r="T22" s="150"/>
-      <c r="U22" s="150"/>
-      <c r="V22" s="150"/>
-      <c r="W22" s="150"/>
-      <c r="X22" s="150"/>
-      <c r="Y22" s="150"/>
-      <c r="Z22" s="150"/>
-      <c r="AA22" s="151"/>
-      <c r="AB22" s="117" t="s">
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="125"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="125"/>
+      <c r="W22" s="125"/>
+      <c r="X22" s="125"/>
+      <c r="Y22" s="125"/>
+      <c r="Z22" s="125"/>
+      <c r="AA22" s="126"/>
+      <c r="AB22" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="AC22" s="118"/>
-      <c r="AD22" s="119"/>
+      <c r="AC22" s="122"/>
+      <c r="AD22" s="123"/>
       <c r="AE22" s="14"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="149"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="150"/>
-      <c r="O23" s="150"/>
-      <c r="P23" s="150"/>
-      <c r="Q23" s="150"/>
-      <c r="R23" s="150"/>
-      <c r="S23" s="150"/>
-      <c r="T23" s="150"/>
-      <c r="U23" s="150"/>
-      <c r="V23" s="150"/>
-      <c r="W23" s="150"/>
-      <c r="X23" s="150"/>
-      <c r="Y23" s="150"/>
-      <c r="Z23" s="150"/>
-      <c r="AA23" s="151"/>
-      <c r="AB23" s="117"/>
-      <c r="AC23" s="118"/>
-      <c r="AD23" s="119"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="125"/>
+      <c r="W23" s="125"/>
+      <c r="X23" s="125"/>
+      <c r="Y23" s="125"/>
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="126"/>
+      <c r="AB23" s="121"/>
+      <c r="AC23" s="122"/>
+      <c r="AD23" s="123"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="149"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="150"/>
-      <c r="O24" s="150"/>
-      <c r="P24" s="150"/>
-      <c r="Q24" s="150"/>
-      <c r="R24" s="150"/>
-      <c r="S24" s="150"/>
-      <c r="T24" s="150"/>
-      <c r="U24" s="150"/>
-      <c r="V24" s="150"/>
-      <c r="W24" s="150"/>
-      <c r="X24" s="150"/>
-      <c r="Y24" s="150"/>
-      <c r="Z24" s="150"/>
-      <c r="AA24" s="151"/>
-      <c r="AB24" s="117"/>
-      <c r="AC24" s="118"/>
-      <c r="AD24" s="119"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="125"/>
+      <c r="W24" s="125"/>
+      <c r="X24" s="125"/>
+      <c r="Y24" s="125"/>
+      <c r="Z24" s="125"/>
+      <c r="AA24" s="126"/>
+      <c r="AB24" s="121"/>
+      <c r="AC24" s="122"/>
+      <c r="AD24" s="123"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="150"/>
-      <c r="P25" s="150"/>
-      <c r="Q25" s="150"/>
-      <c r="R25" s="150"/>
-      <c r="S25" s="150"/>
-      <c r="T25" s="150"/>
-      <c r="U25" s="150"/>
-      <c r="V25" s="150"/>
-      <c r="W25" s="150"/>
-      <c r="X25" s="150"/>
-      <c r="Y25" s="150"/>
-      <c r="Z25" s="150"/>
-      <c r="AA25" s="151"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="118"/>
-      <c r="AD25" s="119"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="125"/>
+      <c r="U25" s="125"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="125"/>
+      <c r="Y25" s="125"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="126"/>
+      <c r="AB25" s="121"/>
+      <c r="AC25" s="122"/>
+      <c r="AD25" s="123"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
-      <c r="N26" s="150"/>
-      <c r="O26" s="150"/>
-      <c r="P26" s="150"/>
-      <c r="Q26" s="150"/>
-      <c r="R26" s="150"/>
-      <c r="S26" s="150"/>
-      <c r="T26" s="150"/>
-      <c r="U26" s="150"/>
-      <c r="V26" s="150"/>
-      <c r="W26" s="150"/>
-      <c r="X26" s="150"/>
-      <c r="Y26" s="150"/>
-      <c r="Z26" s="150"/>
-      <c r="AA26" s="151"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="118"/>
-      <c r="AD26" s="119"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="125"/>
+      <c r="U26" s="125"/>
+      <c r="V26" s="125"/>
+      <c r="W26" s="125"/>
+      <c r="X26" s="125"/>
+      <c r="Y26" s="125"/>
+      <c r="Z26" s="125"/>
+      <c r="AA26" s="126"/>
+      <c r="AB26" s="121"/>
+      <c r="AC26" s="122"/>
+      <c r="AD26" s="123"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
-      <c r="N27" s="150"/>
-      <c r="O27" s="150"/>
-      <c r="P27" s="150"/>
-      <c r="Q27" s="150"/>
-      <c r="R27" s="150"/>
-      <c r="S27" s="150"/>
-      <c r="T27" s="150"/>
-      <c r="U27" s="150"/>
-      <c r="V27" s="150"/>
-      <c r="W27" s="150"/>
-      <c r="X27" s="150"/>
-      <c r="Y27" s="150"/>
-      <c r="Z27" s="150"/>
-      <c r="AA27" s="151"/>
-      <c r="AB27" s="117"/>
-      <c r="AC27" s="118"/>
-      <c r="AD27" s="119"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="125"/>
+      <c r="S27" s="125"/>
+      <c r="T27" s="125"/>
+      <c r="U27" s="125"/>
+      <c r="V27" s="125"/>
+      <c r="W27" s="125"/>
+      <c r="X27" s="125"/>
+      <c r="Y27" s="125"/>
+      <c r="Z27" s="125"/>
+      <c r="AA27" s="126"/>
+      <c r="AB27" s="121"/>
+      <c r="AC27" s="122"/>
+      <c r="AD27" s="123"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="2"/>
     </row>
@@ -3660,15 +5402,23 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AD5"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -3685,23 +5435,15 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -3715,15 +5457,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2FA301-F346-4BB4-A6BC-EB44CCEDDEA4}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:Z4"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AM15" sqref="AM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.21875" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.21875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.25" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.25" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
@@ -3766,203 +5508,209 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="189" t="s">
+      <c r="B2" s="163"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="198" t="s">
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="159" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="192"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="193"/>
-      <c r="AG2" s="194"/>
+      <c r="AB2" s="171"/>
+      <c r="AC2" s="171"/>
+      <c r="AD2" s="159" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="161"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="158"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="189" t="s">
+      <c r="A3" s="165"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="193"/>
-      <c r="P3" s="193"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="193"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="194"/>
-      <c r="AA3" s="198" t="s">
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="160"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="161"/>
+      <c r="AA3" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="198"/>
-      <c r="AD3" s="192"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="193"/>
-      <c r="AG3" s="194"/>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="203">
+        <v>45043</v>
+      </c>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="161"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="189" t="s">
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="193"/>
-      <c r="M4" s="193"/>
-      <c r="N4" s="193"/>
-      <c r="O4" s="193"/>
-      <c r="P4" s="193"/>
-      <c r="Q4" s="193"/>
-      <c r="R4" s="193"/>
-      <c r="S4" s="193"/>
-      <c r="T4" s="193"/>
-      <c r="U4" s="193"/>
-      <c r="V4" s="193"/>
-      <c r="W4" s="193"/>
-      <c r="X4" s="193"/>
-      <c r="Y4" s="193"/>
-      <c r="Z4" s="194"/>
-      <c r="AA4" s="198" t="s">
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="160"/>
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="198"/>
-      <c r="AC4" s="198"/>
-      <c r="AD4" s="192"/>
-      <c r="AE4" s="193"/>
-      <c r="AF4" s="193"/>
-      <c r="AG4" s="194"/>
+      <c r="AB4" s="171"/>
+      <c r="AC4" s="171"/>
+      <c r="AD4" s="210"/>
+      <c r="AE4" s="211"/>
+      <c r="AF4" s="211"/>
+      <c r="AG4" s="212"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="195" t="s">
+      <c r="B5" s="163"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="193"/>
-      <c r="K5" s="193"/>
-      <c r="L5" s="193"/>
-      <c r="M5" s="193"/>
-      <c r="N5" s="193"/>
-      <c r="O5" s="193"/>
-      <c r="P5" s="193"/>
-      <c r="Q5" s="193"/>
-      <c r="R5" s="193"/>
-      <c r="S5" s="193"/>
-      <c r="T5" s="193"/>
-      <c r="U5" s="193"/>
-      <c r="V5" s="193"/>
-      <c r="W5" s="193"/>
-      <c r="X5" s="193"/>
-      <c r="Y5" s="193"/>
-      <c r="Z5" s="194"/>
-      <c r="AA5" s="198" t="s">
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="160"/>
+      <c r="S5" s="160"/>
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
+      <c r="X5" s="160"/>
+      <c r="Y5" s="160"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="192"/>
-      <c r="AE5" s="193"/>
-      <c r="AF5" s="193"/>
-      <c r="AG5" s="194"/>
+      <c r="AB5" s="171"/>
+      <c r="AC5" s="171"/>
+      <c r="AD5" s="159"/>
+      <c r="AE5" s="160"/>
+      <c r="AF5" s="160"/>
+      <c r="AG5" s="161"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="161"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="189" t="s">
+      <c r="A6" s="168"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="193"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="193"/>
-      <c r="X6" s="193"/>
-      <c r="Y6" s="193"/>
-      <c r="Z6" s="194"/>
-      <c r="AA6" s="198" t="s">
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="160"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="160"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="160"/>
+      <c r="V6" s="160"/>
+      <c r="W6" s="160"/>
+      <c r="X6" s="160"/>
+      <c r="Y6" s="160"/>
+      <c r="Z6" s="161"/>
+      <c r="AA6" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="198"/>
-      <c r="AC6" s="198"/>
-      <c r="AD6" s="192"/>
-      <c r="AE6" s="193"/>
-      <c r="AF6" s="193"/>
-      <c r="AG6" s="194"/>
+      <c r="AB6" s="171"/>
+      <c r="AC6" s="171"/>
+      <c r="AD6" s="159"/>
+      <c r="AE6" s="160"/>
+      <c r="AF6" s="160"/>
+      <c r="AG6" s="161"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -5226,12 +6974,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H6:Z6"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
@@ -5248,12 +6990,19 @@
     <mergeCell ref="H3:Z3"/>
     <mergeCell ref="H4:Z4"/>
     <mergeCell ref="H5:Z5"/>
+    <mergeCell ref="H6:Z6"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5265,18 +7014,18 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I6"/>
+      <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="46.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="46.25" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
@@ -5293,83 +7042,85 @@
       <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="200" t="s">
+      <c r="C2" s="172" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="201"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="169"/>
-      <c r="B3" s="199" t="s">
+      <c r="A3" s="182"/>
+      <c r="B3" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="200" t="s">
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="201"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="170"/>
-      <c r="B4" s="199" t="s">
+      <c r="A4" s="183"/>
+      <c r="B4" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="200" t="s">
+      <c r="C4" s="172"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="201"/>
+      <c r="I4" s="117"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="202" t="s">
+      <c r="B5" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="189"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="200" t="s">
+      <c r="C5" s="172"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="199"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="170"/>
-      <c r="B6" s="199" t="s">
+      <c r="A6" s="183"/>
+      <c r="B6" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="189"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="200" t="s">
+      <c r="C6" s="172"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="199"/>
+      <c r="I6" s="119"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1">
       <c r="A7" s="21"/>
@@ -5386,11 +7137,11 @@
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="166"/>
-      <c r="F8" s="167"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="180"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -5756,7 +7507,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5765,15 +7516,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.21875" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.21875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.25" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.25" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
@@ -5816,17 +7567,17 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="182" t="s">
+      <c r="B2" s="163"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="183"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="187"/>
       <c r="H2" s="50"/>
       <c r="I2" s="51"/>
       <c r="J2" s="51"/>
@@ -5846,26 +7597,26 @@
       <c r="X2" s="51"/>
       <c r="Y2" s="51"/>
       <c r="Z2" s="49"/>
-      <c r="AA2" s="164" t="s">
+      <c r="AA2" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164"/>
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="184"/>
       <c r="AD2" s="50"/>
       <c r="AE2" s="51"/>
       <c r="AF2" s="51"/>
       <c r="AG2" s="49"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="158"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="182" t="s">
+      <c r="A3" s="165"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="183"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="187"/>
       <c r="H3" s="50"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
@@ -5885,26 +7636,26 @@
       <c r="X3" s="51"/>
       <c r="Y3" s="51"/>
       <c r="Z3" s="49"/>
-      <c r="AA3" s="164" t="s">
+      <c r="AA3" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="164"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="184"/>
       <c r="AD3" s="50"/>
       <c r="AE3" s="51"/>
       <c r="AF3" s="51"/>
       <c r="AG3" s="49"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="182" t="s">
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="183"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="187"/>
       <c r="H4" s="50"/>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
@@ -5924,22 +7675,22 @@
       <c r="X4" s="51"/>
       <c r="Y4" s="51"/>
       <c r="Z4" s="49"/>
-      <c r="AA4" s="164" t="s">
+      <c r="AA4" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="164"/>
-      <c r="AC4" s="164"/>
+      <c r="AB4" s="184"/>
+      <c r="AC4" s="184"/>
       <c r="AD4" s="50"/>
       <c r="AE4" s="51"/>
       <c r="AF4" s="51"/>
       <c r="AG4" s="49"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="157"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="164"/>
       <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
@@ -5965,20 +7716,20 @@
       <c r="X5" s="51"/>
       <c r="Y5" s="51"/>
       <c r="Z5" s="49"/>
-      <c r="AA5" s="164" t="s">
+      <c r="AA5" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="164"/>
+      <c r="AB5" s="184"/>
+      <c r="AC5" s="184"/>
       <c r="AD5" s="50"/>
       <c r="AE5" s="51"/>
       <c r="AF5" s="51"/>
       <c r="AG5" s="49"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="161"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
+      <c r="A6" s="168"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="170"/>
       <c r="D6" s="86" t="s">
         <v>24</v>
       </c>
@@ -6004,11 +7755,11 @@
       <c r="X6" s="51"/>
       <c r="Y6" s="51"/>
       <c r="Z6" s="49"/>
-      <c r="AA6" s="164" t="s">
+      <c r="AA6" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="164"/>
-      <c r="AC6" s="164"/>
+      <c r="AB6" s="184"/>
+      <c r="AC6" s="184"/>
       <c r="AD6" s="50"/>
       <c r="AE6" s="51"/>
       <c r="AF6" s="51"/>
@@ -7303,164 +9054,164 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="14" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="14" width="8.125" customWidth="1"/>
     <col min="15" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="186"/>
-      <c r="T1" s="187"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="190"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="175"/>
+      <c r="B2" s="192"/>
       <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="171"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
       <c r="L2" s="59"/>
       <c r="M2" s="87"/>
       <c r="N2" s="87"/>
       <c r="O2" s="87"/>
       <c r="P2" s="87"/>
-      <c r="Q2" s="180" t="s">
+      <c r="Q2" s="199" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="181"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="87"/>
       <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="176"/>
-      <c r="B3" s="177"/>
+      <c r="A3" s="193"/>
+      <c r="B3" s="194"/>
       <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="171"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
       <c r="L3" s="59"/>
       <c r="M3" s="87"/>
       <c r="N3" s="87"/>
       <c r="O3" s="87"/>
       <c r="P3" s="87"/>
-      <c r="Q3" s="180" t="s">
+      <c r="Q3" s="199" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="181"/>
+      <c r="R3" s="200"/>
       <c r="S3" s="87"/>
       <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="178"/>
-      <c r="B4" s="179"/>
+      <c r="A4" s="195"/>
+      <c r="B4" s="196"/>
       <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="171"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="172"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
       <c r="L4" s="59"/>
       <c r="M4" s="87"/>
       <c r="N4" s="87"/>
       <c r="O4" s="87"/>
       <c r="P4" s="87"/>
-      <c r="Q4" s="180" t="s">
+      <c r="Q4" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="181"/>
+      <c r="R4" s="200"/>
       <c r="S4" s="87"/>
       <c r="T4" s="88"/>
     </row>
     <row r="5" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="175"/>
+      <c r="B5" s="192"/>
       <c r="C5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="171"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="172"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="198"/>
       <c r="L5" s="59"/>
       <c r="M5" s="87"/>
       <c r="N5" s="87"/>
       <c r="O5" s="87"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="180" t="s">
+      <c r="Q5" s="199" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="181"/>
+      <c r="R5" s="200"/>
       <c r="S5" s="87"/>
       <c r="T5" s="88"/>
     </row>
     <row r="6" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="176"/>
-      <c r="B6" s="177"/>
+      <c r="A6" s="193"/>
+      <c r="B6" s="194"/>
       <c r="C6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="182"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="184" t="s">
+      <c r="D6" s="185"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="201" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="184"/>
+      <c r="G6" s="201"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
@@ -7478,8 +9229,8 @@
       <c r="T6" s="88"/>
     </row>
     <row r="7" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="178"/>
-      <c r="B7" s="179"/>
+      <c r="A7" s="195"/>
+      <c r="B7" s="196"/>
       <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
@@ -7496,8 +9247,8 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="181"/>
+      <c r="Q7" s="199"/>
+      <c r="R7" s="200"/>
       <c r="S7" s="87"/>
       <c r="T7" s="88"/>
     </row>
@@ -8215,6 +9966,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -8223,12 +9980,6 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8245,14 +9996,14 @@
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -8330,13 +10081,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="171"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="173"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="202"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -8347,8 +10098,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="171"/>
-      <c r="D6" s="173"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -8949,12 +10700,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9102,15 +10850,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9134,10 +10886,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_画面設計書.xlsx
+++ b/01_画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web\git\2023Dev3Early\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DE21D2-A3E0-4E1B-ACBC-F00B21CC944C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECA50B1-EA9B-4F05-8AD6-9761D92ED766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1384,6 +1384,111 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1402,92 +1507,53 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1498,53 +1564,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1576,6 +1606,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1585,71 +1648,8 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4169,7 +4169,7 @@
   </sheetPr>
   <dimension ref="A1:FT30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="138" zoomScaleNormal="150" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="138" workbookViewId="0">
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
@@ -4385,16 +4385,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="130" t="s">
+      <c r="Y2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="148">
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="155">
         <v>45040</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="150"/>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="156"/>
+      <c r="AD2" s="157"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4459,14 +4459,14 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="151" t="s">
+      <c r="Y4" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="151"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
+      <c r="AC4" s="158"/>
+      <c r="AD4" s="158"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="13"/>
@@ -4496,14 +4496,14 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="151" t="s">
+      <c r="Y5" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="151"/>
-      <c r="AA5" s="151"/>
-      <c r="AB5" s="151"/>
-      <c r="AC5" s="151"/>
-      <c r="AD5" s="151"/>
+      <c r="Z5" s="158"/>
+      <c r="AA5" s="158"/>
+      <c r="AB5" s="158"/>
+      <c r="AC5" s="158"/>
+      <c r="AD5" s="158"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -4516,16 +4516,16 @@
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="145" t="s">
+      <c r="F6" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
@@ -4548,26 +4548,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="132" t="s">
+      <c r="C7" s="131"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="134"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="147"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4575,40 +4575,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="130" t="s">
+      <c r="Y7" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="130" t="s">
+      <c r="Z7" s="138"/>
+      <c r="AA7" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="131"/>
-      <c r="AC7" s="130" t="s">
+      <c r="AB7" s="138"/>
+      <c r="AC7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="131"/>
+      <c r="AD7" s="138"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="66"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="137"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="150"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4616,16 +4616,16 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="204" t="s">
+      <c r="Y8" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="Z8" s="205"/>
-      <c r="AA8" s="204" t="s">
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" s="205"/>
-      <c r="AC8" s="138"/>
-      <c r="AD8" s="139"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="124"/>
+      <c r="AD8" s="125"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="66"/>
       <c r="AG8" s="2"/>
@@ -4655,12 +4655,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="206"/>
-      <c r="Z9" s="207"/>
-      <c r="AA9" s="206"/>
-      <c r="AB9" s="207"/>
-      <c r="AC9" s="140"/>
-      <c r="AD9" s="141"/>
+      <c r="Y9" s="141"/>
+      <c r="Z9" s="142"/>
+      <c r="AA9" s="141"/>
+      <c r="AB9" s="142"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="127"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="66"/>
       <c r="AG9" s="2"/>
@@ -4690,12 +4690,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="208"/>
-      <c r="Z10" s="209"/>
-      <c r="AA10" s="208"/>
-      <c r="AB10" s="209"/>
-      <c r="AC10" s="142"/>
-      <c r="AD10" s="143"/>
+      <c r="Y10" s="143"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="143"/>
+      <c r="AB10" s="144"/>
+      <c r="AC10" s="128"/>
+      <c r="AD10" s="129"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="66"/>
       <c r="AG10" s="12"/>
@@ -4736,105 +4736,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="144"/>
-      <c r="AB12" s="144"/>
-      <c r="AC12" s="144"/>
-      <c r="AD12" s="144"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="151"/>
+      <c r="Z12" s="151"/>
+      <c r="AA12" s="151"/>
+      <c r="AB12" s="151"/>
+      <c r="AC12" s="151"/>
+      <c r="AD12" s="151"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
-      <c r="AB13" s="144"/>
-      <c r="AC13" s="144"/>
-      <c r="AD13" s="144"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="151"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="151"/>
+      <c r="Z13" s="151"/>
+      <c r="AA13" s="151"/>
+      <c r="AB13" s="151"/>
+      <c r="AC13" s="151"/>
+      <c r="AD13" s="151"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="144"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="144"/>
-      <c r="X14" s="144"/>
-      <c r="Y14" s="144"/>
-      <c r="Z14" s="144"/>
-      <c r="AA14" s="144"/>
-      <c r="AB14" s="144"/>
-      <c r="AC14" s="144"/>
-      <c r="AD14" s="144"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="151"/>
+      <c r="X14" s="151"/>
+      <c r="Y14" s="151"/>
+      <c r="Z14" s="151"/>
+      <c r="AA14" s="151"/>
+      <c r="AB14" s="151"/>
+      <c r="AC14" s="151"/>
+      <c r="AD14" s="151"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
@@ -5094,32 +5094,32 @@
       <c r="C22" s="122"/>
       <c r="D22" s="122"/>
       <c r="E22" s="123"/>
-      <c r="F22" s="127">
+      <c r="F22" s="162">
         <v>45040</v>
       </c>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="124" t="s">
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="125"/>
-      <c r="S22" s="125"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="125"/>
-      <c r="W22" s="125"/>
-      <c r="X22" s="125"/>
-      <c r="Y22" s="125"/>
-      <c r="Z22" s="125"/>
-      <c r="AA22" s="126"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="160"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="160"/>
+      <c r="R22" s="160"/>
+      <c r="S22" s="160"/>
+      <c r="T22" s="160"/>
+      <c r="U22" s="160"/>
+      <c r="V22" s="160"/>
+      <c r="W22" s="160"/>
+      <c r="X22" s="160"/>
+      <c r="Y22" s="160"/>
+      <c r="Z22" s="160"/>
+      <c r="AA22" s="161"/>
       <c r="AB22" s="121" t="s">
         <v>74</v>
       </c>
@@ -5134,28 +5134,28 @@
       <c r="C23" s="122"/>
       <c r="D23" s="122"/>
       <c r="E23" s="123"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="125"/>
-      <c r="W23" s="125"/>
-      <c r="X23" s="125"/>
-      <c r="Y23" s="125"/>
-      <c r="Z23" s="125"/>
-      <c r="AA23" s="126"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="160"/>
+      <c r="R23" s="160"/>
+      <c r="S23" s="160"/>
+      <c r="T23" s="160"/>
+      <c r="U23" s="160"/>
+      <c r="V23" s="160"/>
+      <c r="W23" s="160"/>
+      <c r="X23" s="160"/>
+      <c r="Y23" s="160"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="161"/>
       <c r="AB23" s="121"/>
       <c r="AC23" s="122"/>
       <c r="AD23" s="123"/>
@@ -5168,28 +5168,28 @@
       <c r="C24" s="122"/>
       <c r="D24" s="122"/>
       <c r="E24" s="123"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="125"/>
-      <c r="V24" s="125"/>
-      <c r="W24" s="125"/>
-      <c r="X24" s="125"/>
-      <c r="Y24" s="125"/>
-      <c r="Z24" s="125"/>
-      <c r="AA24" s="126"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="160"/>
+      <c r="O24" s="160"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="160"/>
+      <c r="R24" s="160"/>
+      <c r="S24" s="160"/>
+      <c r="T24" s="160"/>
+      <c r="U24" s="160"/>
+      <c r="V24" s="160"/>
+      <c r="W24" s="160"/>
+      <c r="X24" s="160"/>
+      <c r="Y24" s="160"/>
+      <c r="Z24" s="160"/>
+      <c r="AA24" s="161"/>
       <c r="AB24" s="121"/>
       <c r="AC24" s="122"/>
       <c r="AD24" s="123"/>
@@ -5202,28 +5202,28 @@
       <c r="C25" s="122"/>
       <c r="D25" s="122"/>
       <c r="E25" s="123"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="125"/>
-      <c r="T25" s="125"/>
-      <c r="U25" s="125"/>
-      <c r="V25" s="125"/>
-      <c r="W25" s="125"/>
-      <c r="X25" s="125"/>
-      <c r="Y25" s="125"/>
-      <c r="Z25" s="125"/>
-      <c r="AA25" s="126"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="160"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="160"/>
+      <c r="O25" s="160"/>
+      <c r="P25" s="160"/>
+      <c r="Q25" s="160"/>
+      <c r="R25" s="160"/>
+      <c r="S25" s="160"/>
+      <c r="T25" s="160"/>
+      <c r="U25" s="160"/>
+      <c r="V25" s="160"/>
+      <c r="W25" s="160"/>
+      <c r="X25" s="160"/>
+      <c r="Y25" s="160"/>
+      <c r="Z25" s="160"/>
+      <c r="AA25" s="161"/>
       <c r="AB25" s="121"/>
       <c r="AC25" s="122"/>
       <c r="AD25" s="123"/>
@@ -5236,28 +5236,28 @@
       <c r="C26" s="122"/>
       <c r="D26" s="122"/>
       <c r="E26" s="123"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="125"/>
-      <c r="S26" s="125"/>
-      <c r="T26" s="125"/>
-      <c r="U26" s="125"/>
-      <c r="V26" s="125"/>
-      <c r="W26" s="125"/>
-      <c r="X26" s="125"/>
-      <c r="Y26" s="125"/>
-      <c r="Z26" s="125"/>
-      <c r="AA26" s="126"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="160"/>
+      <c r="O26" s="160"/>
+      <c r="P26" s="160"/>
+      <c r="Q26" s="160"/>
+      <c r="R26" s="160"/>
+      <c r="S26" s="160"/>
+      <c r="T26" s="160"/>
+      <c r="U26" s="160"/>
+      <c r="V26" s="160"/>
+      <c r="W26" s="160"/>
+      <c r="X26" s="160"/>
+      <c r="Y26" s="160"/>
+      <c r="Z26" s="160"/>
+      <c r="AA26" s="161"/>
       <c r="AB26" s="121"/>
       <c r="AC26" s="122"/>
       <c r="AD26" s="123"/>
@@ -5270,28 +5270,28 @@
       <c r="C27" s="122"/>
       <c r="D27" s="122"/>
       <c r="E27" s="123"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="125"/>
-      <c r="S27" s="125"/>
-      <c r="T27" s="125"/>
-      <c r="U27" s="125"/>
-      <c r="V27" s="125"/>
-      <c r="W27" s="125"/>
-      <c r="X27" s="125"/>
-      <c r="Y27" s="125"/>
-      <c r="Z27" s="125"/>
-      <c r="AA27" s="126"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="160"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="160"/>
+      <c r="O27" s="160"/>
+      <c r="P27" s="160"/>
+      <c r="Q27" s="160"/>
+      <c r="R27" s="160"/>
+      <c r="S27" s="160"/>
+      <c r="T27" s="160"/>
+      <c r="U27" s="160"/>
+      <c r="V27" s="160"/>
+      <c r="W27" s="160"/>
+      <c r="X27" s="160"/>
+      <c r="Y27" s="160"/>
+      <c r="Z27" s="160"/>
+      <c r="AA27" s="161"/>
       <c r="AB27" s="121"/>
       <c r="AC27" s="122"/>
       <c r="AD27" s="123"/>
@@ -5402,23 +5402,15 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -5435,15 +5427,23 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5457,7 +5457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2FA301-F346-4BB4-A6BC-EB44CCEDDEA4}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AM15" sqref="AM15"/>
     </sheetView>
   </sheetViews>
@@ -5508,209 +5508,209 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="172" t="s">
+      <c r="B2" s="166"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="159" t="s">
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="171" t="s">
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="171"/>
-      <c r="AD2" s="159" t="s">
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174"/>
+      <c r="AD2" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="161"/>
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="165"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="172" t="s">
+      <c r="A3" s="168"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="161"/>
-      <c r="AA3" s="171" t="s">
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="182"/>
+      <c r="W3" s="182"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="203">
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="184">
         <v>45043</v>
       </c>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="161"/>
+      <c r="AE3" s="182"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="168"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="172" t="s">
+      <c r="A4" s="171"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="160"/>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="171" t="s">
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="182"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="182"/>
+      <c r="Q4" s="182"/>
+      <c r="R4" s="182"/>
+      <c r="S4" s="182"/>
+      <c r="T4" s="182"/>
+      <c r="U4" s="182"/>
+      <c r="V4" s="182"/>
+      <c r="W4" s="182"/>
+      <c r="X4" s="182"/>
+      <c r="Y4" s="182"/>
+      <c r="Z4" s="183"/>
+      <c r="AA4" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="171"/>
-      <c r="AC4" s="171"/>
-      <c r="AD4" s="210"/>
-      <c r="AE4" s="211"/>
-      <c r="AF4" s="211"/>
-      <c r="AG4" s="212"/>
+      <c r="AB4" s="174"/>
+      <c r="AC4" s="174"/>
+      <c r="AD4" s="185"/>
+      <c r="AE4" s="186"/>
+      <c r="AF4" s="186"/>
+      <c r="AG4" s="187"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="175" t="s">
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
-      <c r="X5" s="160"/>
-      <c r="Y5" s="160"/>
-      <c r="Z5" s="161"/>
-      <c r="AA5" s="171" t="s">
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="182"/>
+      <c r="V5" s="182"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="182"/>
+      <c r="Y5" s="182"/>
+      <c r="Z5" s="183"/>
+      <c r="AA5" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="171"/>
-      <c r="AC5" s="171"/>
-      <c r="AD5" s="159"/>
-      <c r="AE5" s="160"/>
-      <c r="AF5" s="160"/>
-      <c r="AG5" s="161"/>
+      <c r="AB5" s="174"/>
+      <c r="AC5" s="174"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="182"/>
+      <c r="AF5" s="182"/>
+      <c r="AG5" s="183"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="168"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="172" t="s">
+      <c r="A6" s="171"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="160"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="160"/>
-      <c r="X6" s="160"/>
-      <c r="Y6" s="160"/>
-      <c r="Z6" s="161"/>
-      <c r="AA6" s="171" t="s">
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="182"/>
+      <c r="S6" s="182"/>
+      <c r="T6" s="182"/>
+      <c r="U6" s="182"/>
+      <c r="V6" s="182"/>
+      <c r="W6" s="182"/>
+      <c r="X6" s="182"/>
+      <c r="Y6" s="182"/>
+      <c r="Z6" s="183"/>
+      <c r="AA6" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="171"/>
-      <c r="AC6" s="171"/>
-      <c r="AD6" s="159"/>
-      <c r="AE6" s="160"/>
-      <c r="AF6" s="160"/>
-      <c r="AG6" s="161"/>
+      <c r="AB6" s="174"/>
+      <c r="AC6" s="174"/>
+      <c r="AD6" s="181"/>
+      <c r="AE6" s="182"/>
+      <c r="AF6" s="182"/>
+      <c r="AG6" s="183"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -6974,6 +6974,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H6:Z6"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
@@ -6990,12 +6996,6 @@
     <mergeCell ref="H3:Z3"/>
     <mergeCell ref="H4:Z4"/>
     <mergeCell ref="H5:Z5"/>
-    <mergeCell ref="H6:Z6"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -7013,8 +7013,8 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G3"/>
+    <sheetView topLeftCell="B3" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -7042,81 +7042,81 @@
       <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="191" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="174"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="177"/>
       <c r="H2" s="118" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="182"/>
+      <c r="A3" s="192"/>
       <c r="B3" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="174"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="177"/>
       <c r="H3" s="118" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="183"/>
+      <c r="A4" s="193"/>
       <c r="B4" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="172"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="174"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="177"/>
       <c r="H4" s="118" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="117"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="191" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="174"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="177"/>
       <c r="H5" s="118" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="183"/>
+      <c r="A6" s="193"/>
       <c r="B6" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="174"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="177"/>
       <c r="H6" s="118" t="s">
         <v>25</v>
       </c>
@@ -7137,11 +7137,11 @@
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="178" t="s">
+      <c r="D8" s="188" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="179"/>
-      <c r="F8" s="180"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="190"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -7516,7 +7516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
@@ -7567,17 +7567,17 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="185" t="s">
+      <c r="B2" s="166"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="187"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="197"/>
       <c r="H2" s="50"/>
       <c r="I2" s="51"/>
       <c r="J2" s="51"/>
@@ -7597,26 +7597,26 @@
       <c r="X2" s="51"/>
       <c r="Y2" s="51"/>
       <c r="Z2" s="49"/>
-      <c r="AA2" s="184" t="s">
+      <c r="AA2" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="184"/>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="194"/>
       <c r="AD2" s="50"/>
       <c r="AE2" s="51"/>
       <c r="AF2" s="51"/>
       <c r="AG2" s="49"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="165"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="185" t="s">
+      <c r="A3" s="168"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="187"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="197"/>
       <c r="H3" s="50"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
@@ -7636,26 +7636,26 @@
       <c r="X3" s="51"/>
       <c r="Y3" s="51"/>
       <c r="Z3" s="49"/>
-      <c r="AA3" s="184" t="s">
+      <c r="AA3" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="184"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="194"/>
       <c r="AD3" s="50"/>
       <c r="AE3" s="51"/>
       <c r="AF3" s="51"/>
       <c r="AG3" s="49"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="168"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="185" t="s">
+      <c r="A4" s="171"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="195" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="187"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="197"/>
       <c r="H4" s="50"/>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
@@ -7675,22 +7675,22 @@
       <c r="X4" s="51"/>
       <c r="Y4" s="51"/>
       <c r="Z4" s="49"/>
-      <c r="AA4" s="184" t="s">
+      <c r="AA4" s="194" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="184"/>
-      <c r="AC4" s="184"/>
+      <c r="AB4" s="194"/>
+      <c r="AC4" s="194"/>
       <c r="AD4" s="50"/>
       <c r="AE4" s="51"/>
       <c r="AF4" s="51"/>
       <c r="AG4" s="49"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="164"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
       <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
@@ -7716,20 +7716,20 @@
       <c r="X5" s="51"/>
       <c r="Y5" s="51"/>
       <c r="Z5" s="49"/>
-      <c r="AA5" s="184" t="s">
+      <c r="AA5" s="194" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="184"/>
-      <c r="AC5" s="184"/>
+      <c r="AB5" s="194"/>
+      <c r="AC5" s="194"/>
       <c r="AD5" s="50"/>
       <c r="AE5" s="51"/>
       <c r="AF5" s="51"/>
       <c r="AG5" s="49"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="168"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="170"/>
+      <c r="A6" s="171"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="86" t="s">
         <v>24</v>
       </c>
@@ -7755,11 +7755,11 @@
       <c r="X6" s="51"/>
       <c r="Y6" s="51"/>
       <c r="Z6" s="49"/>
-      <c r="AA6" s="184" t="s">
+      <c r="AA6" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="184"/>
-      <c r="AC6" s="184"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="194"/>
       <c r="AD6" s="50"/>
       <c r="AE6" s="51"/>
       <c r="AF6" s="51"/>
@@ -9069,149 +9069,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
-      <c r="S1" s="189"/>
-      <c r="T1" s="190"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
+      <c r="P1" s="210"/>
+      <c r="Q1" s="210"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="210"/>
+      <c r="T1" s="211"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="198" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="192"/>
+      <c r="B2" s="199"/>
       <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
       <c r="L2" s="59"/>
       <c r="M2" s="87"/>
       <c r="N2" s="87"/>
       <c r="O2" s="87"/>
       <c r="P2" s="87"/>
-      <c r="Q2" s="199" t="s">
+      <c r="Q2" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="200"/>
+      <c r="R2" s="207"/>
       <c r="S2" s="87"/>
       <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="193"/>
-      <c r="B3" s="194"/>
+      <c r="A3" s="200"/>
+      <c r="B3" s="201"/>
       <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="197"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="198"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
       <c r="L3" s="59"/>
       <c r="M3" s="87"/>
       <c r="N3" s="87"/>
       <c r="O3" s="87"/>
       <c r="P3" s="87"/>
-      <c r="Q3" s="199" t="s">
+      <c r="Q3" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="200"/>
+      <c r="R3" s="207"/>
       <c r="S3" s="87"/>
       <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="195"/>
-      <c r="B4" s="196"/>
+      <c r="A4" s="202"/>
+      <c r="B4" s="203"/>
       <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="197"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="198"/>
-      <c r="K4" s="198"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
       <c r="L4" s="59"/>
       <c r="M4" s="87"/>
       <c r="N4" s="87"/>
       <c r="O4" s="87"/>
       <c r="P4" s="87"/>
-      <c r="Q4" s="199" t="s">
+      <c r="Q4" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="200"/>
+      <c r="R4" s="207"/>
       <c r="S4" s="87"/>
       <c r="T4" s="88"/>
     </row>
     <row r="5" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="192"/>
+      <c r="B5" s="199"/>
       <c r="C5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="197"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="198"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
+      <c r="J5" s="205"/>
+      <c r="K5" s="205"/>
       <c r="L5" s="59"/>
       <c r="M5" s="87"/>
       <c r="N5" s="87"/>
       <c r="O5" s="87"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="199" t="s">
+      <c r="Q5" s="206" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="200"/>
+      <c r="R5" s="207"/>
       <c r="S5" s="87"/>
       <c r="T5" s="88"/>
     </row>
     <row r="6" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="193"/>
-      <c r="B6" s="194"/>
+      <c r="A6" s="200"/>
+      <c r="B6" s="201"/>
       <c r="C6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="185"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="201" t="s">
+      <c r="D6" s="195"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="201"/>
+      <c r="G6" s="208"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
@@ -9229,8 +9229,8 @@
       <c r="T6" s="88"/>
     </row>
     <row r="7" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="195"/>
-      <c r="B7" s="196"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="203"/>
       <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
@@ -9247,8 +9247,8 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="199"/>
-      <c r="R7" s="200"/>
+      <c r="Q7" s="206"/>
+      <c r="R7" s="207"/>
       <c r="S7" s="87"/>
       <c r="T7" s="88"/>
     </row>
@@ -9966,12 +9966,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -9980,6 +9974,12 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9992,8 +9992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -10081,13 +10081,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="197"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="202"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="212"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -10098,8 +10098,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="202"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="212"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -10700,9 +10700,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10850,19 +10853,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10886,9 +10885,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_画面設計書.xlsx
+++ b/01_画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web\git\2023Dev3Early\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECA50B1-EA9B-4F05-8AD6-9761D92ED766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26524059-A3AA-4EAC-A05B-2765A37F14B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="画面一覧" sheetId="16" r:id="rId3"/>
     <sheet name="画面遷移図" sheetId="26" r:id="rId4"/>
     <sheet name="(Gxx)PC画面フォーム" sheetId="72" r:id="rId5"/>
-    <sheet name="(Gxx)モバイル画面フォーム" sheetId="73" r:id="rId6"/>
+    <sheet name="(G1-1)モバイル画面フォーム" sheetId="73" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'(G1-1)モバイル画面フォーム'!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'(Gxx)PC画面フォーム'!$A$1:$T$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'(Gxx)モバイル画面フォーム'!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">サイトマップ構造図!$A$1:$AG$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図!$A$1:$AG$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AE$28</definedName>
@@ -1384,6 +1384,90 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1423,89 +1507,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1555,27 +1576,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1606,6 +1606,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1638,15 +1647,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3452,6 +3452,4008 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD7A19B-C772-4E59-ABDD-B05D43630292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="1390651"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>G1-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　 　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ホーム画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDC01D8-E7EF-4098-8468-A22EEE859197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="3467101"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>投稿画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B176C441-CF2E-47D4-A3FE-BE558162BB04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="2486026"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レシピ提案画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A726C407-A1FF-453E-93E5-4C2E98A0BD1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="2495551"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>下書き画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89080E63-2445-43EB-A889-3A4ED00A1DDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="1990726"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5BB4C02-FB9C-4679-A42D-A9B6A2BEC942}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5172075" y="2476500"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ランキング画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93F9A09-BFA8-434C-86B2-468049F04A15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3573826" y="2486025"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索結果画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82DBC322-8B0E-46B9-A03A-7F3262738675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8420100" y="2971800"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>いいね画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1618C42-1800-4BEC-AFA8-10331B9155BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="3790950"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>お気に入り画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A690CE6-A867-40FF-A39A-93361B8AF184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="4600575"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>フォロー一覧画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672AF245-C5F1-410A-943A-478DDA3CDA53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="5400675"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>下書き保存画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF191BB3-EFCA-4349-BF2B-234E3688DBD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="6219825"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>設定画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="コネクタ: カギ線 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E88E94-3024-4062-9C23-04E1BCE13778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="971550" y="1685925"/>
+          <a:ext cx="2590800" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="コネクタ: カギ線 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18F4B53-75C0-448C-9CCD-1D88CB2E0C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2590800" y="1685926"/>
+          <a:ext cx="971550" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="コネクタ: カギ線 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6960814-9265-40C5-807D-F1C17AE8D4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6305550" y="4381500"/>
+          <a:ext cx="3933824" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2790B0E-AB08-43BB-91DD-D15D0A9BFDF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="1685926"/>
+          <a:ext cx="962025" cy="790574"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="コネクタ: カギ線 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB75E3B-7977-4046-9A89-AF5ACF06F917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="1685926"/>
+          <a:ext cx="3248025" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="コネクタ: カギ線 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A6B89C-CC5D-4960-9156-F54B7E37D773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7920038" y="2767012"/>
+          <a:ext cx="685799" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="コネクタ: カギ線 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A022CFF7-080C-447B-A85A-01129037B224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7519988" y="3167062"/>
+          <a:ext cx="1504949" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="コネクタ: カギ線 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4AB35C5-4690-4300-A4D8-4435B8815A1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7110413" y="3576638"/>
+          <a:ext cx="2314574" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="コネクタ: カギ線 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{185AC832-1EA9-4642-8E8A-15E174C592C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6710363" y="3976688"/>
+          <a:ext cx="3114674" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39BD940-4337-49E1-BEF4-259A919FE4CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210050" y="1981201"/>
+          <a:ext cx="11476" cy="504824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C8835A-67AC-4206-8AAF-F072BC80BE43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="3086101"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F07B6D-D955-4A84-B4FC-82B8DB95CB9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3573826" y="3459526"/>
+          <a:ext cx="1295399" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>料理詳細画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11476</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F27025-D1B2-4D29-AEE5-07C161CF50EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4221526" y="3076575"/>
+          <a:ext cx="0" cy="382951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11477</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>93298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B08B14-F108-48E4-BF01-15FE2B8D46B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3573827" y="4406860"/>
+          <a:ext cx="1295399" cy="591813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プロフィール画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（他人）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11477</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886B8BDA-A479-4A2D-99FE-4EFD4A2AFE93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="2"/>
+          <a:endCxn id="27" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4221526" y="4050076"/>
+          <a:ext cx="1" cy="356784"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>144194</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="コネクタ: カギ線 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305B2160-E611-4404-A368-F774D8216EE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2743517" y="2923859"/>
+          <a:ext cx="677594" cy="983025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314327</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>144195</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="コネクタ: カギ線 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7384793F-2504-4397-AB67-19C86DEC74A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="25" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5000942" y="2935334"/>
+          <a:ext cx="687120" cy="950551"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="コネクタ: カギ線 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CB43CD-FD5C-AFAE-748B-ADBF41355805}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="971550" y="4057651"/>
+          <a:ext cx="8753475" cy="1638299"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2612"/>
+            <a:gd name="adj2" fmla="val -87500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -3645,7 +7647,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3837,6 +7839,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>724754</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA4CDD3-9D6D-0F0D-CD10-656DEB60C5E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1752600"/>
+          <a:ext cx="3328254" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4385,16 +8431,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="137" t="s">
+      <c r="Y2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="155">
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="148">
         <v>45040</v>
       </c>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="157"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="150"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4459,14 +8505,14 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="158" t="s">
+      <c r="Y4" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="158"/>
-      <c r="AD4" s="158"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="13"/>
@@ -4496,14 +8542,14 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="158" t="s">
+      <c r="Y5" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="158"/>
-      <c r="AA5" s="158"/>
-      <c r="AB5" s="158"/>
-      <c r="AC5" s="158"/>
-      <c r="AD5" s="158"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="151"/>
+      <c r="AC5" s="151"/>
+      <c r="AD5" s="151"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -4516,16 +8562,16 @@
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="152" t="s">
+      <c r="F6" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
@@ -4548,26 +8594,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="145" t="s">
+      <c r="C7" s="159"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="147"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="134"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4575,40 +8621,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="137" t="s">
+      <c r="Y7" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="137" t="s">
+      <c r="Z7" s="131"/>
+      <c r="AA7" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="137" t="s">
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="138"/>
+      <c r="AD7" s="131"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="66"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="149"/>
-      <c r="Q8" s="150"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="137"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4616,16 +8662,16 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="139" t="s">
+      <c r="Y8" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="Z8" s="140"/>
-      <c r="AA8" s="139" t="s">
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" s="140"/>
-      <c r="AC8" s="124"/>
-      <c r="AD8" s="125"/>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="153"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="66"/>
       <c r="AG8" s="2"/>
@@ -4655,12 +8701,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="142"/>
-      <c r="AA9" s="141"/>
-      <c r="AB9" s="142"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="127"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="140"/>
+      <c r="AB9" s="141"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="155"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="66"/>
       <c r="AG9" s="2"/>
@@ -4690,12 +8736,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="143"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="129"/>
+      <c r="Y10" s="142"/>
+      <c r="Z10" s="143"/>
+      <c r="AA10" s="142"/>
+      <c r="AB10" s="143"/>
+      <c r="AC10" s="156"/>
+      <c r="AD10" s="157"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="66"/>
       <c r="AG10" s="12"/>
@@ -4736,105 +8782,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="151"/>
-      <c r="S12" s="151"/>
-      <c r="T12" s="151"/>
-      <c r="U12" s="151"/>
-      <c r="V12" s="151"/>
-      <c r="W12" s="151"/>
-      <c r="X12" s="151"/>
-      <c r="Y12" s="151"/>
-      <c r="Z12" s="151"/>
-      <c r="AA12" s="151"/>
-      <c r="AB12" s="151"/>
-      <c r="AC12" s="151"/>
-      <c r="AD12" s="151"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="144"/>
+      <c r="T12" s="144"/>
+      <c r="U12" s="144"/>
+      <c r="V12" s="144"/>
+      <c r="W12" s="144"/>
+      <c r="X12" s="144"/>
+      <c r="Y12" s="144"/>
+      <c r="Z12" s="144"/>
+      <c r="AA12" s="144"/>
+      <c r="AB12" s="144"/>
+      <c r="AC12" s="144"/>
+      <c r="AD12" s="144"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="151"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="151"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
-      <c r="AD13" s="151"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="144"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="144"/>
+      <c r="V13" s="144"/>
+      <c r="W13" s="144"/>
+      <c r="X13" s="144"/>
+      <c r="Y13" s="144"/>
+      <c r="Z13" s="144"/>
+      <c r="AA13" s="144"/>
+      <c r="AB13" s="144"/>
+      <c r="AC13" s="144"/>
+      <c r="AD13" s="144"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="151"/>
-      <c r="W14" s="151"/>
-      <c r="X14" s="151"/>
-      <c r="Y14" s="151"/>
-      <c r="Z14" s="151"/>
-      <c r="AA14" s="151"/>
-      <c r="AB14" s="151"/>
-      <c r="AC14" s="151"/>
-      <c r="AD14" s="151"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="144"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="144"/>
+      <c r="S14" s="144"/>
+      <c r="T14" s="144"/>
+      <c r="U14" s="144"/>
+      <c r="V14" s="144"/>
+      <c r="W14" s="144"/>
+      <c r="X14" s="144"/>
+      <c r="Y14" s="144"/>
+      <c r="Z14" s="144"/>
+      <c r="AA14" s="144"/>
+      <c r="AB14" s="144"/>
+      <c r="AC14" s="144"/>
+      <c r="AD14" s="144"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
@@ -5094,32 +9140,32 @@
       <c r="C22" s="122"/>
       <c r="D22" s="122"/>
       <c r="E22" s="123"/>
-      <c r="F22" s="162">
+      <c r="F22" s="127">
         <v>45040</v>
       </c>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="159" t="s">
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="160"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="160"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="160"/>
-      <c r="V22" s="160"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="161"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="125"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="125"/>
+      <c r="W22" s="125"/>
+      <c r="X22" s="125"/>
+      <c r="Y22" s="125"/>
+      <c r="Z22" s="125"/>
+      <c r="AA22" s="126"/>
       <c r="AB22" s="121" t="s">
         <v>74</v>
       </c>
@@ -5134,28 +9180,28 @@
       <c r="C23" s="122"/>
       <c r="D23" s="122"/>
       <c r="E23" s="123"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="159"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="160"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="160"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="160"/>
-      <c r="V23" s="160"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="160"/>
-      <c r="AA23" s="161"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="125"/>
+      <c r="W23" s="125"/>
+      <c r="X23" s="125"/>
+      <c r="Y23" s="125"/>
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="126"/>
       <c r="AB23" s="121"/>
       <c r="AC23" s="122"/>
       <c r="AD23" s="123"/>
@@ -5168,28 +9214,28 @@
       <c r="C24" s="122"/>
       <c r="D24" s="122"/>
       <c r="E24" s="123"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="160"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="160"/>
-      <c r="R24" s="160"/>
-      <c r="S24" s="160"/>
-      <c r="T24" s="160"/>
-      <c r="U24" s="160"/>
-      <c r="V24" s="160"/>
-      <c r="W24" s="160"/>
-      <c r="X24" s="160"/>
-      <c r="Y24" s="160"/>
-      <c r="Z24" s="160"/>
-      <c r="AA24" s="161"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="125"/>
+      <c r="W24" s="125"/>
+      <c r="X24" s="125"/>
+      <c r="Y24" s="125"/>
+      <c r="Z24" s="125"/>
+      <c r="AA24" s="126"/>
       <c r="AB24" s="121"/>
       <c r="AC24" s="122"/>
       <c r="AD24" s="123"/>
@@ -5202,28 +9248,28 @@
       <c r="C25" s="122"/>
       <c r="D25" s="122"/>
       <c r="E25" s="123"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="159"/>
-      <c r="L25" s="160"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="160"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="160"/>
-      <c r="R25" s="160"/>
-      <c r="S25" s="160"/>
-      <c r="T25" s="160"/>
-      <c r="U25" s="160"/>
-      <c r="V25" s="160"/>
-      <c r="W25" s="160"/>
-      <c r="X25" s="160"/>
-      <c r="Y25" s="160"/>
-      <c r="Z25" s="160"/>
-      <c r="AA25" s="161"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="125"/>
+      <c r="U25" s="125"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="125"/>
+      <c r="Y25" s="125"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="126"/>
       <c r="AB25" s="121"/>
       <c r="AC25" s="122"/>
       <c r="AD25" s="123"/>
@@ -5236,28 +9282,28 @@
       <c r="C26" s="122"/>
       <c r="D26" s="122"/>
       <c r="E26" s="123"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="160"/>
-      <c r="N26" s="160"/>
-      <c r="O26" s="160"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="160"/>
-      <c r="R26" s="160"/>
-      <c r="S26" s="160"/>
-      <c r="T26" s="160"/>
-      <c r="U26" s="160"/>
-      <c r="V26" s="160"/>
-      <c r="W26" s="160"/>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="160"/>
-      <c r="Z26" s="160"/>
-      <c r="AA26" s="161"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="125"/>
+      <c r="U26" s="125"/>
+      <c r="V26" s="125"/>
+      <c r="W26" s="125"/>
+      <c r="X26" s="125"/>
+      <c r="Y26" s="125"/>
+      <c r="Z26" s="125"/>
+      <c r="AA26" s="126"/>
       <c r="AB26" s="121"/>
       <c r="AC26" s="122"/>
       <c r="AD26" s="123"/>
@@ -5270,28 +9316,28 @@
       <c r="C27" s="122"/>
       <c r="D27" s="122"/>
       <c r="E27" s="123"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="159"/>
-      <c r="L27" s="160"/>
-      <c r="M27" s="160"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="160"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="160"/>
-      <c r="R27" s="160"/>
-      <c r="S27" s="160"/>
-      <c r="T27" s="160"/>
-      <c r="U27" s="160"/>
-      <c r="V27" s="160"/>
-      <c r="W27" s="160"/>
-      <c r="X27" s="160"/>
-      <c r="Y27" s="160"/>
-      <c r="Z27" s="160"/>
-      <c r="AA27" s="161"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="125"/>
+      <c r="S27" s="125"/>
+      <c r="T27" s="125"/>
+      <c r="U27" s="125"/>
+      <c r="V27" s="125"/>
+      <c r="W27" s="125"/>
+      <c r="X27" s="125"/>
+      <c r="Y27" s="125"/>
+      <c r="Z27" s="125"/>
+      <c r="AA27" s="126"/>
       <c r="AB27" s="121"/>
       <c r="AC27" s="122"/>
       <c r="AD27" s="123"/>
@@ -5402,15 +9448,23 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AD5"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -5427,23 +9481,15 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5458,7 +9504,7 @@
   <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+      <selection activeCell="A7" sqref="A7:AG45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -5508,209 +9554,209 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="175" t="s">
+      <c r="B2" s="173"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="181" t="s">
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="182"/>
-      <c r="W2" s="182"/>
-      <c r="X2" s="182"/>
-      <c r="Y2" s="182"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="174" t="s">
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="181" t="s">
+      <c r="AB2" s="181"/>
+      <c r="AC2" s="181"/>
+      <c r="AD2" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="167"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="175" t="s">
+      <c r="A3" s="175"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="182"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="174" t="s">
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="174"/>
-      <c r="AD3" s="184">
+      <c r="AB3" s="181"/>
+      <c r="AC3" s="181"/>
+      <c r="AD3" s="168">
         <v>45043</v>
       </c>
-      <c r="AE3" s="182"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="166"/>
+      <c r="AG3" s="167"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="171"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="175" t="s">
+      <c r="A4" s="178"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="182"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="182"/>
-      <c r="N4" s="182"/>
-      <c r="O4" s="182"/>
-      <c r="P4" s="182"/>
-      <c r="Q4" s="182"/>
-      <c r="R4" s="182"/>
-      <c r="S4" s="182"/>
-      <c r="T4" s="182"/>
-      <c r="U4" s="182"/>
-      <c r="V4" s="182"/>
-      <c r="W4" s="182"/>
-      <c r="X4" s="182"/>
-      <c r="Y4" s="182"/>
-      <c r="Z4" s="183"/>
-      <c r="AA4" s="174" t="s">
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="166"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="174"/>
-      <c r="AD4" s="185"/>
-      <c r="AE4" s="186"/>
-      <c r="AF4" s="186"/>
-      <c r="AG4" s="187"/>
+      <c r="AB4" s="181"/>
+      <c r="AC4" s="181"/>
+      <c r="AD4" s="169"/>
+      <c r="AE4" s="170"/>
+      <c r="AF4" s="170"/>
+      <c r="AG4" s="171"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="178" t="s">
+      <c r="B5" s="173"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
-      <c r="P5" s="182"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="182"/>
-      <c r="S5" s="182"/>
-      <c r="T5" s="182"/>
-      <c r="U5" s="182"/>
-      <c r="V5" s="182"/>
-      <c r="W5" s="182"/>
-      <c r="X5" s="182"/>
-      <c r="Y5" s="182"/>
-      <c r="Z5" s="183"/>
-      <c r="AA5" s="174" t="s">
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="166"/>
+      <c r="R5" s="166"/>
+      <c r="S5" s="166"/>
+      <c r="T5" s="166"/>
+      <c r="U5" s="166"/>
+      <c r="V5" s="166"/>
+      <c r="W5" s="166"/>
+      <c r="X5" s="166"/>
+      <c r="Y5" s="166"/>
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="174"/>
-      <c r="AC5" s="174"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="182"/>
-      <c r="AF5" s="182"/>
-      <c r="AG5" s="183"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="181"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="166"/>
+      <c r="AF5" s="166"/>
+      <c r="AG5" s="167"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="175" t="s">
+      <c r="A6" s="178"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="182"/>
-      <c r="S6" s="182"/>
-      <c r="T6" s="182"/>
-      <c r="U6" s="182"/>
-      <c r="V6" s="182"/>
-      <c r="W6" s="182"/>
-      <c r="X6" s="182"/>
-      <c r="Y6" s="182"/>
-      <c r="Z6" s="183"/>
-      <c r="AA6" s="174" t="s">
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="166"/>
+      <c r="S6" s="166"/>
+      <c r="T6" s="166"/>
+      <c r="U6" s="166"/>
+      <c r="V6" s="166"/>
+      <c r="W6" s="166"/>
+      <c r="X6" s="166"/>
+      <c r="Y6" s="166"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="174"/>
-      <c r="AC6" s="174"/>
-      <c r="AD6" s="181"/>
-      <c r="AE6" s="182"/>
-      <c r="AF6" s="182"/>
-      <c r="AG6" s="183"/>
+      <c r="AB6" s="181"/>
+      <c r="AC6" s="181"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="166"/>
+      <c r="AF6" s="166"/>
+      <c r="AG6" s="167"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -6974,12 +11020,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H6:Z6"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
@@ -6996,6 +11036,12 @@
     <mergeCell ref="H3:Z3"/>
     <mergeCell ref="H4:Z4"/>
     <mergeCell ref="H5:Z5"/>
+    <mergeCell ref="H6:Z6"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -7014,7 +11060,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView topLeftCell="B3" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -7048,13 +11094,13 @@
       <c r="B2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="184"/>
       <c r="H2" s="118" t="s">
         <v>16</v>
       </c>
@@ -7065,11 +11111,11 @@
       <c r="B3" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="177"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="184"/>
       <c r="H3" s="118" t="s">
         <v>18</v>
       </c>
@@ -7080,11 +11126,11 @@
       <c r="B4" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="177"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="184"/>
       <c r="H4" s="118" t="s">
         <v>20</v>
       </c>
@@ -7097,11 +11143,11 @@
       <c r="B5" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="177"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="184"/>
       <c r="H5" s="118" t="s">
         <v>23</v>
       </c>
@@ -7112,11 +11158,11 @@
       <c r="B6" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="175"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="177"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="184"/>
       <c r="H6" s="118" t="s">
         <v>25</v>
       </c>
@@ -7516,8 +11562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -7567,11 +11613,11 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="167"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="174"/>
       <c r="D2" s="195" t="s">
         <v>15</v>
       </c>
@@ -7608,9 +11654,9 @@
       <c r="AG2" s="49"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="170"/>
+      <c r="A3" s="175"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="195" t="s">
         <v>17</v>
       </c>
@@ -7647,9 +11693,9 @@
       <c r="AG3" s="49"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="171"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="173"/>
+      <c r="A4" s="178"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="180"/>
       <c r="D4" s="195" t="s">
         <v>19</v>
       </c>
@@ -7686,11 +11732,11 @@
       <c r="AG4" s="49"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="167"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="174"/>
       <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
@@ -7727,9 +11773,9 @@
       <c r="AG5" s="49"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="173"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="180"/>
       <c r="D6" s="86" t="s">
         <v>24</v>
       </c>
@@ -9043,6 +13089,7 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9069,149 +13116,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="211"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="200"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="199"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
       <c r="L2" s="59"/>
       <c r="M2" s="87"/>
       <c r="N2" s="87"/>
       <c r="O2" s="87"/>
       <c r="P2" s="87"/>
-      <c r="Q2" s="206" t="s">
+      <c r="Q2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="207"/>
+      <c r="R2" s="210"/>
       <c r="S2" s="87"/>
       <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="200"/>
-      <c r="B3" s="201"/>
+      <c r="A3" s="203"/>
+      <c r="B3" s="204"/>
       <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="204"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
       <c r="L3" s="59"/>
       <c r="M3" s="87"/>
       <c r="N3" s="87"/>
       <c r="O3" s="87"/>
       <c r="P3" s="87"/>
-      <c r="Q3" s="206" t="s">
+      <c r="Q3" s="209" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="207"/>
+      <c r="R3" s="210"/>
       <c r="S3" s="87"/>
       <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="202"/>
-      <c r="B4" s="203"/>
+      <c r="A4" s="205"/>
+      <c r="B4" s="206"/>
       <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="204"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="208"/>
       <c r="L4" s="59"/>
       <c r="M4" s="87"/>
       <c r="N4" s="87"/>
       <c r="O4" s="87"/>
       <c r="P4" s="87"/>
-      <c r="Q4" s="206" t="s">
+      <c r="Q4" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="207"/>
+      <c r="R4" s="210"/>
       <c r="S4" s="87"/>
       <c r="T4" s="88"/>
     </row>
     <row r="5" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="199"/>
+      <c r="B5" s="202"/>
       <c r="C5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="204"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="205"/>
-      <c r="J5" s="205"/>
-      <c r="K5" s="205"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="208"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="208"/>
+      <c r="J5" s="208"/>
+      <c r="K5" s="208"/>
       <c r="L5" s="59"/>
       <c r="M5" s="87"/>
       <c r="N5" s="87"/>
       <c r="O5" s="87"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="206" t="s">
+      <c r="Q5" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="207"/>
+      <c r="R5" s="210"/>
       <c r="S5" s="87"/>
       <c r="T5" s="88"/>
     </row>
     <row r="6" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="200"/>
-      <c r="B6" s="201"/>
+      <c r="A6" s="203"/>
+      <c r="B6" s="204"/>
       <c r="C6" s="22" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="195"/>
       <c r="E6" s="197"/>
-      <c r="F6" s="208" t="s">
+      <c r="F6" s="211" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="208"/>
+      <c r="G6" s="211"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
@@ -9229,8 +13276,8 @@
       <c r="T6" s="88"/>
     </row>
     <row r="7" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="202"/>
-      <c r="B7" s="203"/>
+      <c r="A7" s="205"/>
+      <c r="B7" s="206"/>
       <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
@@ -9247,8 +13294,8 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="206"/>
-      <c r="R7" s="207"/>
+      <c r="Q7" s="209"/>
+      <c r="R7" s="210"/>
       <c r="S7" s="87"/>
       <c r="T7" s="88"/>
     </row>
@@ -9966,6 +14013,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -9974,12 +14027,6 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9992,8 +14039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -10081,12 +14128,12 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="204"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="205"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="208"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
       <c r="I5" s="212"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
@@ -10098,7 +14145,7 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="204"/>
+      <c r="C6" s="207"/>
       <c r="D6" s="212"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
@@ -10311,7 +14358,6 @@
     <row r="21" spans="1:11" ht="15" customHeight="1">
       <c r="A21" s="92"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -10700,12 +14746,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10853,15 +14896,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10885,10 +14932,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_画面設計書.xlsx
+++ b/01_画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Web\2023Dev3Early\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9050B2E-2E19-4B39-9F49-03A435EAFC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D04F425-A3AE-4542-9241-D6DAE84DEAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3504" windowWidth="17280" windowHeight="8856" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1404,90 +1404,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1527,26 +1443,89 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1596,6 +1575,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1626,13 +1626,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,12 +1653,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1668,7 +1662,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6375,16 +6375,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="130" t="s">
+      <c r="Y2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="148">
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="155">
         <v>45040</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="150"/>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="156"/>
+      <c r="AD2" s="157"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -6449,14 +6449,14 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="151" t="s">
+      <c r="Y4" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="151"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
+      <c r="AC4" s="158"/>
+      <c r="AD4" s="158"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="13"/>
@@ -6486,14 +6486,14 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="151" t="s">
+      <c r="Y5" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="151"/>
-      <c r="AA5" s="151"/>
-      <c r="AB5" s="151"/>
-      <c r="AC5" s="151"/>
-      <c r="AD5" s="151"/>
+      <c r="Z5" s="158"/>
+      <c r="AA5" s="158"/>
+      <c r="AB5" s="158"/>
+      <c r="AC5" s="158"/>
+      <c r="AD5" s="158"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -6506,16 +6506,16 @@
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="145" t="s">
+      <c r="F6" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
@@ -6538,26 +6538,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="132" t="s">
+      <c r="C7" s="131"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="134"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="147"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -6565,40 +6565,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="130" t="s">
+      <c r="Y7" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="130" t="s">
+      <c r="Z7" s="138"/>
+      <c r="AA7" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="131"/>
-      <c r="AC7" s="130" t="s">
+      <c r="AB7" s="138"/>
+      <c r="AC7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="131"/>
+      <c r="AD7" s="138"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="66"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="137"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="150"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -6606,16 +6606,16 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="138" t="s">
+      <c r="Y8" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="Z8" s="139"/>
-      <c r="AA8" s="138" t="s">
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" s="139"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="153"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="124"/>
+      <c r="AD8" s="125"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="66"/>
       <c r="AG8" s="2"/>
@@ -6645,12 +6645,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="140"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="140"/>
-      <c r="AB9" s="141"/>
-      <c r="AC9" s="154"/>
-      <c r="AD9" s="155"/>
+      <c r="Y9" s="141"/>
+      <c r="Z9" s="142"/>
+      <c r="AA9" s="141"/>
+      <c r="AB9" s="142"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="127"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="66"/>
       <c r="AG9" s="2"/>
@@ -6680,12 +6680,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="142"/>
-      <c r="Z10" s="143"/>
-      <c r="AA10" s="142"/>
-      <c r="AB10" s="143"/>
-      <c r="AC10" s="156"/>
-      <c r="AD10" s="157"/>
+      <c r="Y10" s="143"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="143"/>
+      <c r="AB10" s="144"/>
+      <c r="AC10" s="128"/>
+      <c r="AD10" s="129"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="66"/>
       <c r="AG10" s="12"/>
@@ -6726,105 +6726,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="144"/>
-      <c r="AB12" s="144"/>
-      <c r="AC12" s="144"/>
-      <c r="AD12" s="144"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="151"/>
+      <c r="Z12" s="151"/>
+      <c r="AA12" s="151"/>
+      <c r="AB12" s="151"/>
+      <c r="AC12" s="151"/>
+      <c r="AD12" s="151"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
-      <c r="AB13" s="144"/>
-      <c r="AC13" s="144"/>
-      <c r="AD13" s="144"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="151"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="151"/>
+      <c r="Z13" s="151"/>
+      <c r="AA13" s="151"/>
+      <c r="AB13" s="151"/>
+      <c r="AC13" s="151"/>
+      <c r="AD13" s="151"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="144"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="144"/>
-      <c r="X14" s="144"/>
-      <c r="Y14" s="144"/>
-      <c r="Z14" s="144"/>
-      <c r="AA14" s="144"/>
-      <c r="AB14" s="144"/>
-      <c r="AC14" s="144"/>
-      <c r="AD14" s="144"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="151"/>
+      <c r="X14" s="151"/>
+      <c r="Y14" s="151"/>
+      <c r="Z14" s="151"/>
+      <c r="AA14" s="151"/>
+      <c r="AB14" s="151"/>
+      <c r="AC14" s="151"/>
+      <c r="AD14" s="151"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
@@ -7084,32 +7084,32 @@
       <c r="C22" s="122"/>
       <c r="D22" s="122"/>
       <c r="E22" s="123"/>
-      <c r="F22" s="127">
+      <c r="F22" s="162">
         <v>45040</v>
       </c>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="124" t="s">
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="125"/>
-      <c r="S22" s="125"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="125"/>
-      <c r="W22" s="125"/>
-      <c r="X22" s="125"/>
-      <c r="Y22" s="125"/>
-      <c r="Z22" s="125"/>
-      <c r="AA22" s="126"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="160"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="160"/>
+      <c r="R22" s="160"/>
+      <c r="S22" s="160"/>
+      <c r="T22" s="160"/>
+      <c r="U22" s="160"/>
+      <c r="V22" s="160"/>
+      <c r="W22" s="160"/>
+      <c r="X22" s="160"/>
+      <c r="Y22" s="160"/>
+      <c r="Z22" s="160"/>
+      <c r="AA22" s="161"/>
       <c r="AB22" s="121" t="s">
         <v>74</v>
       </c>
@@ -7124,28 +7124,28 @@
       <c r="C23" s="122"/>
       <c r="D23" s="122"/>
       <c r="E23" s="123"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="125"/>
-      <c r="W23" s="125"/>
-      <c r="X23" s="125"/>
-      <c r="Y23" s="125"/>
-      <c r="Z23" s="125"/>
-      <c r="AA23" s="126"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="160"/>
+      <c r="R23" s="160"/>
+      <c r="S23" s="160"/>
+      <c r="T23" s="160"/>
+      <c r="U23" s="160"/>
+      <c r="V23" s="160"/>
+      <c r="W23" s="160"/>
+      <c r="X23" s="160"/>
+      <c r="Y23" s="160"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="161"/>
       <c r="AB23" s="121"/>
       <c r="AC23" s="122"/>
       <c r="AD23" s="123"/>
@@ -7158,28 +7158,28 @@
       <c r="C24" s="122"/>
       <c r="D24" s="122"/>
       <c r="E24" s="123"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="125"/>
-      <c r="V24" s="125"/>
-      <c r="W24" s="125"/>
-      <c r="X24" s="125"/>
-      <c r="Y24" s="125"/>
-      <c r="Z24" s="125"/>
-      <c r="AA24" s="126"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="160"/>
+      <c r="O24" s="160"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="160"/>
+      <c r="R24" s="160"/>
+      <c r="S24" s="160"/>
+      <c r="T24" s="160"/>
+      <c r="U24" s="160"/>
+      <c r="V24" s="160"/>
+      <c r="W24" s="160"/>
+      <c r="X24" s="160"/>
+      <c r="Y24" s="160"/>
+      <c r="Z24" s="160"/>
+      <c r="AA24" s="161"/>
       <c r="AB24" s="121"/>
       <c r="AC24" s="122"/>
       <c r="AD24" s="123"/>
@@ -7192,28 +7192,28 @@
       <c r="C25" s="122"/>
       <c r="D25" s="122"/>
       <c r="E25" s="123"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="125"/>
-      <c r="T25" s="125"/>
-      <c r="U25" s="125"/>
-      <c r="V25" s="125"/>
-      <c r="W25" s="125"/>
-      <c r="X25" s="125"/>
-      <c r="Y25" s="125"/>
-      <c r="Z25" s="125"/>
-      <c r="AA25" s="126"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="160"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="160"/>
+      <c r="O25" s="160"/>
+      <c r="P25" s="160"/>
+      <c r="Q25" s="160"/>
+      <c r="R25" s="160"/>
+      <c r="S25" s="160"/>
+      <c r="T25" s="160"/>
+      <c r="U25" s="160"/>
+      <c r="V25" s="160"/>
+      <c r="W25" s="160"/>
+      <c r="X25" s="160"/>
+      <c r="Y25" s="160"/>
+      <c r="Z25" s="160"/>
+      <c r="AA25" s="161"/>
       <c r="AB25" s="121"/>
       <c r="AC25" s="122"/>
       <c r="AD25" s="123"/>
@@ -7226,28 +7226,28 @@
       <c r="C26" s="122"/>
       <c r="D26" s="122"/>
       <c r="E26" s="123"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="125"/>
-      <c r="S26" s="125"/>
-      <c r="T26" s="125"/>
-      <c r="U26" s="125"/>
-      <c r="V26" s="125"/>
-      <c r="W26" s="125"/>
-      <c r="X26" s="125"/>
-      <c r="Y26" s="125"/>
-      <c r="Z26" s="125"/>
-      <c r="AA26" s="126"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="160"/>
+      <c r="O26" s="160"/>
+      <c r="P26" s="160"/>
+      <c r="Q26" s="160"/>
+      <c r="R26" s="160"/>
+      <c r="S26" s="160"/>
+      <c r="T26" s="160"/>
+      <c r="U26" s="160"/>
+      <c r="V26" s="160"/>
+      <c r="W26" s="160"/>
+      <c r="X26" s="160"/>
+      <c r="Y26" s="160"/>
+      <c r="Z26" s="160"/>
+      <c r="AA26" s="161"/>
       <c r="AB26" s="121"/>
       <c r="AC26" s="122"/>
       <c r="AD26" s="123"/>
@@ -7260,28 +7260,28 @@
       <c r="C27" s="122"/>
       <c r="D27" s="122"/>
       <c r="E27" s="123"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="125"/>
-      <c r="S27" s="125"/>
-      <c r="T27" s="125"/>
-      <c r="U27" s="125"/>
-      <c r="V27" s="125"/>
-      <c r="W27" s="125"/>
-      <c r="X27" s="125"/>
-      <c r="Y27" s="125"/>
-      <c r="Z27" s="125"/>
-      <c r="AA27" s="126"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="160"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="160"/>
+      <c r="O27" s="160"/>
+      <c r="P27" s="160"/>
+      <c r="Q27" s="160"/>
+      <c r="R27" s="160"/>
+      <c r="S27" s="160"/>
+      <c r="T27" s="160"/>
+      <c r="U27" s="160"/>
+      <c r="V27" s="160"/>
+      <c r="W27" s="160"/>
+      <c r="X27" s="160"/>
+      <c r="Y27" s="160"/>
+      <c r="Z27" s="160"/>
+      <c r="AA27" s="161"/>
       <c r="AB27" s="121"/>
       <c r="AC27" s="122"/>
       <c r="AD27" s="123"/>
@@ -7392,23 +7392,15 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -7425,15 +7417,23 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -7536,13 +7536,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="212"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="200"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -7553,8 +7553,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="212"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -8158,7 +8158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FB018E-943A-4468-A679-0F3BEA43E79E}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -8247,13 +8247,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="212"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="200"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -8264,8 +8264,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="212"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -8958,13 +8958,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="212"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="200"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -8975,8 +8975,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="212"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -9669,13 +9669,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="212"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="200"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -9686,8 +9686,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="212"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -10380,13 +10380,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="212"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="200"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -10397,8 +10397,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="212"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -11021,28 +11021,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="200"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="211"/>
+      <c r="T1" s="212"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="201" t="s">
@@ -11052,23 +11052,23 @@
       <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="207"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
       <c r="L2" s="59"/>
       <c r="M2" s="87"/>
       <c r="N2" s="87"/>
       <c r="O2" s="87"/>
       <c r="P2" s="87"/>
-      <c r="Q2" s="209" t="s">
+      <c r="Q2" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="210"/>
+      <c r="R2" s="208"/>
       <c r="S2" s="87"/>
       <c r="T2" s="88"/>
     </row>
@@ -11078,23 +11078,23 @@
       <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="207"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
       <c r="L3" s="59"/>
       <c r="M3" s="87"/>
       <c r="N3" s="87"/>
       <c r="O3" s="87"/>
       <c r="P3" s="87"/>
-      <c r="Q3" s="209" t="s">
+      <c r="Q3" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="210"/>
+      <c r="R3" s="208"/>
       <c r="S3" s="87"/>
       <c r="T3" s="88"/>
     </row>
@@ -11104,23 +11104,23 @@
       <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="207"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="208"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="199"/>
       <c r="L4" s="59"/>
       <c r="M4" s="87"/>
       <c r="N4" s="87"/>
       <c r="O4" s="87"/>
       <c r="P4" s="87"/>
-      <c r="Q4" s="209" t="s">
+      <c r="Q4" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="210"/>
+      <c r="R4" s="208"/>
       <c r="S4" s="87"/>
       <c r="T4" s="88"/>
     </row>
@@ -11132,23 +11132,23 @@
       <c r="C5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="207"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="208"/>
-      <c r="J5" s="208"/>
-      <c r="K5" s="208"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
       <c r="L5" s="59"/>
       <c r="M5" s="87"/>
       <c r="N5" s="87"/>
       <c r="O5" s="87"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="209" t="s">
+      <c r="Q5" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="210"/>
+      <c r="R5" s="208"/>
       <c r="S5" s="87"/>
       <c r="T5" s="88"/>
     </row>
@@ -11160,10 +11160,10 @@
       </c>
       <c r="D6" s="195"/>
       <c r="E6" s="197"/>
-      <c r="F6" s="211" t="s">
+      <c r="F6" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="211"/>
+      <c r="G6" s="209"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
@@ -11199,8 +11199,8 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="210"/>
+      <c r="Q7" s="207"/>
+      <c r="R7" s="208"/>
       <c r="S7" s="87"/>
       <c r="T7" s="88"/>
     </row>
@@ -11918,12 +11918,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -11932,6 +11926,12 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11944,7 +11944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E0FBB7-0859-4251-98E5-B4A97E35F833}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -12033,13 +12033,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="212"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="200"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -12050,8 +12050,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="212"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -12706,209 +12706,209 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="182" t="s">
+      <c r="B2" s="166"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="165" t="s">
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="181" t="s">
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="165" t="s">
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174"/>
+      <c r="AD2" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="166"/>
-      <c r="AG2" s="167"/>
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="175"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="182" t="s">
+      <c r="A3" s="168"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="181" t="s">
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="182"/>
+      <c r="W3" s="182"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="181"/>
-      <c r="AC3" s="181"/>
-      <c r="AD3" s="168">
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="184">
         <v>45043</v>
       </c>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="166"/>
-      <c r="AG3" s="167"/>
+      <c r="AE3" s="182"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="178"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="182" t="s">
+      <c r="A4" s="171"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="166"/>
-      <c r="V4" s="166"/>
-      <c r="W4" s="166"/>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="166"/>
-      <c r="Z4" s="167"/>
-      <c r="AA4" s="181" t="s">
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="182"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="182"/>
+      <c r="Q4" s="182"/>
+      <c r="R4" s="182"/>
+      <c r="S4" s="182"/>
+      <c r="T4" s="182"/>
+      <c r="U4" s="182"/>
+      <c r="V4" s="182"/>
+      <c r="W4" s="182"/>
+      <c r="X4" s="182"/>
+      <c r="Y4" s="182"/>
+      <c r="Z4" s="183"/>
+      <c r="AA4" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="181"/>
-      <c r="AC4" s="181"/>
-      <c r="AD4" s="169"/>
-      <c r="AE4" s="170"/>
-      <c r="AF4" s="170"/>
-      <c r="AG4" s="171"/>
+      <c r="AB4" s="174"/>
+      <c r="AC4" s="174"/>
+      <c r="AD4" s="185"/>
+      <c r="AE4" s="186"/>
+      <c r="AF4" s="186"/>
+      <c r="AG4" s="187"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="185" t="s">
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="166"/>
-      <c r="R5" s="166"/>
-      <c r="S5" s="166"/>
-      <c r="T5" s="166"/>
-      <c r="U5" s="166"/>
-      <c r="V5" s="166"/>
-      <c r="W5" s="166"/>
-      <c r="X5" s="166"/>
-      <c r="Y5" s="166"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="181" t="s">
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="182"/>
+      <c r="V5" s="182"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="182"/>
+      <c r="Y5" s="182"/>
+      <c r="Z5" s="183"/>
+      <c r="AA5" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="166"/>
-      <c r="AF5" s="166"/>
-      <c r="AG5" s="167"/>
+      <c r="AB5" s="174"/>
+      <c r="AC5" s="174"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="182"/>
+      <c r="AF5" s="182"/>
+      <c r="AG5" s="183"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="178"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="182" t="s">
+      <c r="A6" s="171"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="166"/>
-      <c r="T6" s="166"/>
-      <c r="U6" s="166"/>
-      <c r="V6" s="166"/>
-      <c r="W6" s="166"/>
-      <c r="X6" s="166"/>
-      <c r="Y6" s="166"/>
-      <c r="Z6" s="167"/>
-      <c r="AA6" s="181" t="s">
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="182"/>
+      <c r="S6" s="182"/>
+      <c r="T6" s="182"/>
+      <c r="U6" s="182"/>
+      <c r="V6" s="182"/>
+      <c r="W6" s="182"/>
+      <c r="X6" s="182"/>
+      <c r="Y6" s="182"/>
+      <c r="Z6" s="183"/>
+      <c r="AA6" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="181"/>
-      <c r="AC6" s="181"/>
-      <c r="AD6" s="165"/>
-      <c r="AE6" s="166"/>
-      <c r="AF6" s="166"/>
-      <c r="AG6" s="167"/>
+      <c r="AB6" s="174"/>
+      <c r="AC6" s="174"/>
+      <c r="AD6" s="181"/>
+      <c r="AE6" s="182"/>
+      <c r="AF6" s="182"/>
+      <c r="AG6" s="183"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -14172,6 +14172,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H6:Z6"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
@@ -14188,12 +14194,6 @@
     <mergeCell ref="H3:Z3"/>
     <mergeCell ref="H4:Z4"/>
     <mergeCell ref="H5:Z5"/>
-    <mergeCell ref="H6:Z6"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -14246,13 +14246,13 @@
       <c r="B2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="184"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="177"/>
       <c r="H2" s="118" t="s">
         <v>16</v>
       </c>
@@ -14263,11 +14263,11 @@
       <c r="B3" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="184"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="177"/>
       <c r="H3" s="118" t="s">
         <v>18</v>
       </c>
@@ -14278,11 +14278,11 @@
       <c r="B4" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="184"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="177"/>
       <c r="H4" s="118" t="s">
         <v>20</v>
       </c>
@@ -14295,11 +14295,11 @@
       <c r="B5" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="184"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="177"/>
       <c r="H5" s="118" t="s">
         <v>23</v>
       </c>
@@ -14310,11 +14310,11 @@
       <c r="B6" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="184"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="177"/>
       <c r="H6" s="118" t="s">
         <v>25</v>
       </c>
@@ -14765,11 +14765,11 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="174"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="167"/>
       <c r="D2" s="195" t="s">
         <v>15</v>
       </c>
@@ -14806,9 +14806,9 @@
       <c r="AG2" s="49"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="175"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="170"/>
       <c r="D3" s="195" t="s">
         <v>17</v>
       </c>
@@ -14845,9 +14845,9 @@
       <c r="AG3" s="49"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="178"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="180"/>
+      <c r="A4" s="171"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="195" t="s">
         <v>19</v>
       </c>
@@ -14884,11 +14884,11 @@
       <c r="AG4" s="49"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="174"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
       <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
@@ -14925,9 +14925,9 @@
       <c r="AG5" s="49"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="178"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="180"/>
+      <c r="A6" s="171"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="86" t="s">
         <v>24</v>
       </c>
@@ -16337,13 +16337,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="212"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="200"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -16354,8 +16354,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="212"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -17048,13 +17048,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="212"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="200"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -17065,8 +17065,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="212"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -17759,13 +17759,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="212"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="200"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -17776,8 +17776,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="212"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -18470,13 +18470,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="212"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="200"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -18487,8 +18487,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="212"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -19181,13 +19181,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="212"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="200"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -19198,8 +19198,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="212"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -19806,6 +19806,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -19949,15 +19958,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
   <ds:schemaRefs>
@@ -19968,6 +19968,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE99DE6A-D5AF-458E-878B-96B0555D5097}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19983,12 +19991,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_画面設計書.xlsx
+++ b/01_画面設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Web\2023Dev3Early\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web\git\2023Dev3Early\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D04F425-A3AE-4542-9241-D6DAE84DEAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221E1EA8-E6DA-46C3-AC79-5F28155B7759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3504" windowWidth="17280" windowHeight="8856" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="153">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -738,14 +738,619 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>システム開発</t>
+    <rPh sb="4" eb="6">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スマートデリシャス　画面設計書</t>
+    <rPh sb="10" eb="15">
+      <t>ガメンセッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スマートデリシャス　画面レイアウト</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索バー</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おすすめメニュー提案</t>
+    <rPh sb="8" eb="10">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホーム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マイページ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>お気に入り</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>投稿</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テキスボックス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>料理名、食材などでレシピを検索するテキストボックス</t>
+    <rPh sb="0" eb="3">
+      <t>リョウリメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>何種類かのランキングを表示するラベル</t>
+    <rPh sb="0" eb="3">
+      <t>ナンシュルイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レシピ提案画面へ遷移するボタン（リンク）</t>
+    <rPh sb="3" eb="5">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン（リンク）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホーム画面へ遷移するボタン</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>お気に入り画面へ遷移するボタン</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マイページ画面へ遷移するボタン</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>投稿画面へ遷移するボタン</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>100桁</t>
+    <rPh sb="3" eb="4">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　１－１　レシピ提案画面へ遷移。</t>
+    <rPh sb="8" eb="12">
+      <t>テイアンガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>２　ランキングを閲覧。</t>
+    <rPh sb="8" eb="10">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　２－１　ランキングに表示されているレシピを押下。</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　２－２　レシピ詳細画面へ変異する。</t>
+    <rPh sb="8" eb="12">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>３　おすすめメニューボタンを押下。</t>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　３－１　レシピ提案画面へ遷移する。</t>
+    <rPh sb="8" eb="12">
+      <t>テイアンガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>１　検索バーにキーワードを入れて検索。</t>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下書き画面</t>
+    <rPh sb="0" eb="2">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑧</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑨</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑩</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レシピ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>紹介文</t>
+    <rPh sb="0" eb="3">
+      <t>ショウカイブン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>人数</t>
+    <rPh sb="0" eb="2">
+      <t>ニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>材料名</t>
+    <rPh sb="0" eb="3">
+      <t>ザイリョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>分量</t>
+    <rPh sb="0" eb="2">
+      <t>ブンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>材料の費用</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アップロード写真</t>
+    <rPh sb="6" eb="8">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下書き保存</t>
+    <rPh sb="0" eb="2">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作り方テキスト</t>
+    <rPh sb="0" eb="1">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リストボックス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>50桁</t>
+    <rPh sb="2" eb="3">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>200桁</t>
+    <rPh sb="3" eb="4">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10桁</t>
+    <rPh sb="2" eb="3">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レシピのタイトルを入力するテキストボックス</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レシピの紹介文を入力するテキストボックス</t>
+    <rPh sb="4" eb="7">
+      <t>ショウカイブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>材料の人数を選択するリストボックス</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>材料名を入力するテキストボックス</t>
+    <rPh sb="0" eb="3">
+      <t>ザイリョウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>材料の費用を入力するテキストボックス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>材料の分量を入力するテキストボックス</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アップロード写真を表示するラベル</t>
+    <rPh sb="6" eb="8">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レシピの作り方を入力するテキストボックス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レシピを投稿するボタン</t>
+    <rPh sb="4" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レシピの下書きを保存するボタン</t>
+    <rPh sb="4" eb="6">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>１　レシピのタイトルを入力。</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>２　紹介文を入力</t>
+    <rPh sb="2" eb="5">
+      <t>ショウカイブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>３　材料の詳細を入力。</t>
+    <rPh sb="2" eb="4">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　３－１　何人前かを選択。</t>
+    <rPh sb="5" eb="8">
+      <t>ナンニンマエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　３－２　分量を入力。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　３－３　費用を入力。</t>
+    <rPh sb="5" eb="7">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>４　作り方の詳細を入力</t>
+    <rPh sb="2" eb="3">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　４－１　アップロードする写真を選択</t>
+    <rPh sb="13" eb="15">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　４－２　テキストを入力。</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>５　内容が正しければ、投稿ボタンを押下。</t>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>６　下書きを保存する場合は、下書き保存ボタンを押下。</t>
+    <rPh sb="2" eb="4">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -1089,7 +1694,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -1404,6 +2009,90 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1443,89 +2132,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1575,27 +2201,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1635,6 +2240,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1662,14 +2276,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3488,6 +4096,2212 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E68EA3-C00E-4C06-9B89-F44706BA1582}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13822680" y="1474410"/>
+          <a:ext cx="1620762" cy="525753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418495</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>509454</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143378</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BCE50EB-6444-4058-94F4-5BD85CC70F51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15460375" y="974271"/>
+          <a:ext cx="700559" cy="502607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>348367</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3AC83C-3A25-4FE8-9090-8EAD6D14DEF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16114123" y="571500"/>
+          <a:ext cx="495324" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>543352</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>172378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8785C4E8-106C-09D8-4625-44A8C5BD3A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="1714500"/>
+          <a:ext cx="3057952" cy="6649378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781049</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1878</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC3D980-49A6-41A3-A7BC-5B69F121C0F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628774" y="4048125"/>
+          <a:ext cx="2390775" cy="525753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D57DBCE1-99C9-469A-8E69-BB92E8DCE992}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="2952751"/>
+          <a:ext cx="2457450" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0DDF59F-4E0B-4A4A-8312-56A92A904A98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="6886575"/>
+          <a:ext cx="990600" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44735B4-69D0-437C-84DA-FC644C5CFBF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="5057775"/>
+          <a:ext cx="2457450" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC444A7-44D6-489D-8EC3-1109B769D24E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="5943600"/>
+          <a:ext cx="2457450" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E76411-8D57-4084-BD27-EF4781278382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="5572125"/>
+          <a:ext cx="1181100" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3391F564-011A-4E1B-86E6-C7224AFE2602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="5572125"/>
+          <a:ext cx="1181100" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CCC18F8-9FBE-498F-8BAF-A47128D6EC39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="6886575"/>
+          <a:ext cx="990600" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18DF16EA-CEA6-4F27-BC34-3B281D812087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="7962900"/>
+          <a:ext cx="1190625" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6257D1-A3C5-4024-B6AF-1485D3F67BE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="7953375"/>
+          <a:ext cx="1190625" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76703</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7650F057-0549-407A-A2D5-EDE265843D77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4057650" y="2914650"/>
+          <a:ext cx="285750" cy="210053"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>367998</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>929997</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>32756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E42913-F564-4DBC-9882-38371B067D28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4187523" y="2571750"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E00636-420F-4846-84C9-C72851CAEAE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4076700" y="4143375"/>
+          <a:ext cx="285750" cy="210053"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>387048</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>949047</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>118481</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4FEB61-99BA-40A0-84BB-7C4ECA8D2270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4206573" y="3800475"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76703</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83488FBA-14CB-4D66-8AD2-F426BD6EDA64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4067175" y="5010150"/>
+          <a:ext cx="285750" cy="210053"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>377523</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>939522</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>32756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8DF5AB3-BE1B-4499-B27A-3A70339C446D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4197048" y="4667250"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95753</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF29465-FD7D-4D7C-8E7E-03632FA1D137}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4086225" y="5600700"/>
+          <a:ext cx="285750" cy="210053"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396573</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>958572</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>51806</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52433B71-E9F1-4FEA-A7F2-1F87FBD8F1F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4216098" y="5257800"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57653</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190A24E6-BE50-44F5-88D5-DB6A7C5BE2F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4076700" y="5943600"/>
+          <a:ext cx="285750" cy="210053"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>387048</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>949047</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>13706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B67BBED-D463-48AD-91FA-BB8D94200632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4206573" y="5600700"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F008B2-C76D-4CF2-90D5-D3A045C1F6C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4057650" y="7162800"/>
+          <a:ext cx="285750" cy="210053"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>367998</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>929997</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>89906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8D9CE0-C8E9-4530-9C45-F8139E8683D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4187523" y="6819900"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>10028</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7869F951-C8B0-4AE8-B263-3824D2C7FE1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4219575" y="7991475"/>
+          <a:ext cx="285750" cy="210053"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>777573</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>348972</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>70856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3C6F28-9991-43ED-8639-6E04883CDB01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2615898" y="8515350"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑨</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0098CD65-8EAE-4DE1-8A43-AF0D8C7D89FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="8372475"/>
+          <a:ext cx="257175" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>548973</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120372</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>4181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D5BA32-FC82-4E81-BB93-D364965A6F32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4368498" y="7686675"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑩</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>503</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A49952-A64D-4240-AB66-0555CE1D55DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2790825" y="6648450"/>
+          <a:ext cx="285750" cy="210053"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91773</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>653772</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>147056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B354DF-2774-4725-A21E-DA94CAD95C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2920698" y="6305550"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑦</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A149A0-04AB-45B7-A851-2FFB1B095AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="5562600"/>
+          <a:ext cx="257175" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53673</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>615672</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3184DA-8A8F-47AD-9E79-998703D70E40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="901398" y="5238750"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>401562</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A9994C-F192-4FE3-AFF0-343C43180E43}"/>
             </a:ext>
           </a:extLst>
@@ -3665,7 +6479,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3862,7 +6676,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4059,7 +6873,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4260,6 +7074,1713 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF99A3A0-A514-40E5-9ED3-DF8BBE10D377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="1390651"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ホーム画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433CFF80-DFE6-4FEA-81B6-D5F3AF81AE92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="3467101"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>投稿画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369A26B2-6E79-44C5-BB2C-91612F3C2994}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="2486026"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レシピ提案画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6DDF94-2D79-4748-A275-CDF5BAA43A4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="2495551"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>下書き画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9798672B-9026-4363-BEB1-4BCDA8CE2F45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="1990726"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA04ED1-D429-44BF-9733-E5803534FA78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5172075" y="2476500"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ランキング画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1793B2-0786-4F05-AAB7-ED5DC0BBF41A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3573826" y="2486025"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索結果画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1451FD0C-3B44-4565-953B-5AC8404F648A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8420100" y="2971800"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>いいね画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75B8372-A302-44FD-91A4-9462AFCF0686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="3790950"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>お気に入り画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BBD721-A3CD-415F-82D8-8BF8D3A31945}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="4600575"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>フォロー一覧画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE98A202-8FF5-49D7-AF96-9CC4E3F051C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="5400675"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>下書き保存画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA69817D-B697-42CB-8290-C0582DB15FD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="6219825"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>設定画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="コネクタ: カギ線 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530DBBE5-C7DB-4EAF-8603-22F315A41CEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="971550" y="1685925"/>
+          <a:ext cx="2590800" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5FABDD-64CB-4221-A3F0-6389DD3EA4E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2590800" y="1685926"/>
+          <a:ext cx="971550" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="コネクタ: カギ線 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3B827E-90B7-4297-92BA-49BFD6C511FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6305550" y="4381500"/>
+          <a:ext cx="3933824" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="コネクタ: カギ線 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A0CE1DC-4025-4BBF-A4E8-F9E80EF817BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="1685926"/>
+          <a:ext cx="962025" cy="790574"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="コネクタ: カギ線 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41081954-6972-4C42-8E58-F23DFE9DDC9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="1685926"/>
+          <a:ext cx="3248025" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="コネクタ: カギ線 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D8EA76-539A-4FFF-BDBC-B3FA95A695A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7920038" y="2767012"/>
+          <a:ext cx="685799" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="コネクタ: カギ線 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51362065-A37C-4724-A3B8-61B76A9D3C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7519988" y="3167062"/>
+          <a:ext cx="1504949" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3846DEC4-D1C0-47F2-9DAB-DFE1FA6AE778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7110413" y="3576638"/>
+          <a:ext cx="2314574" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="コネクタ: カギ線 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D80455-1406-42A1-B836-BC3178DD11B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6710363" y="3976688"/>
+          <a:ext cx="3114674" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDB245F-DB00-4076-AF73-27DCBEDE5535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210050" y="1981201"/>
+          <a:ext cx="11476" cy="504824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4DCAE4-6835-43A4-8C45-317A06A70A82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="3086101"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B779A61B-58D7-4733-8886-453D2AF363AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3573826" y="3459526"/>
+          <a:ext cx="1295399" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>料理詳細画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11476</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA4FD15-81EC-4613-B5F6-29E1FAF270A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="27" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4221526" y="3076575"/>
+          <a:ext cx="0" cy="382951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11477</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>93298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F88D4CE-381C-4729-8A65-9C40A173E3C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3573827" y="4406860"/>
+          <a:ext cx="1295399" cy="591813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プロフィール画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（他人）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11477</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310F5EBD-79E5-4211-ADD0-2835C13E4FB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4221526" y="4050076"/>
+          <a:ext cx="1" cy="356784"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>144194</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="コネクタ: カギ線 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C4DF9E-B36A-44EB-8639-7CAAAD211CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2743517" y="2923859"/>
+          <a:ext cx="677594" cy="983025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314327</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>144195</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="コネクタ: カギ線 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00734BD9-C35F-4E14-8F83-554CBC6E7BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="27" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5000942" y="2935334"/>
+          <a:ext cx="687120" cy="950551"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -4450,10 +8971,1428 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657673</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>96219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5430C31A-3448-FBA6-0F93-BBF73E856D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266825" y="1724025"/>
+          <a:ext cx="3210373" cy="6944694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>135228</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888B03C9-A9A2-4026-A4B2-38FF3683A4BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400174" y="1895475"/>
+          <a:ext cx="2886075" cy="525753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB48AA8-48B1-4CB6-9BC1-2845E945CAA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428749" y="2581275"/>
+          <a:ext cx="2886075" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B971EFAE-AAC3-4F18-931C-316C4E2F76C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="6572250"/>
+          <a:ext cx="3067050" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A45144-F062-4334-82C0-DEFA4A601D39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="7953375"/>
+          <a:ext cx="819150" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B81C671-6216-4EE8-B938-C1F108721BA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="7962900"/>
+          <a:ext cx="819150" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FAD003A-3F10-485F-9142-48F3394B497F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="7972425"/>
+          <a:ext cx="819150" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049993BC-EE32-4AE7-B665-7C4C0398FD4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="7953375"/>
+          <a:ext cx="819150" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>16832</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6FD856B-8B56-46CC-A95A-D8FFF41254A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4314825" y="2009775"/>
+          <a:ext cx="361950" cy="293057"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276249</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>70856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BE7EDB-0883-4B2C-AD20-E24A0901CF25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="1657350"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102557</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA755992-4712-4EF3-9B48-EAB6F91CB604}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4343400" y="2857500"/>
+          <a:ext cx="361950" cy="293057"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304824</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D355185E-F70B-4EA3-966E-B4EC7F500CAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="2505075"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83507</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74455761-DF6B-4F3F-9DCB-D8E5A691BC2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4467225" y="6457950"/>
+          <a:ext cx="361950" cy="293057"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428649</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>137531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72DA3280-1ECC-4076-9E0D-E8E7720416DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4676775" y="6105525"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7095199A-5A56-4588-81E1-F6FD6ABE2FAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="8715375"/>
+          <a:ext cx="333375" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523899</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>4181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28466321-5379-4501-AC30-CA75979AAFA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="8829675"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7445F76-23DA-4460-8A18-B5FDD2479B47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="8724900"/>
+          <a:ext cx="333375" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323874</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>13706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830F3F01-DC73-4933-867B-9B6BCA26F5AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="8839200"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0AE58E-62A2-4B54-A0DB-4003915DE03A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="8715375"/>
+          <a:ext cx="333375" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171474</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>4181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89AFBAB2-77F4-46EC-A109-5F72D8F86591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="8829675"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D89FC3D-04F8-4A0D-9334-BE0902D41CB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133850" y="8743950"/>
+          <a:ext cx="333375" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66699</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>32756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{712E9E23-008D-4A25-B017-33833BE708C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="8858250"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑦</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4650,7 +10589,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4847,7 +10786,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5044,7 +10983,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5241,7 +11180,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5438,7 +11377,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5580,203 +11519,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2687F35E-0C52-45EB-BF34-2D90C5A1B2AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16114123" y="571500"/>
-          <a:ext cx="495324" cy="509006"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>140910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>401562</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95163</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E68EA3-C00E-4C06-9B89-F44706BA1582}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13822680" y="1474410"/>
-          <a:ext cx="1620762" cy="525753"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>418495</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>509454</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>143378</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BCE50EB-6444-4058-94F4-5BD85CC70F51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="15460375" y="974271"/>
-          <a:ext cx="700559" cy="502607"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>348367</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>128006</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3AC83C-3A25-4FE8-9090-8EAD6D14DEF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6165,9 +11907,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
-    <col min="5" max="8" width="4.109375" style="10" customWidth="1"/>
-    <col min="9" max="32" width="4.109375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="4.125" style="10" customWidth="1"/>
+    <col min="9" max="32" width="4.125" style="1" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="13" style="1"/>
   </cols>
@@ -6375,16 +12117,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="137" t="s">
+      <c r="Y2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="155">
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="148">
         <v>45040</v>
       </c>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="157"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="150"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -6449,14 +12191,14 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="158" t="s">
+      <c r="Y4" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="158"/>
-      <c r="AD4" s="158"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="13"/>
@@ -6486,14 +12228,14 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="158" t="s">
+      <c r="Y5" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="158"/>
-      <c r="AA5" s="158"/>
-      <c r="AB5" s="158"/>
-      <c r="AC5" s="158"/>
-      <c r="AD5" s="158"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="151"/>
+      <c r="AC5" s="151"/>
+      <c r="AD5" s="151"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -6506,16 +12248,16 @@
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="152" t="s">
+      <c r="F6" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
@@ -6538,26 +12280,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="145" t="s">
+      <c r="C7" s="159"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="147"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="134"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -6565,40 +12307,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="137" t="s">
+      <c r="Y7" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="137" t="s">
+      <c r="Z7" s="131"/>
+      <c r="AA7" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="137" t="s">
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="138"/>
+      <c r="AD7" s="131"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="66"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="149"/>
-      <c r="Q8" s="150"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="137"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -6606,16 +12348,16 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="139" t="s">
+      <c r="Y8" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="Z8" s="140"/>
-      <c r="AA8" s="139" t="s">
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" s="140"/>
-      <c r="AC8" s="124"/>
-      <c r="AD8" s="125"/>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="153"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="66"/>
       <c r="AG8" s="2"/>
@@ -6645,12 +12387,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="142"/>
-      <c r="AA9" s="141"/>
-      <c r="AB9" s="142"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="127"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="140"/>
+      <c r="AB9" s="141"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="155"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="66"/>
       <c r="AG9" s="2"/>
@@ -6680,12 +12422,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="143"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="129"/>
+      <c r="Y10" s="142"/>
+      <c r="Z10" s="143"/>
+      <c r="AA10" s="142"/>
+      <c r="AB10" s="143"/>
+      <c r="AC10" s="156"/>
+      <c r="AD10" s="157"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="66"/>
       <c r="AG10" s="12"/>
@@ -6726,105 +12468,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="151"/>
-      <c r="S12" s="151"/>
-      <c r="T12" s="151"/>
-      <c r="U12" s="151"/>
-      <c r="V12" s="151"/>
-      <c r="W12" s="151"/>
-      <c r="X12" s="151"/>
-      <c r="Y12" s="151"/>
-      <c r="Z12" s="151"/>
-      <c r="AA12" s="151"/>
-      <c r="AB12" s="151"/>
-      <c r="AC12" s="151"/>
-      <c r="AD12" s="151"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="144"/>
+      <c r="T12" s="144"/>
+      <c r="U12" s="144"/>
+      <c r="V12" s="144"/>
+      <c r="W12" s="144"/>
+      <c r="X12" s="144"/>
+      <c r="Y12" s="144"/>
+      <c r="Z12" s="144"/>
+      <c r="AA12" s="144"/>
+      <c r="AB12" s="144"/>
+      <c r="AC12" s="144"/>
+      <c r="AD12" s="144"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="151"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="151"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
-      <c r="AD13" s="151"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="144"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="144"/>
+      <c r="V13" s="144"/>
+      <c r="W13" s="144"/>
+      <c r="X13" s="144"/>
+      <c r="Y13" s="144"/>
+      <c r="Z13" s="144"/>
+      <c r="AA13" s="144"/>
+      <c r="AB13" s="144"/>
+      <c r="AC13" s="144"/>
+      <c r="AD13" s="144"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="151"/>
-      <c r="W14" s="151"/>
-      <c r="X14" s="151"/>
-      <c r="Y14" s="151"/>
-      <c r="Z14" s="151"/>
-      <c r="AA14" s="151"/>
-      <c r="AB14" s="151"/>
-      <c r="AC14" s="151"/>
-      <c r="AD14" s="151"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="144"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="144"/>
+      <c r="S14" s="144"/>
+      <c r="T14" s="144"/>
+      <c r="U14" s="144"/>
+      <c r="V14" s="144"/>
+      <c r="W14" s="144"/>
+      <c r="X14" s="144"/>
+      <c r="Y14" s="144"/>
+      <c r="Z14" s="144"/>
+      <c r="AA14" s="144"/>
+      <c r="AB14" s="144"/>
+      <c r="AC14" s="144"/>
+      <c r="AD14" s="144"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
@@ -7084,32 +12826,32 @@
       <c r="C22" s="122"/>
       <c r="D22" s="122"/>
       <c r="E22" s="123"/>
-      <c r="F22" s="162">
+      <c r="F22" s="127">
         <v>45040</v>
       </c>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="159" t="s">
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="160"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="160"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="160"/>
-      <c r="V22" s="160"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="161"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="125"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="125"/>
+      <c r="W22" s="125"/>
+      <c r="X22" s="125"/>
+      <c r="Y22" s="125"/>
+      <c r="Z22" s="125"/>
+      <c r="AA22" s="126"/>
       <c r="AB22" s="121" t="s">
         <v>74</v>
       </c>
@@ -7124,28 +12866,28 @@
       <c r="C23" s="122"/>
       <c r="D23" s="122"/>
       <c r="E23" s="123"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="159"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="160"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="160"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="160"/>
-      <c r="V23" s="160"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="160"/>
-      <c r="AA23" s="161"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="125"/>
+      <c r="W23" s="125"/>
+      <c r="X23" s="125"/>
+      <c r="Y23" s="125"/>
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="126"/>
       <c r="AB23" s="121"/>
       <c r="AC23" s="122"/>
       <c r="AD23" s="123"/>
@@ -7158,28 +12900,28 @@
       <c r="C24" s="122"/>
       <c r="D24" s="122"/>
       <c r="E24" s="123"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="160"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="160"/>
-      <c r="R24" s="160"/>
-      <c r="S24" s="160"/>
-      <c r="T24" s="160"/>
-      <c r="U24" s="160"/>
-      <c r="V24" s="160"/>
-      <c r="W24" s="160"/>
-      <c r="X24" s="160"/>
-      <c r="Y24" s="160"/>
-      <c r="Z24" s="160"/>
-      <c r="AA24" s="161"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="125"/>
+      <c r="W24" s="125"/>
+      <c r="X24" s="125"/>
+      <c r="Y24" s="125"/>
+      <c r="Z24" s="125"/>
+      <c r="AA24" s="126"/>
       <c r="AB24" s="121"/>
       <c r="AC24" s="122"/>
       <c r="AD24" s="123"/>
@@ -7192,28 +12934,28 @@
       <c r="C25" s="122"/>
       <c r="D25" s="122"/>
       <c r="E25" s="123"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="159"/>
-      <c r="L25" s="160"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="160"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="160"/>
-      <c r="R25" s="160"/>
-      <c r="S25" s="160"/>
-      <c r="T25" s="160"/>
-      <c r="U25" s="160"/>
-      <c r="V25" s="160"/>
-      <c r="W25" s="160"/>
-      <c r="X25" s="160"/>
-      <c r="Y25" s="160"/>
-      <c r="Z25" s="160"/>
-      <c r="AA25" s="161"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="125"/>
+      <c r="U25" s="125"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="125"/>
+      <c r="Y25" s="125"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="126"/>
       <c r="AB25" s="121"/>
       <c r="AC25" s="122"/>
       <c r="AD25" s="123"/>
@@ -7226,28 +12968,28 @@
       <c r="C26" s="122"/>
       <c r="D26" s="122"/>
       <c r="E26" s="123"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="160"/>
-      <c r="N26" s="160"/>
-      <c r="O26" s="160"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="160"/>
-      <c r="R26" s="160"/>
-      <c r="S26" s="160"/>
-      <c r="T26" s="160"/>
-      <c r="U26" s="160"/>
-      <c r="V26" s="160"/>
-      <c r="W26" s="160"/>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="160"/>
-      <c r="Z26" s="160"/>
-      <c r="AA26" s="161"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="125"/>
+      <c r="U26" s="125"/>
+      <c r="V26" s="125"/>
+      <c r="W26" s="125"/>
+      <c r="X26" s="125"/>
+      <c r="Y26" s="125"/>
+      <c r="Z26" s="125"/>
+      <c r="AA26" s="126"/>
       <c r="AB26" s="121"/>
       <c r="AC26" s="122"/>
       <c r="AD26" s="123"/>
@@ -7260,28 +13002,28 @@
       <c r="C27" s="122"/>
       <c r="D27" s="122"/>
       <c r="E27" s="123"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="159"/>
-      <c r="L27" s="160"/>
-      <c r="M27" s="160"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="160"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="160"/>
-      <c r="R27" s="160"/>
-      <c r="S27" s="160"/>
-      <c r="T27" s="160"/>
-      <c r="U27" s="160"/>
-      <c r="V27" s="160"/>
-      <c r="W27" s="160"/>
-      <c r="X27" s="160"/>
-      <c r="Y27" s="160"/>
-      <c r="Z27" s="160"/>
-      <c r="AA27" s="161"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="125"/>
+      <c r="S27" s="125"/>
+      <c r="T27" s="125"/>
+      <c r="U27" s="125"/>
+      <c r="V27" s="125"/>
+      <c r="W27" s="125"/>
+      <c r="X27" s="125"/>
+      <c r="Y27" s="125"/>
+      <c r="Z27" s="125"/>
+      <c r="AA27" s="126"/>
       <c r="AB27" s="121"/>
       <c r="AC27" s="122"/>
       <c r="AD27" s="123"/>
@@ -7392,15 +13134,23 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AD5"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -7417,23 +13167,15 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -7451,14 +13193,14 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -8158,18 +13900,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FB018E-943A-4468-A679-0F3BEA43E79E}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -8869,18 +14611,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E41CE9A-4231-4DAD-93D6-DF9FCE3D7F20}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -8905,7 +14647,9 @@
       <c r="B2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="86"/>
+      <c r="C2" s="86" t="s">
+        <v>71</v>
+      </c>
       <c r="D2" s="87"/>
       <c r="E2" s="87"/>
       <c r="F2" s="87"/>
@@ -8915,14 +14659,18 @@
       <c r="J2" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="76"/>
+      <c r="K2" s="76" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="77"/>
       <c r="B3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="86" t="s">
+        <v>77</v>
+      </c>
       <c r="D3" s="87"/>
       <c r="E3" s="87"/>
       <c r="F3" s="87"/>
@@ -8932,14 +14680,18 @@
       <c r="J3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="78"/>
+      <c r="K3" s="78">
+        <v>45044</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="77"/>
       <c r="B4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="86" t="s">
+        <v>78</v>
+      </c>
       <c r="D4" s="87"/>
       <c r="E4" s="87"/>
       <c r="F4" s="87"/>
@@ -8958,7 +14710,9 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="198"/>
+      <c r="C5" s="198" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" s="199"/>
       <c r="E5" s="199"/>
       <c r="F5" s="199"/>
@@ -8980,7 +14734,9 @@
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="87"/>
+      <c r="F6" s="87" t="s">
+        <v>114</v>
+      </c>
       <c r="G6" s="87"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
@@ -9036,11 +14792,21 @@
       <c r="D9" s="91"/>
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="G9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="92"/>
@@ -9049,11 +14815,21 @@
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
+      <c r="G10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="92"/>
@@ -9062,11 +14838,21 @@
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="G11" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="92"/>
@@ -9075,11 +14861,21 @@
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+      <c r="G12" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="92"/>
@@ -9088,11 +14884,21 @@
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
+      <c r="G13" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="92"/>
@@ -9101,11 +14907,21 @@
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="G14" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="92"/>
@@ -9114,11 +14930,21 @@
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="G15" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="92"/>
@@ -9127,11 +14953,21 @@
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="G16" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1">
       <c r="A17" s="92"/>
@@ -9140,11 +14976,21 @@
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="G17" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="92"/>
@@ -9153,11 +14999,21 @@
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
+      <c r="G18" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
       <c r="A19" s="92"/>
@@ -9325,7 +15181,9 @@
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="113"/>
-      <c r="H31" s="108"/>
+      <c r="H31" s="108" t="s">
+        <v>142</v>
+      </c>
       <c r="I31" s="108"/>
       <c r="J31" s="108"/>
       <c r="K31" s="109"/>
@@ -9351,7 +15209,9 @@
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="113"/>
-      <c r="H33" s="108"/>
+      <c r="H33" s="108" t="s">
+        <v>143</v>
+      </c>
       <c r="I33" s="108"/>
       <c r="J33" s="108"/>
       <c r="K33" s="109"/>
@@ -9377,7 +15237,9 @@
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="113"/>
-      <c r="H35" s="108"/>
+      <c r="H35" s="108" t="s">
+        <v>144</v>
+      </c>
       <c r="I35" s="108"/>
       <c r="J35" s="108"/>
       <c r="K35" s="109"/>
@@ -9390,7 +15252,9 @@
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="113"/>
-      <c r="H36" s="108"/>
+      <c r="H36" s="108" t="s">
+        <v>145</v>
+      </c>
       <c r="I36" s="108"/>
       <c r="J36" s="108"/>
       <c r="K36" s="109"/>
@@ -9403,7 +15267,9 @@
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="113"/>
-      <c r="H37" s="108"/>
+      <c r="H37" s="108" t="s">
+        <v>146</v>
+      </c>
       <c r="I37" s="108"/>
       <c r="J37" s="108"/>
       <c r="K37" s="109"/>
@@ -9416,7 +15282,9 @@
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="113"/>
-      <c r="H38" s="108"/>
+      <c r="H38" s="108" t="s">
+        <v>147</v>
+      </c>
       <c r="I38" s="108"/>
       <c r="J38" s="108"/>
       <c r="K38" s="109"/>
@@ -9442,7 +15310,9 @@
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="113"/>
-      <c r="H40" s="108"/>
+      <c r="H40" s="108" t="s">
+        <v>148</v>
+      </c>
       <c r="I40" s="108"/>
       <c r="J40" s="108"/>
       <c r="K40" s="109"/>
@@ -9455,7 +15325,9 @@
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="113"/>
-      <c r="H41" s="108"/>
+      <c r="H41" s="108" t="s">
+        <v>149</v>
+      </c>
       <c r="I41" s="108"/>
       <c r="J41" s="108"/>
       <c r="K41" s="109"/>
@@ -9468,7 +15340,9 @@
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="113"/>
-      <c r="H42" s="108"/>
+      <c r="H42" s="108" t="s">
+        <v>150</v>
+      </c>
       <c r="I42" s="108"/>
       <c r="J42" s="108"/>
       <c r="K42" s="109"/>
@@ -9494,7 +15368,9 @@
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="113"/>
-      <c r="H44" s="108"/>
+      <c r="H44" s="108" t="s">
+        <v>151</v>
+      </c>
       <c r="I44" s="108"/>
       <c r="J44" s="108"/>
       <c r="K44" s="109"/>
@@ -9520,7 +15396,9 @@
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="113"/>
-      <c r="H46" s="108"/>
+      <c r="H46" s="108" t="s">
+        <v>152</v>
+      </c>
       <c r="I46" s="108"/>
       <c r="J46" s="108"/>
       <c r="K46" s="109"/>
@@ -9584,14 +15462,14 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -10295,14 +16173,14 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -11009,46 +16887,46 @@
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="14" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="14" width="8.125" customWidth="1"/>
     <col min="15" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="212"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="203"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="202"/>
+      <c r="B2" s="205"/>
       <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
@@ -11065,16 +16943,16 @@
       <c r="N2" s="87"/>
       <c r="O2" s="87"/>
       <c r="P2" s="87"/>
-      <c r="Q2" s="207" t="s">
+      <c r="Q2" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="208"/>
+      <c r="R2" s="211"/>
       <c r="S2" s="87"/>
       <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="203"/>
-      <c r="B3" s="204"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="207"/>
       <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
@@ -11091,16 +16969,16 @@
       <c r="N3" s="87"/>
       <c r="O3" s="87"/>
       <c r="P3" s="87"/>
-      <c r="Q3" s="207" t="s">
+      <c r="Q3" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="208"/>
+      <c r="R3" s="211"/>
       <c r="S3" s="87"/>
       <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="205"/>
-      <c r="B4" s="206"/>
+      <c r="A4" s="208"/>
+      <c r="B4" s="209"/>
       <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
@@ -11117,18 +16995,18 @@
       <c r="N4" s="87"/>
       <c r="O4" s="87"/>
       <c r="P4" s="87"/>
-      <c r="Q4" s="207" t="s">
+      <c r="Q4" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="208"/>
+      <c r="R4" s="211"/>
       <c r="S4" s="87"/>
       <c r="T4" s="88"/>
     </row>
     <row r="5" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="202"/>
+      <c r="B5" s="205"/>
       <c r="C5" s="22" t="s">
         <v>45</v>
       </c>
@@ -11145,25 +17023,25 @@
       <c r="N5" s="87"/>
       <c r="O5" s="87"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="207" t="s">
+      <c r="Q5" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="208"/>
+      <c r="R5" s="211"/>
       <c r="S5" s="87"/>
       <c r="T5" s="88"/>
     </row>
     <row r="6" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="203"/>
-      <c r="B6" s="204"/>
+      <c r="A6" s="206"/>
+      <c r="B6" s="207"/>
       <c r="C6" s="22" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="195"/>
       <c r="E6" s="197"/>
-      <c r="F6" s="209" t="s">
+      <c r="F6" s="212" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="209"/>
+      <c r="G6" s="212"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
@@ -11181,8 +17059,8 @@
       <c r="T6" s="88"/>
     </row>
     <row r="7" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="205"/>
-      <c r="B7" s="206"/>
+      <c r="A7" s="208"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
@@ -11199,8 +17077,8 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="207"/>
-      <c r="R7" s="208"/>
+      <c r="Q7" s="210"/>
+      <c r="R7" s="211"/>
       <c r="S7" s="87"/>
       <c r="T7" s="88"/>
     </row>
@@ -11918,6 +17796,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -11926,12 +17810,6 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11948,14 +17826,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -12655,15 +18533,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2FA301-F346-4BB4-A6BC-EB44CCEDDEA4}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="83" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U26" sqref="T26:U26"/>
+    <sheetView zoomScale="83" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:AG45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.21875" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.21875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.25" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.25" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
@@ -12706,209 +18584,209 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="175" t="s">
+      <c r="B2" s="173"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="181" t="s">
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="182"/>
-      <c r="W2" s="182"/>
-      <c r="X2" s="182"/>
-      <c r="Y2" s="182"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="174" t="s">
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="181" t="s">
+      <c r="AB2" s="181"/>
+      <c r="AC2" s="181"/>
+      <c r="AD2" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="167"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="175" t="s">
+      <c r="A3" s="175"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="182"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="174" t="s">
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="174"/>
-      <c r="AD3" s="184">
+      <c r="AB3" s="181"/>
+      <c r="AC3" s="181"/>
+      <c r="AD3" s="168">
         <v>45043</v>
       </c>
-      <c r="AE3" s="182"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="166"/>
+      <c r="AG3" s="167"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="171"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="175" t="s">
+      <c r="A4" s="178"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="182"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="182"/>
-      <c r="N4" s="182"/>
-      <c r="O4" s="182"/>
-      <c r="P4" s="182"/>
-      <c r="Q4" s="182"/>
-      <c r="R4" s="182"/>
-      <c r="S4" s="182"/>
-      <c r="T4" s="182"/>
-      <c r="U4" s="182"/>
-      <c r="V4" s="182"/>
-      <c r="W4" s="182"/>
-      <c r="X4" s="182"/>
-      <c r="Y4" s="182"/>
-      <c r="Z4" s="183"/>
-      <c r="AA4" s="174" t="s">
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="166"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="174"/>
-      <c r="AD4" s="185"/>
-      <c r="AE4" s="186"/>
-      <c r="AF4" s="186"/>
-      <c r="AG4" s="187"/>
+      <c r="AB4" s="181"/>
+      <c r="AC4" s="181"/>
+      <c r="AD4" s="169"/>
+      <c r="AE4" s="170"/>
+      <c r="AF4" s="170"/>
+      <c r="AG4" s="171"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="178" t="s">
+      <c r="B5" s="173"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
-      <c r="P5" s="182"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="182"/>
-      <c r="S5" s="182"/>
-      <c r="T5" s="182"/>
-      <c r="U5" s="182"/>
-      <c r="V5" s="182"/>
-      <c r="W5" s="182"/>
-      <c r="X5" s="182"/>
-      <c r="Y5" s="182"/>
-      <c r="Z5" s="183"/>
-      <c r="AA5" s="174" t="s">
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="166"/>
+      <c r="R5" s="166"/>
+      <c r="S5" s="166"/>
+      <c r="T5" s="166"/>
+      <c r="U5" s="166"/>
+      <c r="V5" s="166"/>
+      <c r="W5" s="166"/>
+      <c r="X5" s="166"/>
+      <c r="Y5" s="166"/>
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="174"/>
-      <c r="AC5" s="174"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="182"/>
-      <c r="AF5" s="182"/>
-      <c r="AG5" s="183"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="181"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="166"/>
+      <c r="AF5" s="166"/>
+      <c r="AG5" s="167"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="175" t="s">
+      <c r="A6" s="178"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="182"/>
-      <c r="S6" s="182"/>
-      <c r="T6" s="182"/>
-      <c r="U6" s="182"/>
-      <c r="V6" s="182"/>
-      <c r="W6" s="182"/>
-      <c r="X6" s="182"/>
-      <c r="Y6" s="182"/>
-      <c r="Z6" s="183"/>
-      <c r="AA6" s="174" t="s">
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="166"/>
+      <c r="S6" s="166"/>
+      <c r="T6" s="166"/>
+      <c r="U6" s="166"/>
+      <c r="V6" s="166"/>
+      <c r="W6" s="166"/>
+      <c r="X6" s="166"/>
+      <c r="Y6" s="166"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="174"/>
-      <c r="AC6" s="174"/>
-      <c r="AD6" s="181"/>
-      <c r="AE6" s="182"/>
-      <c r="AF6" s="182"/>
-      <c r="AG6" s="183"/>
+      <c r="AB6" s="181"/>
+      <c r="AC6" s="181"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="166"/>
+      <c r="AF6" s="166"/>
+      <c r="AG6" s="167"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -14172,12 +20050,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H6:Z6"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
@@ -14194,6 +20066,12 @@
     <mergeCell ref="H3:Z3"/>
     <mergeCell ref="H4:Z4"/>
     <mergeCell ref="H5:Z5"/>
+    <mergeCell ref="H6:Z6"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -14215,15 +20093,15 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="46.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="46.25" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
@@ -14246,13 +20124,13 @@
       <c r="B2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="184"/>
       <c r="H2" s="118" t="s">
         <v>16</v>
       </c>
@@ -14263,11 +20141,11 @@
       <c r="B3" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="177"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="184"/>
       <c r="H3" s="118" t="s">
         <v>18</v>
       </c>
@@ -14278,11 +20156,11 @@
       <c r="B4" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="177"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="184"/>
       <c r="H4" s="118" t="s">
         <v>20</v>
       </c>
@@ -14295,11 +20173,11 @@
       <c r="B5" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="177"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="184"/>
       <c r="H5" s="118" t="s">
         <v>23</v>
       </c>
@@ -14310,11 +20188,11 @@
       <c r="B6" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="175"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="177"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="184"/>
       <c r="H6" s="118" t="s">
         <v>25</v>
       </c>
@@ -14715,14 +20593,14 @@
   <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.21875" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.21875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.25" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.25" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
@@ -14765,11 +20643,11 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="167"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="174"/>
       <c r="D2" s="195" t="s">
         <v>15</v>
       </c>
@@ -14806,9 +20684,9 @@
       <c r="AG2" s="49"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="170"/>
+      <c r="A3" s="175"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="195" t="s">
         <v>17</v>
       </c>
@@ -14845,9 +20723,9 @@
       <c r="AG3" s="49"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="171"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="173"/>
+      <c r="A4" s="178"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="180"/>
       <c r="D4" s="195" t="s">
         <v>19</v>
       </c>
@@ -14884,11 +20762,11 @@
       <c r="AG4" s="49"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="167"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="174"/>
       <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
@@ -14925,9 +20803,9 @@
       <c r="AG5" s="49"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="173"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="180"/>
       <c r="D6" s="86" t="s">
         <v>24</v>
       </c>
@@ -16241,6 +22119,7 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16248,18 +22127,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEED7F7-5DDA-4486-BDA5-38C64B4E6C21}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -16284,7 +22163,9 @@
       <c r="B2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="86"/>
+      <c r="C2" s="86" t="s">
+        <v>71</v>
+      </c>
       <c r="D2" s="87"/>
       <c r="E2" s="87"/>
       <c r="F2" s="87"/>
@@ -16294,14 +22175,18 @@
       <c r="J2" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="76"/>
+      <c r="K2" s="76" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="77"/>
       <c r="B3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="86" t="s">
+        <v>77</v>
+      </c>
       <c r="D3" s="87"/>
       <c r="E3" s="87"/>
       <c r="F3" s="87"/>
@@ -16311,14 +22196,18 @@
       <c r="J3" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="78"/>
+      <c r="K3" s="78">
+        <v>45044</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="77"/>
       <c r="B4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="86" t="s">
+        <v>78</v>
+      </c>
       <c r="D4" s="87"/>
       <c r="E4" s="87"/>
       <c r="F4" s="87"/>
@@ -16328,7 +22217,9 @@
       <c r="J4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="76"/>
+      <c r="K4" s="213">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="79" t="s">
@@ -16337,7 +22228,9 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="198"/>
+      <c r="C5" s="198" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" s="199"/>
       <c r="E5" s="199"/>
       <c r="F5" s="199"/>
@@ -16359,7 +22252,9 @@
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="87"/>
+      <c r="F6" s="87" t="s">
+        <v>80</v>
+      </c>
       <c r="G6" s="87"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
@@ -16415,11 +22310,21 @@
       <c r="D9" s="91"/>
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="G9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="92"/>
@@ -16428,11 +22333,21 @@
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
+      <c r="G10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="92"/>
@@ -16441,11 +22356,21 @@
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="G11" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="92"/>
@@ -16454,11 +22379,21 @@
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+      <c r="G12" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="92"/>
@@ -16467,11 +22402,21 @@
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
+      <c r="G13" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="92"/>
@@ -16480,11 +22425,21 @@
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="G14" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="92"/>
@@ -16493,11 +22448,21 @@
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="G15" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="92"/>
@@ -16704,7 +22669,9 @@
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="113"/>
-      <c r="H31" s="108"/>
+      <c r="H31" s="108" t="s">
+        <v>113</v>
+      </c>
       <c r="I31" s="108"/>
       <c r="J31" s="108"/>
       <c r="K31" s="109"/>
@@ -16717,7 +22684,9 @@
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="113"/>
-      <c r="H32" s="108"/>
+      <c r="H32" s="108" t="s">
+        <v>107</v>
+      </c>
       <c r="I32" s="108"/>
       <c r="J32" s="108"/>
       <c r="K32" s="109"/>
@@ -16743,7 +22712,9 @@
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="113"/>
-      <c r="H34" s="108"/>
+      <c r="H34" s="108" t="s">
+        <v>108</v>
+      </c>
       <c r="I34" s="108"/>
       <c r="J34" s="108"/>
       <c r="K34" s="109"/>
@@ -16756,7 +22727,9 @@
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="113"/>
-      <c r="H35" s="108"/>
+      <c r="H35" s="108" t="s">
+        <v>109</v>
+      </c>
       <c r="I35" s="108"/>
       <c r="J35" s="108"/>
       <c r="K35" s="109"/>
@@ -16769,7 +22742,9 @@
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="113"/>
-      <c r="H36" s="108"/>
+      <c r="H36" s="108" t="s">
+        <v>110</v>
+      </c>
       <c r="I36" s="108"/>
       <c r="J36" s="108"/>
       <c r="K36" s="109"/>
@@ -16795,7 +22770,9 @@
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="113"/>
-      <c r="H38" s="108"/>
+      <c r="H38" s="108" t="s">
+        <v>111</v>
+      </c>
       <c r="I38" s="108"/>
       <c r="J38" s="108"/>
       <c r="K38" s="109"/>
@@ -16808,7 +22785,9 @@
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="113"/>
-      <c r="H39" s="108"/>
+      <c r="H39" s="108" t="s">
+        <v>112</v>
+      </c>
       <c r="I39" s="108"/>
       <c r="J39" s="108"/>
       <c r="K39" s="109"/>
@@ -16963,14 +22942,14 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -17674,14 +23653,14 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -18385,14 +24364,14 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -19096,14 +25075,14 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -19800,21 +25779,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -19958,24 +25922,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE99DE6A-D5AF-458E-878B-96B0555D5097}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19991,4 +25953,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_画面設計書.xlsx
+++ b/01_画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web\git\2023Dev3Early\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221E1EA8-E6DA-46C3-AC79-5F28155B7759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B56C40-8386-4289-8248-6F12DFF98076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -2000,6 +2000,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2008,90 +2011,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2132,26 +2051,89 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2201,6 +2183,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2240,15 +2243,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2276,8 +2270,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -12117,16 +12117,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="130" t="s">
+      <c r="Y2" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="148">
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="156">
         <v>45040</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="150"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="158"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -12191,14 +12191,14 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="151" t="s">
+      <c r="Y4" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="151"/>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
+      <c r="AB4" s="159"/>
+      <c r="AC4" s="159"/>
+      <c r="AD4" s="159"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="13"/>
@@ -12228,14 +12228,14 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="151" t="s">
+      <c r="Y5" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="151"/>
-      <c r="AA5" s="151"/>
-      <c r="AB5" s="151"/>
-      <c r="AC5" s="151"/>
-      <c r="AD5" s="151"/>
+      <c r="Z5" s="159"/>
+      <c r="AA5" s="159"/>
+      <c r="AB5" s="159"/>
+      <c r="AC5" s="159"/>
+      <c r="AD5" s="159"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -12248,16 +12248,16 @@
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="145" t="s">
+      <c r="F6" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
@@ -12280,26 +12280,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="132" t="s">
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="134"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="148"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -12307,40 +12307,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="130" t="s">
+      <c r="Y7" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="130" t="s">
+      <c r="Z7" s="139"/>
+      <c r="AA7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="131"/>
-      <c r="AC7" s="130" t="s">
+      <c r="AB7" s="139"/>
+      <c r="AC7" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="131"/>
+      <c r="AD7" s="139"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="66"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="137"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="151"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -12348,16 +12348,16 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="138" t="s">
+      <c r="Y8" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="Z8" s="139"/>
-      <c r="AA8" s="138" t="s">
+      <c r="Z8" s="141"/>
+      <c r="AA8" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" s="139"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="153"/>
+      <c r="AB8" s="141"/>
+      <c r="AC8" s="125"/>
+      <c r="AD8" s="126"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="66"/>
       <c r="AG8" s="2"/>
@@ -12387,12 +12387,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="140"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="140"/>
-      <c r="AB9" s="141"/>
-      <c r="AC9" s="154"/>
-      <c r="AD9" s="155"/>
+      <c r="Y9" s="142"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="128"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="66"/>
       <c r="AG9" s="2"/>
@@ -12422,12 +12422,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="142"/>
-      <c r="Z10" s="143"/>
-      <c r="AA10" s="142"/>
-      <c r="AB10" s="143"/>
-      <c r="AC10" s="156"/>
-      <c r="AD10" s="157"/>
+      <c r="Y10" s="144"/>
+      <c r="Z10" s="145"/>
+      <c r="AA10" s="144"/>
+      <c r="AB10" s="145"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="130"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="66"/>
       <c r="AG10" s="12"/>
@@ -12468,105 +12468,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="144"/>
-      <c r="AB12" s="144"/>
-      <c r="AC12" s="144"/>
-      <c r="AD12" s="144"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="152"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="152"/>
+      <c r="AA12" s="152"/>
+      <c r="AB12" s="152"/>
+      <c r="AC12" s="152"/>
+      <c r="AD12" s="152"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
-      <c r="AB13" s="144"/>
-      <c r="AC13" s="144"/>
-      <c r="AD13" s="144"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
+      <c r="R13" s="152"/>
+      <c r="S13" s="152"/>
+      <c r="T13" s="152"/>
+      <c r="U13" s="152"/>
+      <c r="V13" s="152"/>
+      <c r="W13" s="152"/>
+      <c r="X13" s="152"/>
+      <c r="Y13" s="152"/>
+      <c r="Z13" s="152"/>
+      <c r="AA13" s="152"/>
+      <c r="AB13" s="152"/>
+      <c r="AC13" s="152"/>
+      <c r="AD13" s="152"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="144"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="144"/>
-      <c r="X14" s="144"/>
-      <c r="Y14" s="144"/>
-      <c r="Z14" s="144"/>
-      <c r="AA14" s="144"/>
-      <c r="AB14" s="144"/>
-      <c r="AC14" s="144"/>
-      <c r="AD14" s="144"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+      <c r="U14" s="152"/>
+      <c r="V14" s="152"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="152"/>
+      <c r="AC14" s="152"/>
+      <c r="AD14" s="152"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
@@ -12778,255 +12778,255 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="121" t="s">
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="121" t="s">
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="122"/>
-      <c r="T21" s="122"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="122"/>
-      <c r="X21" s="122"/>
-      <c r="Y21" s="122"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="123"/>
-      <c r="AB21" s="121" t="s">
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="123"/>
+      <c r="W21" s="123"/>
+      <c r="X21" s="123"/>
+      <c r="Y21" s="123"/>
+      <c r="Z21" s="123"/>
+      <c r="AA21" s="124"/>
+      <c r="AB21" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="AC21" s="122"/>
-      <c r="AD21" s="123"/>
+      <c r="AC21" s="123"/>
+      <c r="AD21" s="124"/>
       <c r="AE21" s="14"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="127">
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="163">
         <v>45040</v>
       </c>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="124" t="s">
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="125"/>
-      <c r="S22" s="125"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="125"/>
-      <c r="W22" s="125"/>
-      <c r="X22" s="125"/>
-      <c r="Y22" s="125"/>
-      <c r="Z22" s="125"/>
-      <c r="AA22" s="126"/>
-      <c r="AB22" s="121" t="s">
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="161"/>
+      <c r="S22" s="161"/>
+      <c r="T22" s="161"/>
+      <c r="U22" s="161"/>
+      <c r="V22" s="161"/>
+      <c r="W22" s="161"/>
+      <c r="X22" s="161"/>
+      <c r="Y22" s="161"/>
+      <c r="Z22" s="161"/>
+      <c r="AA22" s="162"/>
+      <c r="AB22" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="AC22" s="122"/>
-      <c r="AD22" s="123"/>
+      <c r="AC22" s="123"/>
+      <c r="AD22" s="124"/>
       <c r="AE22" s="14"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="125"/>
-      <c r="W23" s="125"/>
-      <c r="X23" s="125"/>
-      <c r="Y23" s="125"/>
-      <c r="Z23" s="125"/>
-      <c r="AA23" s="126"/>
-      <c r="AB23" s="121"/>
-      <c r="AC23" s="122"/>
-      <c r="AD23" s="123"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="161"/>
+      <c r="S23" s="161"/>
+      <c r="T23" s="161"/>
+      <c r="U23" s="161"/>
+      <c r="V23" s="161"/>
+      <c r="W23" s="161"/>
+      <c r="X23" s="161"/>
+      <c r="Y23" s="161"/>
+      <c r="Z23" s="161"/>
+      <c r="AA23" s="162"/>
+      <c r="AB23" s="122"/>
+      <c r="AC23" s="123"/>
+      <c r="AD23" s="124"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="125"/>
-      <c r="V24" s="125"/>
-      <c r="W24" s="125"/>
-      <c r="X24" s="125"/>
-      <c r="Y24" s="125"/>
-      <c r="Z24" s="125"/>
-      <c r="AA24" s="126"/>
-      <c r="AB24" s="121"/>
-      <c r="AC24" s="122"/>
-      <c r="AD24" s="123"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="161"/>
+      <c r="S24" s="161"/>
+      <c r="T24" s="161"/>
+      <c r="U24" s="161"/>
+      <c r="V24" s="161"/>
+      <c r="W24" s="161"/>
+      <c r="X24" s="161"/>
+      <c r="Y24" s="161"/>
+      <c r="Z24" s="161"/>
+      <c r="AA24" s="162"/>
+      <c r="AB24" s="122"/>
+      <c r="AC24" s="123"/>
+      <c r="AD24" s="124"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="125"/>
-      <c r="T25" s="125"/>
-      <c r="U25" s="125"/>
-      <c r="V25" s="125"/>
-      <c r="W25" s="125"/>
-      <c r="X25" s="125"/>
-      <c r="Y25" s="125"/>
-      <c r="Z25" s="125"/>
-      <c r="AA25" s="126"/>
-      <c r="AB25" s="121"/>
-      <c r="AC25" s="122"/>
-      <c r="AD25" s="123"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="161"/>
+      <c r="S25" s="161"/>
+      <c r="T25" s="161"/>
+      <c r="U25" s="161"/>
+      <c r="V25" s="161"/>
+      <c r="W25" s="161"/>
+      <c r="X25" s="161"/>
+      <c r="Y25" s="161"/>
+      <c r="Z25" s="161"/>
+      <c r="AA25" s="162"/>
+      <c r="AB25" s="122"/>
+      <c r="AC25" s="123"/>
+      <c r="AD25" s="124"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="125"/>
-      <c r="S26" s="125"/>
-      <c r="T26" s="125"/>
-      <c r="U26" s="125"/>
-      <c r="V26" s="125"/>
-      <c r="W26" s="125"/>
-      <c r="X26" s="125"/>
-      <c r="Y26" s="125"/>
-      <c r="Z26" s="125"/>
-      <c r="AA26" s="126"/>
-      <c r="AB26" s="121"/>
-      <c r="AC26" s="122"/>
-      <c r="AD26" s="123"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="161"/>
+      <c r="S26" s="161"/>
+      <c r="T26" s="161"/>
+      <c r="U26" s="161"/>
+      <c r="V26" s="161"/>
+      <c r="W26" s="161"/>
+      <c r="X26" s="161"/>
+      <c r="Y26" s="161"/>
+      <c r="Z26" s="161"/>
+      <c r="AA26" s="162"/>
+      <c r="AB26" s="122"/>
+      <c r="AC26" s="123"/>
+      <c r="AD26" s="124"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="125"/>
-      <c r="S27" s="125"/>
-      <c r="T27" s="125"/>
-      <c r="U27" s="125"/>
-      <c r="V27" s="125"/>
-      <c r="W27" s="125"/>
-      <c r="X27" s="125"/>
-      <c r="Y27" s="125"/>
-      <c r="Z27" s="125"/>
-      <c r="AA27" s="126"/>
-      <c r="AB27" s="121"/>
-      <c r="AC27" s="122"/>
-      <c r="AD27" s="123"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="161"/>
+      <c r="S27" s="161"/>
+      <c r="T27" s="161"/>
+      <c r="U27" s="161"/>
+      <c r="V27" s="161"/>
+      <c r="W27" s="161"/>
+      <c r="X27" s="161"/>
+      <c r="Y27" s="161"/>
+      <c r="Z27" s="161"/>
+      <c r="AA27" s="162"/>
+      <c r="AB27" s="122"/>
+      <c r="AC27" s="123"/>
+      <c r="AD27" s="124"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="2"/>
     </row>
@@ -13134,23 +13134,15 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -13167,15 +13159,23 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -13278,13 +13278,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -13295,8 +13295,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="200"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="201"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -13989,13 +13989,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -14006,8 +14006,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="200"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="201"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -14611,8 +14611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E41CE9A-4231-4DAD-93D6-DF9FCE3D7F20}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -14701,7 +14701,9 @@
       <c r="J4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="76"/>
+      <c r="K4" s="121">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="79" t="s">
@@ -14710,15 +14712,15 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="198" t="s">
+      <c r="C5" s="199" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -14729,8 +14731,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="200"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="201"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -15547,13 +15549,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -15564,8 +15566,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="200"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="201"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -16258,13 +16260,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -16275,8 +16277,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="200"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="201"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -16899,149 +16901,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="202"/>
-      <c r="T1" s="203"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="212"/>
+      <c r="T1" s="213"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="205"/>
+      <c r="B2" s="203"/>
       <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="198"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
       <c r="L2" s="59"/>
       <c r="M2" s="87"/>
       <c r="N2" s="87"/>
       <c r="O2" s="87"/>
       <c r="P2" s="87"/>
-      <c r="Q2" s="210" t="s">
+      <c r="Q2" s="208" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="211"/>
+      <c r="R2" s="209"/>
       <c r="S2" s="87"/>
       <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="206"/>
-      <c r="B3" s="207"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="205"/>
       <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="198"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
       <c r="L3" s="59"/>
       <c r="M3" s="87"/>
       <c r="N3" s="87"/>
       <c r="O3" s="87"/>
       <c r="P3" s="87"/>
-      <c r="Q3" s="210" t="s">
+      <c r="Q3" s="208" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="211"/>
+      <c r="R3" s="209"/>
       <c r="S3" s="87"/>
       <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="208"/>
-      <c r="B4" s="209"/>
+      <c r="A4" s="206"/>
+      <c r="B4" s="207"/>
       <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="198"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="200"/>
       <c r="L4" s="59"/>
       <c r="M4" s="87"/>
       <c r="N4" s="87"/>
       <c r="O4" s="87"/>
       <c r="P4" s="87"/>
-      <c r="Q4" s="210" t="s">
+      <c r="Q4" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="211"/>
+      <c r="R4" s="209"/>
       <c r="S4" s="87"/>
       <c r="T4" s="88"/>
     </row>
     <row r="5" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="204" t="s">
+      <c r="A5" s="202" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="205"/>
+      <c r="B5" s="203"/>
       <c r="C5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="198"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="200"/>
       <c r="L5" s="59"/>
       <c r="M5" s="87"/>
       <c r="N5" s="87"/>
       <c r="O5" s="87"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="210" t="s">
+      <c r="Q5" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="211"/>
+      <c r="R5" s="209"/>
       <c r="S5" s="87"/>
       <c r="T5" s="88"/>
     </row>
     <row r="6" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="206"/>
-      <c r="B6" s="207"/>
+      <c r="A6" s="204"/>
+      <c r="B6" s="205"/>
       <c r="C6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="195"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="212" t="s">
+      <c r="D6" s="196"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="212"/>
+      <c r="G6" s="210"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
@@ -17059,8 +17061,8 @@
       <c r="T6" s="88"/>
     </row>
     <row r="7" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="208"/>
-      <c r="B7" s="209"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="207"/>
       <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
@@ -17077,8 +17079,8 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="210"/>
-      <c r="R7" s="211"/>
+      <c r="Q7" s="208"/>
+      <c r="R7" s="209"/>
       <c r="S7" s="87"/>
       <c r="T7" s="88"/>
     </row>
@@ -17796,12 +17798,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -17810,6 +17806,12 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17911,13 +17913,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -17928,8 +17930,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="200"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="201"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -18584,209 +18586,209 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="182" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="165" t="s">
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="181" t="s">
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="165" t="s">
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="166"/>
-      <c r="AG2" s="167"/>
+      <c r="AE2" s="183"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="184"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="175"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="182" t="s">
+      <c r="A3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="181" t="s">
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="181"/>
-      <c r="AC3" s="181"/>
-      <c r="AD3" s="168">
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="185">
         <v>45043</v>
       </c>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="166"/>
-      <c r="AG3" s="167"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="184"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="178"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="182" t="s">
+      <c r="A4" s="172"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="166"/>
-      <c r="V4" s="166"/>
-      <c r="W4" s="166"/>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="166"/>
-      <c r="Z4" s="167"/>
-      <c r="AA4" s="181" t="s">
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="183"/>
+      <c r="S4" s="183"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="183"/>
+      <c r="W4" s="183"/>
+      <c r="X4" s="183"/>
+      <c r="Y4" s="183"/>
+      <c r="Z4" s="184"/>
+      <c r="AA4" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="181"/>
-      <c r="AC4" s="181"/>
-      <c r="AD4" s="169"/>
-      <c r="AE4" s="170"/>
-      <c r="AF4" s="170"/>
-      <c r="AG4" s="171"/>
+      <c r="AB4" s="175"/>
+      <c r="AC4" s="175"/>
+      <c r="AD4" s="186"/>
+      <c r="AE4" s="187"/>
+      <c r="AF4" s="187"/>
+      <c r="AG4" s="188"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="185" t="s">
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="166"/>
-      <c r="R5" s="166"/>
-      <c r="S5" s="166"/>
-      <c r="T5" s="166"/>
-      <c r="U5" s="166"/>
-      <c r="V5" s="166"/>
-      <c r="W5" s="166"/>
-      <c r="X5" s="166"/>
-      <c r="Y5" s="166"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="181" t="s">
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="183"/>
+      <c r="P5" s="183"/>
+      <c r="Q5" s="183"/>
+      <c r="R5" s="183"/>
+      <c r="S5" s="183"/>
+      <c r="T5" s="183"/>
+      <c r="U5" s="183"/>
+      <c r="V5" s="183"/>
+      <c r="W5" s="183"/>
+      <c r="X5" s="183"/>
+      <c r="Y5" s="183"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="166"/>
-      <c r="AF5" s="166"/>
-      <c r="AG5" s="167"/>
+      <c r="AB5" s="175"/>
+      <c r="AC5" s="175"/>
+      <c r="AD5" s="182"/>
+      <c r="AE5" s="183"/>
+      <c r="AF5" s="183"/>
+      <c r="AG5" s="184"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="178"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="182" t="s">
+      <c r="A6" s="172"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="166"/>
-      <c r="T6" s="166"/>
-      <c r="U6" s="166"/>
-      <c r="V6" s="166"/>
-      <c r="W6" s="166"/>
-      <c r="X6" s="166"/>
-      <c r="Y6" s="166"/>
-      <c r="Z6" s="167"/>
-      <c r="AA6" s="181" t="s">
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="183"/>
+      <c r="R6" s="183"/>
+      <c r="S6" s="183"/>
+      <c r="T6" s="183"/>
+      <c r="U6" s="183"/>
+      <c r="V6" s="183"/>
+      <c r="W6" s="183"/>
+      <c r="X6" s="183"/>
+      <c r="Y6" s="183"/>
+      <c r="Z6" s="184"/>
+      <c r="AA6" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="181"/>
-      <c r="AC6" s="181"/>
-      <c r="AD6" s="165"/>
-      <c r="AE6" s="166"/>
-      <c r="AF6" s="166"/>
-      <c r="AG6" s="167"/>
+      <c r="AB6" s="175"/>
+      <c r="AC6" s="175"/>
+      <c r="AD6" s="182"/>
+      <c r="AE6" s="183"/>
+      <c r="AF6" s="183"/>
+      <c r="AG6" s="184"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -20050,6 +20052,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H6:Z6"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
@@ -20066,12 +20074,6 @@
     <mergeCell ref="H3:Z3"/>
     <mergeCell ref="H4:Z4"/>
     <mergeCell ref="H5:Z5"/>
-    <mergeCell ref="H6:Z6"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -20118,81 +20120,81 @@
       <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="192" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="184"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="118" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="192"/>
+      <c r="A3" s="193"/>
       <c r="B3" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="184"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="178"/>
       <c r="H3" s="118" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="193"/>
+      <c r="A4" s="194"/>
       <c r="B4" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="184"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="178"/>
       <c r="H4" s="118" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="117"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="192" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="184"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="178"/>
       <c r="H5" s="118" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="193"/>
+      <c r="A6" s="194"/>
       <c r="B6" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="184"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="178"/>
       <c r="H6" s="118" t="s">
         <v>25</v>
       </c>
@@ -20213,11 +20215,11 @@
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="188" t="s">
+      <c r="D8" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -20643,17 +20645,17 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="195" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="198"/>
       <c r="H2" s="50"/>
       <c r="I2" s="51"/>
       <c r="J2" s="51"/>
@@ -20673,26 +20675,26 @@
       <c r="X2" s="51"/>
       <c r="Y2" s="51"/>
       <c r="Z2" s="49"/>
-      <c r="AA2" s="194" t="s">
+      <c r="AA2" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="194"/>
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="195"/>
       <c r="AD2" s="50"/>
       <c r="AE2" s="51"/>
       <c r="AF2" s="51"/>
       <c r="AG2" s="49"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="175"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="195" t="s">
+      <c r="A3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="198"/>
       <c r="H3" s="50"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
@@ -20712,26 +20714,26 @@
       <c r="X3" s="51"/>
       <c r="Y3" s="51"/>
       <c r="Z3" s="49"/>
-      <c r="AA3" s="194" t="s">
+      <c r="AA3" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="194"/>
-      <c r="AC3" s="194"/>
+      <c r="AB3" s="195"/>
+      <c r="AC3" s="195"/>
       <c r="AD3" s="50"/>
       <c r="AE3" s="51"/>
       <c r="AF3" s="51"/>
       <c r="AG3" s="49"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="178"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="195" t="s">
+      <c r="A4" s="172"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="196"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="198"/>
       <c r="H4" s="50"/>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
@@ -20751,22 +20753,22 @@
       <c r="X4" s="51"/>
       <c r="Y4" s="51"/>
       <c r="Z4" s="49"/>
-      <c r="AA4" s="194" t="s">
+      <c r="AA4" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="194"/>
-      <c r="AC4" s="194"/>
+      <c r="AB4" s="195"/>
+      <c r="AC4" s="195"/>
       <c r="AD4" s="50"/>
       <c r="AE4" s="51"/>
       <c r="AF4" s="51"/>
       <c r="AG4" s="49"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="174"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
       <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
@@ -20792,20 +20794,20 @@
       <c r="X5" s="51"/>
       <c r="Y5" s="51"/>
       <c r="Z5" s="49"/>
-      <c r="AA5" s="194" t="s">
+      <c r="AA5" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="194"/>
-      <c r="AC5" s="194"/>
+      <c r="AB5" s="195"/>
+      <c r="AC5" s="195"/>
       <c r="AD5" s="50"/>
       <c r="AE5" s="51"/>
       <c r="AF5" s="51"/>
       <c r="AG5" s="49"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="178"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="180"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="174"/>
       <c r="D6" s="86" t="s">
         <v>24</v>
       </c>
@@ -20831,11 +20833,11 @@
       <c r="X6" s="51"/>
       <c r="Y6" s="51"/>
       <c r="Z6" s="49"/>
-      <c r="AA6" s="194" t="s">
+      <c r="AA6" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="194"/>
-      <c r="AC6" s="194"/>
+      <c r="AB6" s="195"/>
+      <c r="AC6" s="195"/>
       <c r="AD6" s="50"/>
       <c r="AE6" s="51"/>
       <c r="AF6" s="51"/>
@@ -22127,8 +22129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEED7F7-5DDA-4486-BDA5-38C64B4E6C21}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -22217,7 +22219,7 @@
       <c r="J4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="213">
+      <c r="K4" s="121">
         <v>1</v>
       </c>
     </row>
@@ -22228,15 +22230,15 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="198" t="s">
+      <c r="C5" s="199" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -22247,8 +22249,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="200"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="201"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -23027,13 +23029,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -23044,8 +23046,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="200"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="201"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -23738,13 +23740,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -23755,8 +23757,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="200"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="201"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -24449,13 +24451,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -24466,8 +24468,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="200"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="201"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -25160,13 +25162,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -25177,8 +25179,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="200"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="201"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -25779,6 +25781,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -25922,22 +25939,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE99DE6A-D5AF-458E-878B-96B0555D5097}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25953,21 +25972,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_画面設計書.xlsx
+++ b/01_画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web\git\2023Dev3Early\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B56C40-8386-4289-8248-6F12DFF98076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0162EA45-EC98-43E8-BCCA-34A25278FF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -2012,6 +2012,90 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2051,89 +2135,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2183,27 +2204,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2243,6 +2243,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2269,15 +2278,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8774,6 +8774,65 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="コネクタ: カギ線 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F5545A-FDD2-C507-7A81-7AF66D085C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="971550" y="4057651"/>
+          <a:ext cx="8753475" cy="1638299"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2612"/>
+            <a:gd name="adj2" fmla="val -88663"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12117,16 +12176,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="138" t="s">
+      <c r="Y2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="156">
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="149">
         <v>45040</v>
       </c>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="158"/>
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="151"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -12191,14 +12250,14 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="159" t="s">
+      <c r="Y4" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
-      <c r="AC4" s="159"/>
-      <c r="AD4" s="159"/>
+      <c r="Z4" s="152"/>
+      <c r="AA4" s="152"/>
+      <c r="AB4" s="152"/>
+      <c r="AC4" s="152"/>
+      <c r="AD4" s="152"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="13"/>
@@ -12228,14 +12287,14 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="159" t="s">
+      <c r="Y5" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="159"/>
-      <c r="AA5" s="159"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="159"/>
-      <c r="AD5" s="159"/>
+      <c r="Z5" s="152"/>
+      <c r="AA5" s="152"/>
+      <c r="AB5" s="152"/>
+      <c r="AC5" s="152"/>
+      <c r="AD5" s="152"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -12248,16 +12307,16 @@
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="153" t="s">
+      <c r="F6" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
@@ -12280,26 +12339,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="146" t="s">
+      <c r="C7" s="160"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="148"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="135"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -12307,40 +12366,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="138" t="s">
+      <c r="Y7" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="138" t="s">
+      <c r="Z7" s="132"/>
+      <c r="AA7" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="139"/>
-      <c r="AC7" s="138" t="s">
+      <c r="AB7" s="132"/>
+      <c r="AC7" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="139"/>
+      <c r="AD7" s="132"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="66"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="151"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="138"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -12348,16 +12407,16 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="140" t="s">
+      <c r="Y8" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="140" t="s">
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="125"/>
-      <c r="AD8" s="126"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="153"/>
+      <c r="AD8" s="154"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="66"/>
       <c r="AG8" s="2"/>
@@ -12387,12 +12446,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="142"/>
-      <c r="Z9" s="143"/>
-      <c r="AA9" s="142"/>
-      <c r="AB9" s="143"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="128"/>
+      <c r="Y9" s="141"/>
+      <c r="Z9" s="142"/>
+      <c r="AA9" s="141"/>
+      <c r="AB9" s="142"/>
+      <c r="AC9" s="155"/>
+      <c r="AD9" s="156"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="66"/>
       <c r="AG9" s="2"/>
@@ -12422,12 +12481,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="145"/>
-      <c r="AA10" s="144"/>
-      <c r="AB10" s="145"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="130"/>
+      <c r="Y10" s="143"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="143"/>
+      <c r="AB10" s="144"/>
+      <c r="AC10" s="157"/>
+      <c r="AD10" s="158"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="66"/>
       <c r="AG10" s="12"/>
@@ -12468,105 +12527,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="152"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="152"/>
-      <c r="U12" s="152"/>
-      <c r="V12" s="152"/>
-      <c r="W12" s="152"/>
-      <c r="X12" s="152"/>
-      <c r="Y12" s="152"/>
-      <c r="Z12" s="152"/>
-      <c r="AA12" s="152"/>
-      <c r="AB12" s="152"/>
-      <c r="AC12" s="152"/>
-      <c r="AD12" s="152"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="145"/>
+      <c r="V12" s="145"/>
+      <c r="W12" s="145"/>
+      <c r="X12" s="145"/>
+      <c r="Y12" s="145"/>
+      <c r="Z12" s="145"/>
+      <c r="AA12" s="145"/>
+      <c r="AB12" s="145"/>
+      <c r="AC12" s="145"/>
+      <c r="AD12" s="145"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="152"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="152"/>
-      <c r="S13" s="152"/>
-      <c r="T13" s="152"/>
-      <c r="U13" s="152"/>
-      <c r="V13" s="152"/>
-      <c r="W13" s="152"/>
-      <c r="X13" s="152"/>
-      <c r="Y13" s="152"/>
-      <c r="Z13" s="152"/>
-      <c r="AA13" s="152"/>
-      <c r="AB13" s="152"/>
-      <c r="AC13" s="152"/>
-      <c r="AD13" s="152"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="145"/>
+      <c r="T13" s="145"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="145"/>
+      <c r="W13" s="145"/>
+      <c r="X13" s="145"/>
+      <c r="Y13" s="145"/>
+      <c r="Z13" s="145"/>
+      <c r="AA13" s="145"/>
+      <c r="AB13" s="145"/>
+      <c r="AC13" s="145"/>
+      <c r="AD13" s="145"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="152"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="152"/>
-      <c r="U14" s="152"/>
-      <c r="V14" s="152"/>
-      <c r="W14" s="152"/>
-      <c r="X14" s="152"/>
-      <c r="Y14" s="152"/>
-      <c r="Z14" s="152"/>
-      <c r="AA14" s="152"/>
-      <c r="AB14" s="152"/>
-      <c r="AC14" s="152"/>
-      <c r="AD14" s="152"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="145"/>
+      <c r="T14" s="145"/>
+      <c r="U14" s="145"/>
+      <c r="V14" s="145"/>
+      <c r="W14" s="145"/>
+      <c r="X14" s="145"/>
+      <c r="Y14" s="145"/>
+      <c r="Z14" s="145"/>
+      <c r="AA14" s="145"/>
+      <c r="AB14" s="145"/>
+      <c r="AC14" s="145"/>
+      <c r="AD14" s="145"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
@@ -12826,32 +12885,32 @@
       <c r="C22" s="123"/>
       <c r="D22" s="123"/>
       <c r="E22" s="124"/>
-      <c r="F22" s="163">
+      <c r="F22" s="128">
         <v>45040</v>
       </c>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="160" t="s">
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="161"/>
-      <c r="S22" s="161"/>
-      <c r="T22" s="161"/>
-      <c r="U22" s="161"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="161"/>
-      <c r="X22" s="161"/>
-      <c r="Y22" s="161"/>
-      <c r="Z22" s="161"/>
-      <c r="AA22" s="162"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="126"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="126"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="126"/>
+      <c r="W22" s="126"/>
+      <c r="X22" s="126"/>
+      <c r="Y22" s="126"/>
+      <c r="Z22" s="126"/>
+      <c r="AA22" s="127"/>
       <c r="AB22" s="122" t="s">
         <v>74</v>
       </c>
@@ -12866,28 +12925,28 @@
       <c r="C23" s="123"/>
       <c r="D23" s="123"/>
       <c r="E23" s="124"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="161"/>
-      <c r="S23" s="161"/>
-      <c r="T23" s="161"/>
-      <c r="U23" s="161"/>
-      <c r="V23" s="161"/>
-      <c r="W23" s="161"/>
-      <c r="X23" s="161"/>
-      <c r="Y23" s="161"/>
-      <c r="Z23" s="161"/>
-      <c r="AA23" s="162"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="126"/>
+      <c r="S23" s="126"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="126"/>
+      <c r="W23" s="126"/>
+      <c r="X23" s="126"/>
+      <c r="Y23" s="126"/>
+      <c r="Z23" s="126"/>
+      <c r="AA23" s="127"/>
       <c r="AB23" s="122"/>
       <c r="AC23" s="123"/>
       <c r="AD23" s="124"/>
@@ -12900,28 +12959,28 @@
       <c r="C24" s="123"/>
       <c r="D24" s="123"/>
       <c r="E24" s="124"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="161"/>
-      <c r="S24" s="161"/>
-      <c r="T24" s="161"/>
-      <c r="U24" s="161"/>
-      <c r="V24" s="161"/>
-      <c r="W24" s="161"/>
-      <c r="X24" s="161"/>
-      <c r="Y24" s="161"/>
-      <c r="Z24" s="161"/>
-      <c r="AA24" s="162"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="126"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="126"/>
+      <c r="V24" s="126"/>
+      <c r="W24" s="126"/>
+      <c r="X24" s="126"/>
+      <c r="Y24" s="126"/>
+      <c r="Z24" s="126"/>
+      <c r="AA24" s="127"/>
       <c r="AB24" s="122"/>
       <c r="AC24" s="123"/>
       <c r="AD24" s="124"/>
@@ -12934,28 +12993,28 @@
       <c r="C25" s="123"/>
       <c r="D25" s="123"/>
       <c r="E25" s="124"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="161"/>
-      <c r="P25" s="161"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="161"/>
-      <c r="S25" s="161"/>
-      <c r="T25" s="161"/>
-      <c r="U25" s="161"/>
-      <c r="V25" s="161"/>
-      <c r="W25" s="161"/>
-      <c r="X25" s="161"/>
-      <c r="Y25" s="161"/>
-      <c r="Z25" s="161"/>
-      <c r="AA25" s="162"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="126"/>
+      <c r="W25" s="126"/>
+      <c r="X25" s="126"/>
+      <c r="Y25" s="126"/>
+      <c r="Z25" s="126"/>
+      <c r="AA25" s="127"/>
       <c r="AB25" s="122"/>
       <c r="AC25" s="123"/>
       <c r="AD25" s="124"/>
@@ -12968,28 +13027,28 @@
       <c r="C26" s="123"/>
       <c r="D26" s="123"/>
       <c r="E26" s="124"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="161"/>
-      <c r="S26" s="161"/>
-      <c r="T26" s="161"/>
-      <c r="U26" s="161"/>
-      <c r="V26" s="161"/>
-      <c r="W26" s="161"/>
-      <c r="X26" s="161"/>
-      <c r="Y26" s="161"/>
-      <c r="Z26" s="161"/>
-      <c r="AA26" s="162"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="126"/>
+      <c r="T26" s="126"/>
+      <c r="U26" s="126"/>
+      <c r="V26" s="126"/>
+      <c r="W26" s="126"/>
+      <c r="X26" s="126"/>
+      <c r="Y26" s="126"/>
+      <c r="Z26" s="126"/>
+      <c r="AA26" s="127"/>
       <c r="AB26" s="122"/>
       <c r="AC26" s="123"/>
       <c r="AD26" s="124"/>
@@ -13002,28 +13061,28 @@
       <c r="C27" s="123"/>
       <c r="D27" s="123"/>
       <c r="E27" s="124"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="161"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="161"/>
-      <c r="S27" s="161"/>
-      <c r="T27" s="161"/>
-      <c r="U27" s="161"/>
-      <c r="V27" s="161"/>
-      <c r="W27" s="161"/>
-      <c r="X27" s="161"/>
-      <c r="Y27" s="161"/>
-      <c r="Z27" s="161"/>
-      <c r="AA27" s="162"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="126"/>
+      <c r="T27" s="126"/>
+      <c r="U27" s="126"/>
+      <c r="V27" s="126"/>
+      <c r="W27" s="126"/>
+      <c r="X27" s="126"/>
+      <c r="Y27" s="126"/>
+      <c r="Z27" s="126"/>
+      <c r="AA27" s="127"/>
       <c r="AB27" s="122"/>
       <c r="AC27" s="123"/>
       <c r="AD27" s="124"/>
@@ -13134,15 +13193,23 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AD5"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -13159,23 +13226,15 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -16901,34 +16960,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="212"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="212"/>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="212"/>
-      <c r="S1" s="212"/>
-      <c r="T1" s="213"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="203"/>
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="203"/>
+      <c r="T1" s="204"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="203"/>
+      <c r="B2" s="206"/>
       <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
@@ -16945,16 +17004,16 @@
       <c r="N2" s="87"/>
       <c r="O2" s="87"/>
       <c r="P2" s="87"/>
-      <c r="Q2" s="208" t="s">
+      <c r="Q2" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="209"/>
+      <c r="R2" s="212"/>
       <c r="S2" s="87"/>
       <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="204"/>
-      <c r="B3" s="205"/>
+      <c r="A3" s="207"/>
+      <c r="B3" s="208"/>
       <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
@@ -16971,16 +17030,16 @@
       <c r="N3" s="87"/>
       <c r="O3" s="87"/>
       <c r="P3" s="87"/>
-      <c r="Q3" s="208" t="s">
+      <c r="Q3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="209"/>
+      <c r="R3" s="212"/>
       <c r="S3" s="87"/>
       <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="206"/>
-      <c r="B4" s="207"/>
+      <c r="A4" s="209"/>
+      <c r="B4" s="210"/>
       <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
@@ -16997,18 +17056,18 @@
       <c r="N4" s="87"/>
       <c r="O4" s="87"/>
       <c r="P4" s="87"/>
-      <c r="Q4" s="208" t="s">
+      <c r="Q4" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="209"/>
+      <c r="R4" s="212"/>
       <c r="S4" s="87"/>
       <c r="T4" s="88"/>
     </row>
     <row r="5" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="202" t="s">
+      <c r="A5" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="203"/>
+      <c r="B5" s="206"/>
       <c r="C5" s="22" t="s">
         <v>45</v>
       </c>
@@ -17025,25 +17084,25 @@
       <c r="N5" s="87"/>
       <c r="O5" s="87"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="208" t="s">
+      <c r="Q5" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="209"/>
+      <c r="R5" s="212"/>
       <c r="S5" s="87"/>
       <c r="T5" s="88"/>
     </row>
     <row r="6" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="204"/>
-      <c r="B6" s="205"/>
+      <c r="A6" s="207"/>
+      <c r="B6" s="208"/>
       <c r="C6" s="22" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="196"/>
       <c r="E6" s="198"/>
-      <c r="F6" s="210" t="s">
+      <c r="F6" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="210"/>
+      <c r="G6" s="213"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
@@ -17061,8 +17120,8 @@
       <c r="T6" s="88"/>
     </row>
     <row r="7" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="206"/>
-      <c r="B7" s="207"/>
+      <c r="A7" s="209"/>
+      <c r="B7" s="210"/>
       <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
@@ -17079,8 +17138,8 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="208"/>
-      <c r="R7" s="209"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="212"/>
       <c r="S7" s="87"/>
       <c r="T7" s="88"/>
     </row>
@@ -17798,6 +17857,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -17806,12 +17871,6 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18586,209 +18645,209 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="176" t="s">
+      <c r="B2" s="174"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="182" t="s">
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="184"/>
-      <c r="AA2" s="175" t="s">
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="182" t="s">
+      <c r="AB2" s="182"/>
+      <c r="AC2" s="182"/>
+      <c r="AD2" s="166" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="184"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="168"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="169"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="176" t="s">
+      <c r="A3" s="176"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="183"/>
-      <c r="U3" s="183"/>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="184"/>
-      <c r="AA3" s="175" t="s">
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167"/>
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="185">
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="182"/>
+      <c r="AD3" s="169">
         <v>45043</v>
       </c>
-      <c r="AE3" s="183"/>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="184"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="168"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="172"/>
-      <c r="B4" s="173"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="176" t="s">
+      <c r="A4" s="179"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="182"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="183"/>
-      <c r="M4" s="183"/>
-      <c r="N4" s="183"/>
-      <c r="O4" s="183"/>
-      <c r="P4" s="183"/>
-      <c r="Q4" s="183"/>
-      <c r="R4" s="183"/>
-      <c r="S4" s="183"/>
-      <c r="T4" s="183"/>
-      <c r="U4" s="183"/>
-      <c r="V4" s="183"/>
-      <c r="W4" s="183"/>
-      <c r="X4" s="183"/>
-      <c r="Y4" s="183"/>
-      <c r="Z4" s="184"/>
-      <c r="AA4" s="175" t="s">
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="167"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="168"/>
+      <c r="AA4" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="175"/>
-      <c r="AC4" s="175"/>
-      <c r="AD4" s="186"/>
-      <c r="AE4" s="187"/>
-      <c r="AF4" s="187"/>
-      <c r="AG4" s="188"/>
+      <c r="AB4" s="182"/>
+      <c r="AC4" s="182"/>
+      <c r="AD4" s="170"/>
+      <c r="AE4" s="171"/>
+      <c r="AF4" s="171"/>
+      <c r="AG4" s="172"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="179" t="s">
+      <c r="B5" s="174"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="183"/>
-      <c r="L5" s="183"/>
-      <c r="M5" s="183"/>
-      <c r="N5" s="183"/>
-      <c r="O5" s="183"/>
-      <c r="P5" s="183"/>
-      <c r="Q5" s="183"/>
-      <c r="R5" s="183"/>
-      <c r="S5" s="183"/>
-      <c r="T5" s="183"/>
-      <c r="U5" s="183"/>
-      <c r="V5" s="183"/>
-      <c r="W5" s="183"/>
-      <c r="X5" s="183"/>
-      <c r="Y5" s="183"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="175" t="s">
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="167"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="167"/>
+      <c r="S5" s="167"/>
+      <c r="T5" s="167"/>
+      <c r="U5" s="167"/>
+      <c r="V5" s="167"/>
+      <c r="W5" s="167"/>
+      <c r="X5" s="167"/>
+      <c r="Y5" s="167"/>
+      <c r="Z5" s="168"/>
+      <c r="AA5" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="175"/>
-      <c r="AC5" s="175"/>
-      <c r="AD5" s="182"/>
-      <c r="AE5" s="183"/>
-      <c r="AF5" s="183"/>
-      <c r="AG5" s="184"/>
+      <c r="AB5" s="182"/>
+      <c r="AC5" s="182"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="167"/>
+      <c r="AF5" s="167"/>
+      <c r="AG5" s="168"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="172"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="176" t="s">
+      <c r="A6" s="179"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="183"/>
-      <c r="L6" s="183"/>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="183"/>
-      <c r="P6" s="183"/>
-      <c r="Q6" s="183"/>
-      <c r="R6" s="183"/>
-      <c r="S6" s="183"/>
-      <c r="T6" s="183"/>
-      <c r="U6" s="183"/>
-      <c r="V6" s="183"/>
-      <c r="W6" s="183"/>
-      <c r="X6" s="183"/>
-      <c r="Y6" s="183"/>
-      <c r="Z6" s="184"/>
-      <c r="AA6" s="175" t="s">
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
+      <c r="R6" s="167"/>
+      <c r="S6" s="167"/>
+      <c r="T6" s="167"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="167"/>
+      <c r="W6" s="167"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="168"/>
+      <c r="AA6" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="175"/>
-      <c r="AC6" s="175"/>
-      <c r="AD6" s="182"/>
-      <c r="AE6" s="183"/>
-      <c r="AF6" s="183"/>
-      <c r="AG6" s="184"/>
+      <c r="AB6" s="182"/>
+      <c r="AC6" s="182"/>
+      <c r="AD6" s="166"/>
+      <c r="AE6" s="167"/>
+      <c r="AF6" s="167"/>
+      <c r="AG6" s="168"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -20052,12 +20111,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H6:Z6"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
@@ -20074,6 +20127,12 @@
     <mergeCell ref="H3:Z3"/>
     <mergeCell ref="H4:Z4"/>
     <mergeCell ref="H5:Z5"/>
+    <mergeCell ref="H6:Z6"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -20126,13 +20185,13 @@
       <c r="B2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="178"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
       <c r="H2" s="118" t="s">
         <v>16</v>
       </c>
@@ -20143,11 +20202,11 @@
       <c r="B3" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="178"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="185"/>
       <c r="H3" s="118" t="s">
         <v>18</v>
       </c>
@@ -20158,11 +20217,11 @@
       <c r="B4" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="176"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="178"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
       <c r="H4" s="118" t="s">
         <v>20</v>
       </c>
@@ -20175,11 +20234,11 @@
       <c r="B5" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="178"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="185"/>
       <c r="H5" s="118" t="s">
         <v>23</v>
       </c>
@@ -20190,11 +20249,11 @@
       <c r="B6" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="176"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="178"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="185"/>
       <c r="H6" s="118" t="s">
         <v>25</v>
       </c>
@@ -20594,8 +20653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -20645,11 +20704,11 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="168"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="175"/>
       <c r="D2" s="196" t="s">
         <v>15</v>
       </c>
@@ -20686,9 +20745,9 @@
       <c r="AG2" s="49"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="169"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="171"/>
+      <c r="A3" s="176"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="178"/>
       <c r="D3" s="196" t="s">
         <v>17</v>
       </c>
@@ -20725,9 +20784,9 @@
       <c r="AG3" s="49"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="172"/>
-      <c r="B4" s="173"/>
-      <c r="C4" s="174"/>
+      <c r="A4" s="179"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="196" t="s">
         <v>19</v>
       </c>
@@ -20764,11 +20823,11 @@
       <c r="AG4" s="49"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
@@ -20805,9 +20864,9 @@
       <c r="AG5" s="49"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="172"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="174"/>
+      <c r="A6" s="179"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="86" t="s">
         <v>24</v>
       </c>
@@ -22129,7 +22188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEED7F7-5DDA-4486-BDA5-38C64B4E6C21}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -25781,21 +25840,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -25939,24 +25983,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE99DE6A-D5AF-458E-878B-96B0555D5097}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25972,4 +26014,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_画面設計書.xlsx
+++ b/01_画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web\git\2023Dev3Early\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0162EA45-EC98-43E8-BCCA-34A25278FF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBDC70D-8DBB-474C-83A7-4AFE4A7791C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -25,8 +25,8 @@
     <sheet name="設定画面" sheetId="86" r:id="rId10"/>
     <sheet name="プロフィール画面(他人)" sheetId="81" r:id="rId11"/>
     <sheet name="下書き画面" sheetId="76" r:id="rId12"/>
-    <sheet name="ユーザページ" sheetId="78" r:id="rId13"/>
-    <sheet name="投稿画面" sheetId="77" r:id="rId14"/>
+    <sheet name="レシピ投稿確認画面" sheetId="77" r:id="rId13"/>
+    <sheet name="ユーザページ" sheetId="78" r:id="rId14"/>
     <sheet name="(Gxx)PC画面フォーム" sheetId="72" r:id="rId15"/>
     <sheet name="(Gxx)モバイル画面フォーム (5)" sheetId="79" r:id="rId16"/>
   </sheets>
@@ -36,14 +36,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">サイトマップ構造図!$A$1:$AG$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'プロフィール画面(他人)'!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">ホーム画面!$A$1:$K$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">ユーザページ!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">ユーザページ!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">ランキング画面!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">レシピ提案画面!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">レシピ投稿確認画面!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">下書き画面!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図!$A$1:$AG$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">検索結果画面!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">設定画面!$A$1:$K$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">投稿画面!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AE$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">料理詳細画面!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">サイトマップ構造図!#REF!</definedName>
@@ -2012,90 +2012,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2135,26 +2051,89 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2204,6 +2183,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2243,15 +2243,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2278,6 +2269,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6302,6 +6302,203 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D3FE35-E3C8-46BA-ACFF-CD37AF735F9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13822680" y="1474410"/>
+          <a:ext cx="1620762" cy="525753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418495</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>509454</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143378</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A137E0AE-4C82-4FDA-8690-C89FA1C12E77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15460375" y="974271"/>
+          <a:ext cx="700559" cy="502607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>348367</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E410A476-D76A-4FEF-A3C7-FD31D33154BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16114123" y="571500"/>
+          <a:ext cx="495324" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>401562</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A9994C-F192-4FE3-AFF0-343C43180E43}"/>
             </a:ext>
           </a:extLst>
@@ -6424,203 +6621,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A5AA93-4EA9-454C-8554-11149A5BD136}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16114123" y="571500"/>
-          <a:ext cx="495324" cy="509006"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>140910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>401562</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95163</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D3FE35-E3C8-46BA-ACFF-CD37AF735F9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13822680" y="1474410"/>
-          <a:ext cx="1620762" cy="525753"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>418495</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>509454</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>143378</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A137E0AE-4C82-4FDA-8690-C89FA1C12E77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="15460375" y="974271"/>
-          <a:ext cx="700559" cy="502607"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>348367</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>128006</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E410A476-D76A-4FEF-A3C7-FD31D33154BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12176,16 +12176,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="131" t="s">
+      <c r="Y2" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="149">
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="156">
         <v>45040</v>
       </c>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="151"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="158"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -12250,14 +12250,14 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="152" t="s">
+      <c r="Y4" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="152"/>
-      <c r="AA4" s="152"/>
-      <c r="AB4" s="152"/>
-      <c r="AC4" s="152"/>
-      <c r="AD4" s="152"/>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
+      <c r="AB4" s="159"/>
+      <c r="AC4" s="159"/>
+      <c r="AD4" s="159"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="13"/>
@@ -12287,14 +12287,14 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="152" t="s">
+      <c r="Y5" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="152"/>
-      <c r="AA5" s="152"/>
-      <c r="AB5" s="152"/>
-      <c r="AC5" s="152"/>
-      <c r="AD5" s="152"/>
+      <c r="Z5" s="159"/>
+      <c r="AA5" s="159"/>
+      <c r="AB5" s="159"/>
+      <c r="AC5" s="159"/>
+      <c r="AD5" s="159"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -12307,16 +12307,16 @@
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="146" t="s">
+      <c r="F6" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
@@ -12339,26 +12339,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="133" t="s">
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="135"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="148"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -12366,40 +12366,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="131" t="s">
+      <c r="Y7" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="132"/>
-      <c r="AA7" s="131" t="s">
+      <c r="Z7" s="139"/>
+      <c r="AA7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="132"/>
-      <c r="AC7" s="131" t="s">
+      <c r="AB7" s="139"/>
+      <c r="AC7" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="132"/>
+      <c r="AD7" s="139"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="66"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="138"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="151"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -12407,16 +12407,16 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="139" t="s">
+      <c r="Y8" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="Z8" s="140"/>
-      <c r="AA8" s="139" t="s">
+      <c r="Z8" s="141"/>
+      <c r="AA8" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" s="140"/>
-      <c r="AC8" s="153"/>
-      <c r="AD8" s="154"/>
+      <c r="AB8" s="141"/>
+      <c r="AC8" s="125"/>
+      <c r="AD8" s="126"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="66"/>
       <c r="AG8" s="2"/>
@@ -12446,12 +12446,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="142"/>
-      <c r="AA9" s="141"/>
-      <c r="AB9" s="142"/>
-      <c r="AC9" s="155"/>
-      <c r="AD9" s="156"/>
+      <c r="Y9" s="142"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="128"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="66"/>
       <c r="AG9" s="2"/>
@@ -12481,12 +12481,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="143"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="157"/>
-      <c r="AD10" s="158"/>
+      <c r="Y10" s="144"/>
+      <c r="Z10" s="145"/>
+      <c r="AA10" s="144"/>
+      <c r="AB10" s="145"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="130"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="66"/>
       <c r="AG10" s="12"/>
@@ -12527,105 +12527,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="145" t="s">
+      <c r="B12" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="145"/>
-      <c r="R12" s="145"/>
-      <c r="S12" s="145"/>
-      <c r="T12" s="145"/>
-      <c r="U12" s="145"/>
-      <c r="V12" s="145"/>
-      <c r="W12" s="145"/>
-      <c r="X12" s="145"/>
-      <c r="Y12" s="145"/>
-      <c r="Z12" s="145"/>
-      <c r="AA12" s="145"/>
-      <c r="AB12" s="145"/>
-      <c r="AC12" s="145"/>
-      <c r="AD12" s="145"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="152"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="152"/>
+      <c r="AA12" s="152"/>
+      <c r="AB12" s="152"/>
+      <c r="AC12" s="152"/>
+      <c r="AD12" s="152"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="145"/>
-      <c r="R13" s="145"/>
-      <c r="S13" s="145"/>
-      <c r="T13" s="145"/>
-      <c r="U13" s="145"/>
-      <c r="V13" s="145"/>
-      <c r="W13" s="145"/>
-      <c r="X13" s="145"/>
-      <c r="Y13" s="145"/>
-      <c r="Z13" s="145"/>
-      <c r="AA13" s="145"/>
-      <c r="AB13" s="145"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="145"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
+      <c r="R13" s="152"/>
+      <c r="S13" s="152"/>
+      <c r="T13" s="152"/>
+      <c r="U13" s="152"/>
+      <c r="V13" s="152"/>
+      <c r="W13" s="152"/>
+      <c r="X13" s="152"/>
+      <c r="Y13" s="152"/>
+      <c r="Z13" s="152"/>
+      <c r="AA13" s="152"/>
+      <c r="AB13" s="152"/>
+      <c r="AC13" s="152"/>
+      <c r="AD13" s="152"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="145"/>
-      <c r="Q14" s="145"/>
-      <c r="R14" s="145"/>
-      <c r="S14" s="145"/>
-      <c r="T14" s="145"/>
-      <c r="U14" s="145"/>
-      <c r="V14" s="145"/>
-      <c r="W14" s="145"/>
-      <c r="X14" s="145"/>
-      <c r="Y14" s="145"/>
-      <c r="Z14" s="145"/>
-      <c r="AA14" s="145"/>
-      <c r="AB14" s="145"/>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="145"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+      <c r="U14" s="152"/>
+      <c r="V14" s="152"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="152"/>
+      <c r="AC14" s="152"/>
+      <c r="AD14" s="152"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
@@ -12885,32 +12885,32 @@
       <c r="C22" s="123"/>
       <c r="D22" s="123"/>
       <c r="E22" s="124"/>
-      <c r="F22" s="128">
+      <c r="F22" s="163">
         <v>45040</v>
       </c>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="125" t="s">
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="126"/>
-      <c r="S22" s="126"/>
-      <c r="T22" s="126"/>
-      <c r="U22" s="126"/>
-      <c r="V22" s="126"/>
-      <c r="W22" s="126"/>
-      <c r="X22" s="126"/>
-      <c r="Y22" s="126"/>
-      <c r="Z22" s="126"/>
-      <c r="AA22" s="127"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="161"/>
+      <c r="S22" s="161"/>
+      <c r="T22" s="161"/>
+      <c r="U22" s="161"/>
+      <c r="V22" s="161"/>
+      <c r="W22" s="161"/>
+      <c r="X22" s="161"/>
+      <c r="Y22" s="161"/>
+      <c r="Z22" s="161"/>
+      <c r="AA22" s="162"/>
       <c r="AB22" s="122" t="s">
         <v>74</v>
       </c>
@@ -12925,28 +12925,28 @@
       <c r="C23" s="123"/>
       <c r="D23" s="123"/>
       <c r="E23" s="124"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
-      <c r="T23" s="126"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="126"/>
-      <c r="X23" s="126"/>
-      <c r="Y23" s="126"/>
-      <c r="Z23" s="126"/>
-      <c r="AA23" s="127"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="161"/>
+      <c r="S23" s="161"/>
+      <c r="T23" s="161"/>
+      <c r="U23" s="161"/>
+      <c r="V23" s="161"/>
+      <c r="W23" s="161"/>
+      <c r="X23" s="161"/>
+      <c r="Y23" s="161"/>
+      <c r="Z23" s="161"/>
+      <c r="AA23" s="162"/>
       <c r="AB23" s="122"/>
       <c r="AC23" s="123"/>
       <c r="AD23" s="124"/>
@@ -12959,28 +12959,28 @@
       <c r="C24" s="123"/>
       <c r="D24" s="123"/>
       <c r="E24" s="124"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="126"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="126"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="126"/>
-      <c r="X24" s="126"/>
-      <c r="Y24" s="126"/>
-      <c r="Z24" s="126"/>
-      <c r="AA24" s="127"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="161"/>
+      <c r="S24" s="161"/>
+      <c r="T24" s="161"/>
+      <c r="U24" s="161"/>
+      <c r="V24" s="161"/>
+      <c r="W24" s="161"/>
+      <c r="X24" s="161"/>
+      <c r="Y24" s="161"/>
+      <c r="Z24" s="161"/>
+      <c r="AA24" s="162"/>
       <c r="AB24" s="122"/>
       <c r="AC24" s="123"/>
       <c r="AD24" s="124"/>
@@ -12993,28 +12993,28 @@
       <c r="C25" s="123"/>
       <c r="D25" s="123"/>
       <c r="E25" s="124"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="126"/>
-      <c r="S25" s="126"/>
-      <c r="T25" s="126"/>
-      <c r="U25" s="126"/>
-      <c r="V25" s="126"/>
-      <c r="W25" s="126"/>
-      <c r="X25" s="126"/>
-      <c r="Y25" s="126"/>
-      <c r="Z25" s="126"/>
-      <c r="AA25" s="127"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="161"/>
+      <c r="S25" s="161"/>
+      <c r="T25" s="161"/>
+      <c r="U25" s="161"/>
+      <c r="V25" s="161"/>
+      <c r="W25" s="161"/>
+      <c r="X25" s="161"/>
+      <c r="Y25" s="161"/>
+      <c r="Z25" s="161"/>
+      <c r="AA25" s="162"/>
       <c r="AB25" s="122"/>
       <c r="AC25" s="123"/>
       <c r="AD25" s="124"/>
@@ -13027,28 +13027,28 @@
       <c r="C26" s="123"/>
       <c r="D26" s="123"/>
       <c r="E26" s="124"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="126"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="126"/>
-      <c r="Z26" s="126"/>
-      <c r="AA26" s="127"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="161"/>
+      <c r="S26" s="161"/>
+      <c r="T26" s="161"/>
+      <c r="U26" s="161"/>
+      <c r="V26" s="161"/>
+      <c r="W26" s="161"/>
+      <c r="X26" s="161"/>
+      <c r="Y26" s="161"/>
+      <c r="Z26" s="161"/>
+      <c r="AA26" s="162"/>
       <c r="AB26" s="122"/>
       <c r="AC26" s="123"/>
       <c r="AD26" s="124"/>
@@ -13061,28 +13061,28 @@
       <c r="C27" s="123"/>
       <c r="D27" s="123"/>
       <c r="E27" s="124"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="126"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="126"/>
-      <c r="W27" s="126"/>
-      <c r="X27" s="126"/>
-      <c r="Y27" s="126"/>
-      <c r="Z27" s="126"/>
-      <c r="AA27" s="127"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="161"/>
+      <c r="S27" s="161"/>
+      <c r="T27" s="161"/>
+      <c r="U27" s="161"/>
+      <c r="V27" s="161"/>
+      <c r="W27" s="161"/>
+      <c r="X27" s="161"/>
+      <c r="Y27" s="161"/>
+      <c r="Z27" s="161"/>
+      <c r="AA27" s="162"/>
       <c r="AB27" s="122"/>
       <c r="AC27" s="123"/>
       <c r="AD27" s="124"/>
@@ -13193,23 +13193,15 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -13226,15 +13218,23 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -14670,7 +14670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E41CE9A-4231-4DAD-93D6-DF9FCE3D7F20}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="B8" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -15516,11 +15516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA0553-889F-49AD-9CF0-689AC0541F69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8297DA-8460-4E5C-88DD-B7997A246DE6}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -16227,11 +16227,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8297DA-8460-4E5C-88DD-B7997A246DE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA0553-889F-49AD-9CF0-689AC0541F69}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -16960,34 +16960,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="203"/>
-      <c r="T1" s="204"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="212"/>
+      <c r="T1" s="213"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="206"/>
+      <c r="B2" s="203"/>
       <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
@@ -17004,16 +17004,16 @@
       <c r="N2" s="87"/>
       <c r="O2" s="87"/>
       <c r="P2" s="87"/>
-      <c r="Q2" s="211" t="s">
+      <c r="Q2" s="208" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="212"/>
+      <c r="R2" s="209"/>
       <c r="S2" s="87"/>
       <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="207"/>
-      <c r="B3" s="208"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="205"/>
       <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
@@ -17030,16 +17030,16 @@
       <c r="N3" s="87"/>
       <c r="O3" s="87"/>
       <c r="P3" s="87"/>
-      <c r="Q3" s="211" t="s">
+      <c r="Q3" s="208" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="212"/>
+      <c r="R3" s="209"/>
       <c r="S3" s="87"/>
       <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="209"/>
-      <c r="B4" s="210"/>
+      <c r="A4" s="206"/>
+      <c r="B4" s="207"/>
       <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
@@ -17056,18 +17056,18 @@
       <c r="N4" s="87"/>
       <c r="O4" s="87"/>
       <c r="P4" s="87"/>
-      <c r="Q4" s="211" t="s">
+      <c r="Q4" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="212"/>
+      <c r="R4" s="209"/>
       <c r="S4" s="87"/>
       <c r="T4" s="88"/>
     </row>
     <row r="5" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="202" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="206"/>
+      <c r="B5" s="203"/>
       <c r="C5" s="22" t="s">
         <v>45</v>
       </c>
@@ -17084,25 +17084,25 @@
       <c r="N5" s="87"/>
       <c r="O5" s="87"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="211" t="s">
+      <c r="Q5" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="212"/>
+      <c r="R5" s="209"/>
       <c r="S5" s="87"/>
       <c r="T5" s="88"/>
     </row>
     <row r="6" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="207"/>
-      <c r="B6" s="208"/>
+      <c r="A6" s="204"/>
+      <c r="B6" s="205"/>
       <c r="C6" s="22" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="196"/>
       <c r="E6" s="198"/>
-      <c r="F6" s="213" t="s">
+      <c r="F6" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="213"/>
+      <c r="G6" s="210"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
@@ -17120,8 +17120,8 @@
       <c r="T6" s="88"/>
     </row>
     <row r="7" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="209"/>
-      <c r="B7" s="210"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="207"/>
       <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
@@ -17138,8 +17138,8 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="212"/>
+      <c r="Q7" s="208"/>
+      <c r="R7" s="209"/>
       <c r="S7" s="87"/>
       <c r="T7" s="88"/>
     </row>
@@ -17857,12 +17857,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -17871,6 +17865,12 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18645,209 +18645,209 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="183" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="166" t="s">
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="182" t="s">
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="182"/>
-      <c r="AC2" s="182"/>
-      <c r="AD2" s="166" t="s">
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="168"/>
+      <c r="AE2" s="183"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="184"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="176"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="183" t="s">
+      <c r="A3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="182" t="s">
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="182"/>
-      <c r="AD3" s="169">
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="185">
         <v>45043</v>
       </c>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="168"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="184"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="183" t="s">
+      <c r="A4" s="172"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="167"/>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="167"/>
-      <c r="S4" s="167"/>
-      <c r="T4" s="167"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="167"/>
-      <c r="W4" s="167"/>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="167"/>
-      <c r="Z4" s="168"/>
-      <c r="AA4" s="182" t="s">
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="183"/>
+      <c r="S4" s="183"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="183"/>
+      <c r="W4" s="183"/>
+      <c r="X4" s="183"/>
+      <c r="Y4" s="183"/>
+      <c r="Z4" s="184"/>
+      <c r="AA4" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="182"/>
-      <c r="AC4" s="182"/>
-      <c r="AD4" s="170"/>
-      <c r="AE4" s="171"/>
-      <c r="AF4" s="171"/>
-      <c r="AG4" s="172"/>
+      <c r="AB4" s="175"/>
+      <c r="AC4" s="175"/>
+      <c r="AD4" s="186"/>
+      <c r="AE4" s="187"/>
+      <c r="AF4" s="187"/>
+      <c r="AG4" s="188"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="186" t="s">
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="167"/>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="167"/>
-      <c r="V5" s="167"/>
-      <c r="W5" s="167"/>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="182" t="s">
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="183"/>
+      <c r="P5" s="183"/>
+      <c r="Q5" s="183"/>
+      <c r="R5" s="183"/>
+      <c r="S5" s="183"/>
+      <c r="T5" s="183"/>
+      <c r="U5" s="183"/>
+      <c r="V5" s="183"/>
+      <c r="W5" s="183"/>
+      <c r="X5" s="183"/>
+      <c r="Y5" s="183"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="182"/>
-      <c r="AC5" s="182"/>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="167"/>
-      <c r="AF5" s="167"/>
-      <c r="AG5" s="168"/>
+      <c r="AB5" s="175"/>
+      <c r="AC5" s="175"/>
+      <c r="AD5" s="182"/>
+      <c r="AE5" s="183"/>
+      <c r="AF5" s="183"/>
+      <c r="AG5" s="184"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="179"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="183" t="s">
+      <c r="A6" s="172"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="167"/>
-      <c r="Q6" s="167"/>
-      <c r="R6" s="167"/>
-      <c r="S6" s="167"/>
-      <c r="T6" s="167"/>
-      <c r="U6" s="167"/>
-      <c r="V6" s="167"/>
-      <c r="W6" s="167"/>
-      <c r="X6" s="167"/>
-      <c r="Y6" s="167"/>
-      <c r="Z6" s="168"/>
-      <c r="AA6" s="182" t="s">
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="183"/>
+      <c r="R6" s="183"/>
+      <c r="S6" s="183"/>
+      <c r="T6" s="183"/>
+      <c r="U6" s="183"/>
+      <c r="V6" s="183"/>
+      <c r="W6" s="183"/>
+      <c r="X6" s="183"/>
+      <c r="Y6" s="183"/>
+      <c r="Z6" s="184"/>
+      <c r="AA6" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="182"/>
-      <c r="AC6" s="182"/>
-      <c r="AD6" s="166"/>
-      <c r="AE6" s="167"/>
-      <c r="AF6" s="167"/>
-      <c r="AG6" s="168"/>
+      <c r="AB6" s="175"/>
+      <c r="AC6" s="175"/>
+      <c r="AD6" s="182"/>
+      <c r="AE6" s="183"/>
+      <c r="AF6" s="183"/>
+      <c r="AG6" s="184"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -20111,6 +20111,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H6:Z6"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
@@ -20127,12 +20133,6 @@
     <mergeCell ref="H3:Z3"/>
     <mergeCell ref="H4:Z4"/>
     <mergeCell ref="H5:Z5"/>
-    <mergeCell ref="H6:Z6"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -20185,13 +20185,13 @@
       <c r="B2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="185"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="118" t="s">
         <v>16</v>
       </c>
@@ -20202,11 +20202,11 @@
       <c r="B3" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="185"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="178"/>
       <c r="H3" s="118" t="s">
         <v>18</v>
       </c>
@@ -20217,11 +20217,11 @@
       <c r="B4" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="185"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="178"/>
       <c r="H4" s="118" t="s">
         <v>20</v>
       </c>
@@ -20234,11 +20234,11 @@
       <c r="B5" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="183"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="185"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="178"/>
       <c r="H5" s="118" t="s">
         <v>23</v>
       </c>
@@ -20249,11 +20249,11 @@
       <c r="B6" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="185"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="178"/>
       <c r="H6" s="118" t="s">
         <v>25</v>
       </c>
@@ -20653,8 +20653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -20704,11 +20704,11 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="175"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="168"/>
       <c r="D2" s="196" t="s">
         <v>15</v>
       </c>
@@ -20745,9 +20745,9 @@
       <c r="AG2" s="49"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="176"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
       <c r="D3" s="196" t="s">
         <v>17</v>
       </c>
@@ -20784,9 +20784,9 @@
       <c r="AG3" s="49"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="181"/>
+      <c r="A4" s="172"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
       <c r="D4" s="196" t="s">
         <v>19</v>
       </c>
@@ -20823,11 +20823,11 @@
       <c r="AG4" s="49"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="175"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
       <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
@@ -20864,9 +20864,9 @@
       <c r="AG5" s="49"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="179"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="174"/>
       <c r="D6" s="86" t="s">
         <v>24</v>
       </c>
@@ -22188,7 +22188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEED7F7-5DDA-4486-BDA5-38C64B4E6C21}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -23710,8 +23710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA13BBD-8037-4D6D-9096-2C2E2CA55F71}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="K10" activeCellId="1" sqref="G29 K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -25840,6 +25840,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -25983,22 +25998,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE99DE6A-D5AF-458E-878B-96B0555D5097}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26014,21 +26031,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_画面設計書.xlsx
+++ b/01_画面設計書.xlsx
@@ -8,43 +8,47 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web\git\2023Dev3Early\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF41397-F117-47A4-8C97-29EDA8A6CC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C6628E-45CD-4EF6-BE52-E4922FECDAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
     <sheet name="サイトマップ構造図" sheetId="75" r:id="rId2"/>
     <sheet name="画面一覧" sheetId="16" r:id="rId3"/>
     <sheet name="画面遷移図" sheetId="26" r:id="rId4"/>
-    <sheet name="(G1-1)ホーム画面" sheetId="83" r:id="rId5"/>
-    <sheet name="(G1-2-1)下書き画面" sheetId="76" r:id="rId6"/>
-    <sheet name="(G1-2-2)レシピ投稿画面" sheetId="77" r:id="rId7"/>
-    <sheet name="(G1-3-1)レシピ提案画面" sheetId="85" r:id="rId8"/>
-    <sheet name="(G1-4-1)検索結果画面" sheetId="84" r:id="rId9"/>
-    <sheet name="(G1-4-2)料理詳細画面" sheetId="82" r:id="rId10"/>
-    <sheet name="(G1-4-3)プロフィール画面(他人)" sheetId="81" r:id="rId11"/>
-    <sheet name="(G1-5-1)ランキング画面" sheetId="73" r:id="rId12"/>
-    <sheet name="(G1-6-1)ユーザページ" sheetId="78" r:id="rId13"/>
-    <sheet name="(G1-6-2)フォロー一覧画面" sheetId="88" r:id="rId14"/>
-    <sheet name="(G1-6-3)設定画面" sheetId="86" r:id="rId15"/>
-    <sheet name="(Gxx)PC画面フォーム" sheetId="72" r:id="rId16"/>
-    <sheet name="(Gxx)モバイル画面フォーム (5)" sheetId="79" r:id="rId17"/>
+    <sheet name="(G1-1-0)新規登録画面" sheetId="91" r:id="rId5"/>
+    <sheet name="(G1-1-1)ログイン画面" sheetId="90" r:id="rId6"/>
+    <sheet name="(G1-2)ホーム画面" sheetId="83" r:id="rId7"/>
+    <sheet name="(G1-3-1)下書き画面" sheetId="76" r:id="rId8"/>
+    <sheet name="(G1-3-2)レシピ投稿画面" sheetId="77" r:id="rId9"/>
+    <sheet name="(G1-4-1)レシピ提案画面" sheetId="85" r:id="rId10"/>
+    <sheet name="(G1-5-1)検索結果画面" sheetId="84" r:id="rId11"/>
+    <sheet name="(G1-5-2)料理詳細画面" sheetId="82" r:id="rId12"/>
+    <sheet name="(G1-5-3)プロフィール画面(他人)" sheetId="81" r:id="rId13"/>
+    <sheet name="(G1-6-1)ランキング画面" sheetId="73" r:id="rId14"/>
+    <sheet name="(G1-7-1)ユーザページ" sheetId="78" r:id="rId15"/>
+    <sheet name="(G1-7-2)フォロー一覧画面" sheetId="88" r:id="rId16"/>
+    <sheet name="(G1-7-3)設定画面" sheetId="86" r:id="rId17"/>
+    <sheet name="(Gxx)PC画面フォーム" sheetId="72" r:id="rId18"/>
+    <sheet name="(Gxx)モバイル画面フォーム (5)" sheetId="79" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'(G1-1)ホーム画面'!$A$1:$K$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'(G1-2-1)下書き画面'!$A$1:$K$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'(G1-2-2)レシピ投稿画面'!$A$1:$K$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'(G1-3-1)レシピ提案画面'!$A$1:$K$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'(G1-4-1)検索結果画面'!$A$1:$K$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'(G1-4-2)料理詳細画面'!$A$1:$K$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'(G1-4-3)プロフィール画面(他人)'!$A$1:$K$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'(G1-5-1)ランキング画面'!$A$1:$K$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'(G1-6-1)ユーザページ'!$A$1:$K$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">'(G1-6-2)フォロー一覧画面'!$A$1:$K$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">'(G1-6-3)設定画面'!$A$1:$K$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">'(Gxx)PC画面フォーム'!$A$1:$T$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">'(Gxx)モバイル画面フォーム (5)'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'(G1-1-0)新規登録画面'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'(G1-1-1)ログイン画面'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'(G1-2)ホーム画面'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'(G1-3-1)下書き画面'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'(G1-3-2)レシピ投稿画面'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'(G1-4-1)レシピ提案画面'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'(G1-5-1)検索結果画面'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'(G1-5-2)料理詳細画面'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'(G1-5-3)プロフィール画面(他人)'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'(G1-6-1)ランキング画面'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'(G1-7-1)ユーザページ'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'(G1-7-2)フォロー一覧画面'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'(G1-7-3)設定画面'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'(Gxx)PC画面フォーム'!$A$1:$T$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'(Gxx)モバイル画面フォーム (5)'!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">サイトマップ構造図!$A$1:$AG$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図!$A$1:$AG$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AE$28</definedName>
@@ -112,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="153">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -2014,90 +2018,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2137,26 +2057,89 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2206,6 +2189,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2245,15 +2249,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2280,6 +2275,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4098,6 +4102,400 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCBC47F-15BB-474F-85EA-78FD28C045EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13822680" y="1474410"/>
+          <a:ext cx="1620762" cy="525753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418495</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>509454</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143378</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2673A5B0-E253-4331-847C-497CA9DA46EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15460375" y="974271"/>
+          <a:ext cx="700559" cy="502607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>348367</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD872B3-47D7-467F-97F4-F84CC4691131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16114123" y="571500"/>
+          <a:ext cx="495324" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>401562</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE283BC-5544-45AC-AC66-F8FCC24904C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13822680" y="1474410"/>
+          <a:ext cx="1620762" cy="525753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418495</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>509454</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143378</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BAFC4BE-0C14-4D46-B854-D8F142437453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15460375" y="974271"/>
+          <a:ext cx="700559" cy="502607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>348367</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2687F35E-0C52-45EB-BF34-2D90C5A1B2AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16114123" y="571500"/>
+          <a:ext cx="495324" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>401562</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3937D558-9D24-4C45-880E-65015C6FACE5}"/>
             </a:ext>
           </a:extLst>
@@ -4275,7 +4673,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4472,7 +4870,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4669,7 +5067,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4866,7 +5264,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5063,7 +5461,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5264,16 +5662,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5288,7 +5686,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3562350" y="1390651"/>
+          <a:off x="4200525" y="2162176"/>
           <a:ext cx="1295400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5316,7 +5714,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>G1-1</a:t>
+            <a:t>G1-2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5332,16 +5730,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5356,7 +5754,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="3467101"/>
+          <a:off x="962025" y="4238626"/>
           <a:ext cx="1295400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5384,7 +5782,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>G1-2-2</a:t>
+            <a:t>G1-3-2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5400,16 +5798,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5424,7 +5822,75 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="2486026"/>
+          <a:off x="2581275" y="3257551"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>G1-4-1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レシピ提案画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6DDF94-2D79-4748-A275-CDF5BAA43A4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="3267076"/>
           <a:ext cx="1295400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5459,7 +5925,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>レシピ提案画面</a:t>
+            <a:t>下書き画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5468,23 +5934,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6DDF94-2D79-4748-A275-CDF5BAA43A4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9798672B-9026-4363-BEB1-4BCDA8CE2F45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5492,7 +5958,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="2495551"/>
+          <a:off x="8096250" y="2762251"/>
           <a:ext cx="1295400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5520,14 +5986,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>G1-2-1</a:t>
+            <a:t>G1-7-1</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>下書き画面</a:t>
+            <a:t>ユーザページ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5536,23 +6002,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9798672B-9026-4363-BEB1-4BCDA8CE2F45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA04ED1-D429-44BF-9733-E5803534FA78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5560,7 +6026,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7458075" y="1990726"/>
+          <a:off x="5810250" y="3248025"/>
           <a:ext cx="1295400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5595,7 +6061,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザページ</a:t>
+            <a:t>ランキング画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5604,23 +6070,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1951</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1951</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA04ED1-D429-44BF-9733-E5803534FA78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1793B2-0786-4F05-AAB7-ED5DC0BBF41A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5628,7 +6094,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5172075" y="2476500"/>
+          <a:off x="4212001" y="3257550"/>
           <a:ext cx="1295400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5663,7 +6129,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ランキング画面</a:t>
+            <a:t>検索結果画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5672,23 +6138,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11476</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>11476</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1793B2-0786-4F05-AAB7-ED5DC0BBF41A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BBD721-A3CD-415F-82D8-8BF8D3A31945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5696,7 +6162,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3573826" y="2486025"/>
+          <a:off x="9067800" y="4229100"/>
           <a:ext cx="1295400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5724,14 +6190,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>G1-4-1</a:t>
+            <a:t>G1-7-2</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>検索結果画面</a:t>
+            <a:t>フォロー一覧画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5740,23 +6206,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BBD721-A3CD-415F-82D8-8BF8D3A31945}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA69817D-B697-42CB-8290-C0582DB15FD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5764,7 +6230,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8429625" y="3457575"/>
+          <a:off x="9077325" y="5200650"/>
           <a:ext cx="1295400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5792,75 +6258,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>G1-6-2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>フォロー一覧画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA69817D-B697-42CB-8290-C0582DB15FD7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8439150" y="4429125"/>
-          <a:ext cx="1295400" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>G1-6-3</a:t>
+            <a:t>G1-7-3</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5876,16 +6274,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5903,7 +6301,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="971550" y="1685925"/>
+          <a:off x="1609725" y="2457450"/>
           <a:ext cx="2590800" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -5932,16 +6330,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5959,7 +6357,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2590800" y="1685926"/>
+          <a:off x="3228975" y="2457451"/>
           <a:ext cx="971550" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -5988,16 +6386,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6015,7 +6413,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7200900" y="3486150"/>
+          <a:off x="7839075" y="4257675"/>
           <a:ext cx="2143124" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -6044,16 +6442,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6071,7 +6469,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4857750" y="1685926"/>
+          <a:off x="5495925" y="2457451"/>
           <a:ext cx="962025" cy="790574"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -6100,16 +6498,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6127,7 +6525,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4857750" y="1685926"/>
+          <a:off x="5495925" y="2457451"/>
           <a:ext cx="3248025" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -6156,16 +6554,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6184,7 +6582,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7681913" y="3005138"/>
+          <a:off x="8320088" y="3776663"/>
           <a:ext cx="1171574" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -6213,16 +6611,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11476</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1951</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6240,7 +6638,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4210050" y="1981201"/>
+          <a:off x="4848225" y="2752726"/>
           <a:ext cx="11476" cy="504824"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6269,16 +6667,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6296,7 +6694,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="3086101"/>
+          <a:off x="1609725" y="3857626"/>
           <a:ext cx="0" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6325,16 +6723,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11476</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>11476</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1951</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>135301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>11475</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>116251</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>78151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6349,7 +6747,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3573826" y="3459526"/>
+          <a:off x="4212001" y="4231051"/>
           <a:ext cx="1295399" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6377,7 +6775,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>G1-4-2</a:t>
+            <a:t>G1-5-2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6393,16 +6791,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11476</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1951</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11476</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>11476</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1951</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>135301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6420,7 +6818,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4221526" y="3076575"/>
+          <a:off x="4859701" y="3848100"/>
           <a:ext cx="0" cy="382951"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6449,16 +6847,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11477</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>149185</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1952</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>11476</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>93298</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1951</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>55198</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6473,7 +6871,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3573827" y="4406860"/>
+          <a:off x="4212002" y="5178385"/>
           <a:ext cx="1295399" cy="591813"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6501,7 +6899,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>G1-4-3</a:t>
+            <a:t>G1-5-3</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6525,16 +6923,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11476</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>116251</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1951</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>78151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11477</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>149185</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1952</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111085</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6552,7 +6950,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4221526" y="4050076"/>
+          <a:off x="4859701" y="4821601"/>
           <a:ext cx="1" cy="356784"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6581,16 +6979,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11476</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>144194</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1951</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106094</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6608,7 +7006,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2743517" y="2923859"/>
+          <a:off x="3381692" y="3695384"/>
           <a:ext cx="677594" cy="983025"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -6637,16 +7035,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>11476</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1951</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314327</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>144195</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304802</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106095</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6664,7 +7062,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5000942" y="2935334"/>
+          <a:off x="5639117" y="3706859"/>
           <a:ext cx="687120" cy="950551"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -6693,16 +7091,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6721,7 +7119,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3800476" y="-247649"/>
+          <a:off x="4438651" y="523876"/>
           <a:ext cx="1476375" cy="7134225"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -6750,10 +7148,652 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C34A1F9-56A8-4F79-A30B-000E367DFE76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="1123950"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>G1-1-1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ホーム画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DD83DE-8BF1-4372-A652-7364A5FF8601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="1123950"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>G1-1-0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ホーム画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DCB44CC-72F1-4392-B4EA-186034DDFEAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="1714500"/>
+          <a:ext cx="0" cy="447676"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE3CA4A-F369-4DDA-812D-0C4EED1BB9D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="1419225"/>
+          <a:ext cx="962025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>401562</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2603DA-3DA2-412C-8744-4F5AAA13CE2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15363825" y="1474410"/>
+          <a:ext cx="1754112" cy="525753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418495</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>509454</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143378</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2AC064-36AC-4F3A-9013-ED210171746E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17134870" y="974271"/>
+          <a:ext cx="767234" cy="502607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>348367</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F82F1E-89DA-40D3-A056-1D6E06A72D8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17855293" y="571500"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>401562</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39CFE28E-887E-4995-A84A-E8D0160E3705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15363825" y="1474410"/>
+          <a:ext cx="1754112" cy="525753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418495</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>509454</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143378</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0AF83B6-E1A8-4565-910F-CF3DD7203421}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17134870" y="974271"/>
+          <a:ext cx="767234" cy="502607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>348367</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B107CCD-D0A2-4AE6-9F2E-D499010C7D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17855293" y="571500"/>
+          <a:ext cx="561999" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8368,7 +9408,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10574,7 +11614,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10771,7 +11811,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10968,7 +12008,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11110,400 +12150,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7604CB05-32DF-4EDE-9D91-0A408EDD783D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16114123" y="571500"/>
-          <a:ext cx="495324" cy="509006"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>140910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>401562</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95163</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCBC47F-15BB-474F-85EA-78FD28C045EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13822680" y="1474410"/>
-          <a:ext cx="1620762" cy="525753"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>418495</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>509454</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>143378</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2673A5B0-E253-4331-847C-497CA9DA46EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="15460375" y="974271"/>
-          <a:ext cx="700559" cy="502607"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>348367</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>128006</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD872B3-47D7-467F-97F4-F84CC4691131}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16114123" y="571500"/>
-          <a:ext cx="495324" cy="509006"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>140910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>401562</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95163</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE283BC-5544-45AC-AC66-F8FCC24904C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13822680" y="1474410"/>
-          <a:ext cx="1620762" cy="525753"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>418495</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>509454</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>143378</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BAFC4BE-0C14-4D46-B854-D8F142437453}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="15460375" y="974271"/>
-          <a:ext cx="700559" cy="502607"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>348367</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>128006</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2687F35E-0C52-45EB-BF34-2D90C5A1B2AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12102,16 +12748,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="131" t="s">
+      <c r="Y2" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="149">
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="156">
         <v>45040</v>
       </c>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="151"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="158"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -12176,14 +12822,14 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="152" t="s">
+      <c r="Y4" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="152"/>
-      <c r="AA4" s="152"/>
-      <c r="AB4" s="152"/>
-      <c r="AC4" s="152"/>
-      <c r="AD4" s="152"/>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
+      <c r="AB4" s="159"/>
+      <c r="AC4" s="159"/>
+      <c r="AD4" s="159"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="13"/>
@@ -12213,14 +12859,14 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="152" t="s">
+      <c r="Y5" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="152"/>
-      <c r="AA5" s="152"/>
-      <c r="AB5" s="152"/>
-      <c r="AC5" s="152"/>
-      <c r="AD5" s="152"/>
+      <c r="Z5" s="159"/>
+      <c r="AA5" s="159"/>
+      <c r="AB5" s="159"/>
+      <c r="AC5" s="159"/>
+      <c r="AD5" s="159"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -12233,16 +12879,16 @@
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="146" t="s">
+      <c r="F6" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
@@ -12265,26 +12911,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="133" t="s">
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="135"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="148"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -12292,40 +12938,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="131" t="s">
+      <c r="Y7" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="132"/>
-      <c r="AA7" s="131" t="s">
+      <c r="Z7" s="139"/>
+      <c r="AA7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="132"/>
-      <c r="AC7" s="131" t="s">
+      <c r="AB7" s="139"/>
+      <c r="AC7" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="132"/>
+      <c r="AD7" s="139"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="66"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="138"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="151"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -12333,16 +12979,16 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="139" t="s">
+      <c r="Y8" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="Z8" s="140"/>
-      <c r="AA8" s="139" t="s">
+      <c r="Z8" s="141"/>
+      <c r="AA8" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" s="140"/>
-      <c r="AC8" s="153"/>
-      <c r="AD8" s="154"/>
+      <c r="AB8" s="141"/>
+      <c r="AC8" s="125"/>
+      <c r="AD8" s="126"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="66"/>
       <c r="AG8" s="2"/>
@@ -12372,12 +13018,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="142"/>
-      <c r="AA9" s="141"/>
-      <c r="AB9" s="142"/>
-      <c r="AC9" s="155"/>
-      <c r="AD9" s="156"/>
+      <c r="Y9" s="142"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="128"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="66"/>
       <c r="AG9" s="2"/>
@@ -12407,12 +13053,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="143"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="157"/>
-      <c r="AD10" s="158"/>
+      <c r="Y10" s="144"/>
+      <c r="Z10" s="145"/>
+      <c r="AA10" s="144"/>
+      <c r="AB10" s="145"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="130"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="66"/>
       <c r="AG10" s="12"/>
@@ -12453,105 +13099,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="145" t="s">
+      <c r="B12" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="145"/>
-      <c r="R12" s="145"/>
-      <c r="S12" s="145"/>
-      <c r="T12" s="145"/>
-      <c r="U12" s="145"/>
-      <c r="V12" s="145"/>
-      <c r="W12" s="145"/>
-      <c r="X12" s="145"/>
-      <c r="Y12" s="145"/>
-      <c r="Z12" s="145"/>
-      <c r="AA12" s="145"/>
-      <c r="AB12" s="145"/>
-      <c r="AC12" s="145"/>
-      <c r="AD12" s="145"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="152"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="152"/>
+      <c r="AA12" s="152"/>
+      <c r="AB12" s="152"/>
+      <c r="AC12" s="152"/>
+      <c r="AD12" s="152"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="145"/>
-      <c r="R13" s="145"/>
-      <c r="S13" s="145"/>
-      <c r="T13" s="145"/>
-      <c r="U13" s="145"/>
-      <c r="V13" s="145"/>
-      <c r="W13" s="145"/>
-      <c r="X13" s="145"/>
-      <c r="Y13" s="145"/>
-      <c r="Z13" s="145"/>
-      <c r="AA13" s="145"/>
-      <c r="AB13" s="145"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="145"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
+      <c r="R13" s="152"/>
+      <c r="S13" s="152"/>
+      <c r="T13" s="152"/>
+      <c r="U13" s="152"/>
+      <c r="V13" s="152"/>
+      <c r="W13" s="152"/>
+      <c r="X13" s="152"/>
+      <c r="Y13" s="152"/>
+      <c r="Z13" s="152"/>
+      <c r="AA13" s="152"/>
+      <c r="AB13" s="152"/>
+      <c r="AC13" s="152"/>
+      <c r="AD13" s="152"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="145"/>
-      <c r="Q14" s="145"/>
-      <c r="R14" s="145"/>
-      <c r="S14" s="145"/>
-      <c r="T14" s="145"/>
-      <c r="U14" s="145"/>
-      <c r="V14" s="145"/>
-      <c r="W14" s="145"/>
-      <c r="X14" s="145"/>
-      <c r="Y14" s="145"/>
-      <c r="Z14" s="145"/>
-      <c r="AA14" s="145"/>
-      <c r="AB14" s="145"/>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="145"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+      <c r="U14" s="152"/>
+      <c r="V14" s="152"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="152"/>
+      <c r="AC14" s="152"/>
+      <c r="AD14" s="152"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
@@ -12811,32 +13457,32 @@
       <c r="C22" s="123"/>
       <c r="D22" s="123"/>
       <c r="E22" s="124"/>
-      <c r="F22" s="128">
+      <c r="F22" s="163">
         <v>45040</v>
       </c>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="125" t="s">
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="126"/>
-      <c r="S22" s="126"/>
-      <c r="T22" s="126"/>
-      <c r="U22" s="126"/>
-      <c r="V22" s="126"/>
-      <c r="W22" s="126"/>
-      <c r="X22" s="126"/>
-      <c r="Y22" s="126"/>
-      <c r="Z22" s="126"/>
-      <c r="AA22" s="127"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="161"/>
+      <c r="S22" s="161"/>
+      <c r="T22" s="161"/>
+      <c r="U22" s="161"/>
+      <c r="V22" s="161"/>
+      <c r="W22" s="161"/>
+      <c r="X22" s="161"/>
+      <c r="Y22" s="161"/>
+      <c r="Z22" s="161"/>
+      <c r="AA22" s="162"/>
       <c r="AB22" s="122" t="s">
         <v>74</v>
       </c>
@@ -12851,28 +13497,28 @@
       <c r="C23" s="123"/>
       <c r="D23" s="123"/>
       <c r="E23" s="124"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
-      <c r="T23" s="126"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="126"/>
-      <c r="X23" s="126"/>
-      <c r="Y23" s="126"/>
-      <c r="Z23" s="126"/>
-      <c r="AA23" s="127"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="161"/>
+      <c r="S23" s="161"/>
+      <c r="T23" s="161"/>
+      <c r="U23" s="161"/>
+      <c r="V23" s="161"/>
+      <c r="W23" s="161"/>
+      <c r="X23" s="161"/>
+      <c r="Y23" s="161"/>
+      <c r="Z23" s="161"/>
+      <c r="AA23" s="162"/>
       <c r="AB23" s="122"/>
       <c r="AC23" s="123"/>
       <c r="AD23" s="124"/>
@@ -12885,28 +13531,28 @@
       <c r="C24" s="123"/>
       <c r="D24" s="123"/>
       <c r="E24" s="124"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="126"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="126"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="126"/>
-      <c r="X24" s="126"/>
-      <c r="Y24" s="126"/>
-      <c r="Z24" s="126"/>
-      <c r="AA24" s="127"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="161"/>
+      <c r="S24" s="161"/>
+      <c r="T24" s="161"/>
+      <c r="U24" s="161"/>
+      <c r="V24" s="161"/>
+      <c r="W24" s="161"/>
+      <c r="X24" s="161"/>
+      <c r="Y24" s="161"/>
+      <c r="Z24" s="161"/>
+      <c r="AA24" s="162"/>
       <c r="AB24" s="122"/>
       <c r="AC24" s="123"/>
       <c r="AD24" s="124"/>
@@ -12919,28 +13565,28 @@
       <c r="C25" s="123"/>
       <c r="D25" s="123"/>
       <c r="E25" s="124"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="126"/>
-      <c r="S25" s="126"/>
-      <c r="T25" s="126"/>
-      <c r="U25" s="126"/>
-      <c r="V25" s="126"/>
-      <c r="W25" s="126"/>
-      <c r="X25" s="126"/>
-      <c r="Y25" s="126"/>
-      <c r="Z25" s="126"/>
-      <c r="AA25" s="127"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="161"/>
+      <c r="S25" s="161"/>
+      <c r="T25" s="161"/>
+      <c r="U25" s="161"/>
+      <c r="V25" s="161"/>
+      <c r="W25" s="161"/>
+      <c r="X25" s="161"/>
+      <c r="Y25" s="161"/>
+      <c r="Z25" s="161"/>
+      <c r="AA25" s="162"/>
       <c r="AB25" s="122"/>
       <c r="AC25" s="123"/>
       <c r="AD25" s="124"/>
@@ -12953,28 +13599,28 @@
       <c r="C26" s="123"/>
       <c r="D26" s="123"/>
       <c r="E26" s="124"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="126"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="126"/>
-      <c r="Z26" s="126"/>
-      <c r="AA26" s="127"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="161"/>
+      <c r="S26" s="161"/>
+      <c r="T26" s="161"/>
+      <c r="U26" s="161"/>
+      <c r="V26" s="161"/>
+      <c r="W26" s="161"/>
+      <c r="X26" s="161"/>
+      <c r="Y26" s="161"/>
+      <c r="Z26" s="161"/>
+      <c r="AA26" s="162"/>
       <c r="AB26" s="122"/>
       <c r="AC26" s="123"/>
       <c r="AD26" s="124"/>
@@ -12987,28 +13633,28 @@
       <c r="C27" s="123"/>
       <c r="D27" s="123"/>
       <c r="E27" s="124"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="126"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="126"/>
-      <c r="W27" s="126"/>
-      <c r="X27" s="126"/>
-      <c r="Y27" s="126"/>
-      <c r="Z27" s="126"/>
-      <c r="AA27" s="127"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="161"/>
+      <c r="S27" s="161"/>
+      <c r="T27" s="161"/>
+      <c r="U27" s="161"/>
+      <c r="V27" s="161"/>
+      <c r="W27" s="161"/>
+      <c r="X27" s="161"/>
+      <c r="Y27" s="161"/>
+      <c r="Z27" s="161"/>
+      <c r="AA27" s="162"/>
       <c r="AB27" s="122"/>
       <c r="AC27" s="123"/>
       <c r="AD27" s="124"/>
@@ -13119,23 +13765,15 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -13152,15 +13790,23 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -13171,6 +13817,1428 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C66D08B-5C53-496D-A532-8D281063E3B0}">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="76"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="77"/>
+      <c r="B3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="78"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="77"/>
+      <c r="B4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="199"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="80"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="81"/>
+      <c r="B6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="199"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="80"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="82"/>
+      <c r="B7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="80"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="92"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="92"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="92"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="92"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="92"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="92"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="92"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="92"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="92"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="92"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="A20" s="92"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="92"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
+      <c r="A23" s="92"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1">
+      <c r="A24" s="92"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="92"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="92"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="92"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="A29" s="92"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1">
+      <c r="A30" s="92"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="116"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
+      <c r="A31" s="92"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="109"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
+      <c r="A32" s="92"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="109"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1">
+      <c r="A33" s="92"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="109"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1">
+      <c r="A34" s="92"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="109"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1">
+      <c r="A35" s="92"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="109"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1">
+      <c r="A36" s="92"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="109"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1">
+      <c r="A37" s="92"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="109"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1">
+      <c r="A38" s="92"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="109"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1">
+      <c r="A39" s="92"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="109"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1">
+      <c r="A40" s="92"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="109"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1">
+      <c r="A41" s="92"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="109"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1">
+      <c r="A42" s="92"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="109"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1">
+      <c r="A43" s="92"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="109"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1">
+      <c r="A44" s="92"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="109"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1">
+      <c r="A45" s="92"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="109"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1">
+      <c r="A46" s="92"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="109"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1">
+      <c r="A47" s="92"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="109"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1">
+      <c r="A48" s="92"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="109"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1">
+      <c r="A49" s="98"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="111"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA13BBD-8037-4D6D-9096-2C2E2CA55F71}">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="K10" activeCellId="1" sqref="G29 K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="76"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="77"/>
+      <c r="B3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="78"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="77"/>
+      <c r="B4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="199"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="80"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="81"/>
+      <c r="B6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="199"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="80"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="82"/>
+      <c r="B7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="80"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="92"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="92"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="92"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="92"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="92"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="92"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="92"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="92"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="92"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="92"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="A20" s="92"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="92"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
+      <c r="A23" s="92"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1">
+      <c r="A24" s="92"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="92"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="92"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="92"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="A29" s="92"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1">
+      <c r="A30" s="92"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="116"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
+      <c r="A31" s="92"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="109"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
+      <c r="A32" s="92"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="109"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1">
+      <c r="A33" s="92"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="109"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1">
+      <c r="A34" s="92"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="109"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1">
+      <c r="A35" s="92"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="109"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1">
+      <c r="A36" s="92"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="109"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1">
+      <c r="A37" s="92"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="109"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1">
+      <c r="A38" s="92"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="109"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1">
+      <c r="A39" s="92"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="109"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1">
+      <c r="A40" s="92"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="109"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1">
+      <c r="A41" s="92"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="109"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1">
+      <c r="A42" s="92"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="109"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1">
+      <c r="A43" s="92"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="109"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1">
+      <c r="A44" s="92"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="109"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1">
+      <c r="A45" s="92"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="109"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1">
+      <c r="A46" s="92"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="109"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1">
+      <c r="A47" s="92"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="109"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1">
+      <c r="A48" s="92"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="109"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1">
+      <c r="A49" s="98"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="111"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07B6D26-5B75-430F-A06E-EBB4452A9AF4}">
   <dimension ref="A1:K49"/>
   <sheetViews>
@@ -13881,7 +15949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FB018E-943A-4468-A679-0F3BEA43E79E}">
   <dimension ref="A1:K49"/>
   <sheetViews>
@@ -14592,12 +16660,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -15303,7 +17371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA0553-889F-49AD-9CF0-689AC0541F69}">
   <dimension ref="A1:K49"/>
   <sheetViews>
@@ -16014,7 +18082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2815D1F-114C-45D5-A5F1-C1F26135BE9B}">
   <dimension ref="A1:K49"/>
   <sheetViews>
@@ -16725,12 +18793,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE470BC-4CE6-4942-AF94-FE46FCDBEF28}">
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -17436,7 +19504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -17459,34 +19527,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="203"/>
-      <c r="T1" s="204"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="212"/>
+      <c r="T1" s="213"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="206"/>
+      <c r="B2" s="203"/>
       <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
@@ -17503,16 +19571,16 @@
       <c r="N2" s="87"/>
       <c r="O2" s="87"/>
       <c r="P2" s="87"/>
-      <c r="Q2" s="211" t="s">
+      <c r="Q2" s="208" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="212"/>
+      <c r="R2" s="209"/>
       <c r="S2" s="87"/>
       <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="207"/>
-      <c r="B3" s="208"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="205"/>
       <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
@@ -17529,16 +19597,16 @@
       <c r="N3" s="87"/>
       <c r="O3" s="87"/>
       <c r="P3" s="87"/>
-      <c r="Q3" s="211" t="s">
+      <c r="Q3" s="208" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="212"/>
+      <c r="R3" s="209"/>
       <c r="S3" s="87"/>
       <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="209"/>
-      <c r="B4" s="210"/>
+      <c r="A4" s="206"/>
+      <c r="B4" s="207"/>
       <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
@@ -17555,18 +19623,18 @@
       <c r="N4" s="87"/>
       <c r="O4" s="87"/>
       <c r="P4" s="87"/>
-      <c r="Q4" s="211" t="s">
+      <c r="Q4" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="212"/>
+      <c r="R4" s="209"/>
       <c r="S4" s="87"/>
       <c r="T4" s="88"/>
     </row>
     <row r="5" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="202" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="206"/>
+      <c r="B5" s="203"/>
       <c r="C5" s="22" t="s">
         <v>45</v>
       </c>
@@ -17583,25 +19651,25 @@
       <c r="N5" s="87"/>
       <c r="O5" s="87"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="211" t="s">
+      <c r="Q5" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="212"/>
+      <c r="R5" s="209"/>
       <c r="S5" s="87"/>
       <c r="T5" s="88"/>
     </row>
     <row r="6" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="207"/>
-      <c r="B6" s="208"/>
+      <c r="A6" s="204"/>
+      <c r="B6" s="205"/>
       <c r="C6" s="22" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="196"/>
       <c r="E6" s="198"/>
-      <c r="F6" s="213" t="s">
+      <c r="F6" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="213"/>
+      <c r="G6" s="210"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
@@ -17619,8 +19687,8 @@
       <c r="T6" s="88"/>
     </row>
     <row r="7" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="209"/>
-      <c r="B7" s="210"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="207"/>
       <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
@@ -17637,8 +19705,8 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="212"/>
+      <c r="Q7" s="208"/>
+      <c r="R7" s="209"/>
       <c r="S7" s="87"/>
       <c r="T7" s="88"/>
     </row>
@@ -18356,12 +20424,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -18370,6 +20432,12 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18378,7 +20446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E0FBB7-0859-4251-98E5-B4A97E35F833}">
   <dimension ref="A1:K49"/>
   <sheetViews>
@@ -19144,209 +21212,209 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="183" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="166" t="s">
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="182" t="s">
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="182"/>
-      <c r="AC2" s="182"/>
-      <c r="AD2" s="166" t="s">
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="168"/>
+      <c r="AE2" s="183"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="184"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="176"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="183" t="s">
+      <c r="A3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="182" t="s">
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="182"/>
-      <c r="AD3" s="169">
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="185">
         <v>45043</v>
       </c>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="168"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="184"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="183" t="s">
+      <c r="A4" s="172"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="167"/>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="167"/>
-      <c r="S4" s="167"/>
-      <c r="T4" s="167"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="167"/>
-      <c r="W4" s="167"/>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="167"/>
-      <c r="Z4" s="168"/>
-      <c r="AA4" s="182" t="s">
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="183"/>
+      <c r="S4" s="183"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="183"/>
+      <c r="W4" s="183"/>
+      <c r="X4" s="183"/>
+      <c r="Y4" s="183"/>
+      <c r="Z4" s="184"/>
+      <c r="AA4" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="182"/>
-      <c r="AC4" s="182"/>
-      <c r="AD4" s="170"/>
-      <c r="AE4" s="171"/>
-      <c r="AF4" s="171"/>
-      <c r="AG4" s="172"/>
+      <c r="AB4" s="175"/>
+      <c r="AC4" s="175"/>
+      <c r="AD4" s="186"/>
+      <c r="AE4" s="187"/>
+      <c r="AF4" s="187"/>
+      <c r="AG4" s="188"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="186" t="s">
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="167"/>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="167"/>
-      <c r="V5" s="167"/>
-      <c r="W5" s="167"/>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="182" t="s">
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="183"/>
+      <c r="P5" s="183"/>
+      <c r="Q5" s="183"/>
+      <c r="R5" s="183"/>
+      <c r="S5" s="183"/>
+      <c r="T5" s="183"/>
+      <c r="U5" s="183"/>
+      <c r="V5" s="183"/>
+      <c r="W5" s="183"/>
+      <c r="X5" s="183"/>
+      <c r="Y5" s="183"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="182"/>
-      <c r="AC5" s="182"/>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="167"/>
-      <c r="AF5" s="167"/>
-      <c r="AG5" s="168"/>
+      <c r="AB5" s="175"/>
+      <c r="AC5" s="175"/>
+      <c r="AD5" s="182"/>
+      <c r="AE5" s="183"/>
+      <c r="AF5" s="183"/>
+      <c r="AG5" s="184"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="179"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="183" t="s">
+      <c r="A6" s="172"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="167"/>
-      <c r="Q6" s="167"/>
-      <c r="R6" s="167"/>
-      <c r="S6" s="167"/>
-      <c r="T6" s="167"/>
-      <c r="U6" s="167"/>
-      <c r="V6" s="167"/>
-      <c r="W6" s="167"/>
-      <c r="X6" s="167"/>
-      <c r="Y6" s="167"/>
-      <c r="Z6" s="168"/>
-      <c r="AA6" s="182" t="s">
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="183"/>
+      <c r="R6" s="183"/>
+      <c r="S6" s="183"/>
+      <c r="T6" s="183"/>
+      <c r="U6" s="183"/>
+      <c r="V6" s="183"/>
+      <c r="W6" s="183"/>
+      <c r="X6" s="183"/>
+      <c r="Y6" s="183"/>
+      <c r="Z6" s="184"/>
+      <c r="AA6" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="182"/>
-      <c r="AC6" s="182"/>
-      <c r="AD6" s="166"/>
-      <c r="AE6" s="167"/>
-      <c r="AF6" s="167"/>
-      <c r="AG6" s="168"/>
+      <c r="AB6" s="175"/>
+      <c r="AC6" s="175"/>
+      <c r="AD6" s="182"/>
+      <c r="AE6" s="183"/>
+      <c r="AF6" s="183"/>
+      <c r="AG6" s="184"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -20610,6 +22678,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H6:Z6"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
@@ -20626,12 +22700,6 @@
     <mergeCell ref="H3:Z3"/>
     <mergeCell ref="H4:Z4"/>
     <mergeCell ref="H5:Z5"/>
-    <mergeCell ref="H6:Z6"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -20684,13 +22752,13 @@
       <c r="B2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="185"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="118" t="s">
         <v>16</v>
       </c>
@@ -20701,11 +22769,11 @@
       <c r="B3" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="185"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="178"/>
       <c r="H3" s="118" t="s">
         <v>18</v>
       </c>
@@ -20716,11 +22784,11 @@
       <c r="B4" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="185"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="178"/>
       <c r="H4" s="118" t="s">
         <v>20</v>
       </c>
@@ -20733,11 +22801,11 @@
       <c r="B5" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="183"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="185"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="178"/>
       <c r="H5" s="118" t="s">
         <v>23</v>
       </c>
@@ -20748,11 +22816,11 @@
       <c r="B6" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="185"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="178"/>
       <c r="H6" s="118" t="s">
         <v>25</v>
       </c>
@@ -21152,8 +23220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -21203,11 +23271,11 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="175"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="168"/>
       <c r="D2" s="196" t="s">
         <v>15</v>
       </c>
@@ -21244,9 +23312,9 @@
       <c r="AG2" s="49"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="176"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
       <c r="D3" s="196" t="s">
         <v>17</v>
       </c>
@@ -21283,9 +23351,9 @@
       <c r="AG3" s="49"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="181"/>
+      <c r="A4" s="172"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="174"/>
       <c r="D4" s="196" t="s">
         <v>19</v>
       </c>
@@ -21322,11 +23390,11 @@
       <c r="AG4" s="49"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="175"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
       <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
@@ -21363,9 +23431,9 @@
       <c r="AG5" s="49"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="179"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="174"/>
       <c r="D6" s="86" t="s">
         <v>24</v>
       </c>
@@ -22684,6 +24752,1428 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F0A68E-7E57-44A4-B9E0-9597989C5C07}">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="76"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="77"/>
+      <c r="B3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="78"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="77"/>
+      <c r="B4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="199"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="80"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="81"/>
+      <c r="B6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="199"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="80"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="82"/>
+      <c r="B7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="80"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="92"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="92"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="92"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="92"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="92"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="92"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="92"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="92"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="92"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="92"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="A20" s="92"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="92"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
+      <c r="A23" s="92"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1">
+      <c r="A24" s="92"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="92"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="92"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="92"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="A29" s="92"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1">
+      <c r="A30" s="92"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="116"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
+      <c r="A31" s="92"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="109"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
+      <c r="A32" s="92"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="109"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1">
+      <c r="A33" s="92"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="109"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1">
+      <c r="A34" s="92"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="109"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1">
+      <c r="A35" s="92"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="109"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1">
+      <c r="A36" s="92"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="109"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1">
+      <c r="A37" s="92"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="109"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1">
+      <c r="A38" s="92"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="109"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1">
+      <c r="A39" s="92"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="109"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1">
+      <c r="A40" s="92"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="109"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1">
+      <c r="A41" s="92"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="109"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1">
+      <c r="A42" s="92"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="109"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1">
+      <c r="A43" s="92"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="109"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1">
+      <c r="A44" s="92"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="109"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1">
+      <c r="A45" s="92"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="109"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1">
+      <c r="A46" s="92"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="109"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1">
+      <c r="A47" s="92"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="109"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1">
+      <c r="A48" s="92"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="109"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1">
+      <c r="A49" s="98"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="111"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC88E73-9387-4CC0-A80F-72944BEA4771}">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="76"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="77"/>
+      <c r="B3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="78"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="77"/>
+      <c r="B4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="199"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="80"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="81"/>
+      <c r="B6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="199"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="80"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="82"/>
+      <c r="B7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="80"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="92"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="92"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="92"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="92"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="92"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="92"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="92"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="92"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="92"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="92"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="A20" s="92"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="92"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
+      <c r="A23" s="92"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1">
+      <c r="A24" s="92"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="92"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="92"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="92"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="A29" s="92"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1">
+      <c r="A30" s="92"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="116"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
+      <c r="A31" s="92"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="109"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
+      <c r="A32" s="92"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="109"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1">
+      <c r="A33" s="92"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="109"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1">
+      <c r="A34" s="92"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="109"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1">
+      <c r="A35" s="92"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="109"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1">
+      <c r="A36" s="92"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="109"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1">
+      <c r="A37" s="92"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="109"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1">
+      <c r="A38" s="92"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="109"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1">
+      <c r="A39" s="92"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="109"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1">
+      <c r="A40" s="92"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="109"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1">
+      <c r="A41" s="92"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="109"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1">
+      <c r="A42" s="92"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="109"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1">
+      <c r="A43" s="92"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="109"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1">
+      <c r="A44" s="92"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="109"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1">
+      <c r="A45" s="92"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="109"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1">
+      <c r="A46" s="92"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="109"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1">
+      <c r="A47" s="92"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="109"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1">
+      <c r="A48" s="92"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="109"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1">
+      <c r="A49" s="98"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="111"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEED7F7-5DDA-4486-BDA5-38C64B4E6C21}">
   <dimension ref="A1:K49"/>
   <sheetViews>
@@ -23494,11 +26984,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E41CE9A-4231-4DAD-93D6-DF9FCE3D7F20}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -24343,7 +27833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8297DA-8460-4E5C-88DD-B7997A246DE6}">
   <dimension ref="A1:K49"/>
   <sheetViews>
@@ -25054,1429 +28544,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C66D08B-5C53-496D-A532-8D281063E3B0}">
-  <dimension ref="A1:K49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="43.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="76"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="78"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="76"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="A5" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="80"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="80"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
-      <c r="A7" s="82"/>
-      <c r="B7" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="80"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="A8" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="A9" s="90"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="A15" s="92"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1">
-      <c r="A17" s="92"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="A18" s="92"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1">
-      <c r="A19" s="92"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1">
-      <c r="A20" s="92"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="A21" s="92"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="A22" s="92"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1">
-      <c r="A23" s="92"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1">
-      <c r="A24" s="92"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1">
-      <c r="A25" s="92"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1">
-      <c r="A26" s="92"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1">
-      <c r="A27" s="92"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1">
-      <c r="A28" s="92"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1">
-      <c r="A29" s="92"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="95"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1">
-      <c r="A30" s="92"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="116"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1">
-      <c r="A31" s="92"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="109"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1">
-      <c r="A32" s="92"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="109"/>
-    </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1">
-      <c r="A33" s="92"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="109"/>
-    </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1">
-      <c r="A34" s="92"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="109"/>
-    </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1">
-      <c r="A35" s="92"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="109"/>
-    </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1">
-      <c r="A36" s="92"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="109"/>
-    </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1">
-      <c r="A37" s="92"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="109"/>
-    </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1">
-      <c r="A38" s="92"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="109"/>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1">
-      <c r="A39" s="92"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="109"/>
-    </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1">
-      <c r="A40" s="92"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="109"/>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1">
-      <c r="A41" s="92"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="109"/>
-    </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1">
-      <c r="A42" s="92"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="109"/>
-    </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1">
-      <c r="A43" s="92"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="109"/>
-    </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1">
-      <c r="A44" s="92"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="109"/>
-    </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1">
-      <c r="A45" s="92"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="109"/>
-    </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1">
-      <c r="A46" s="92"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108"/>
-      <c r="J46" s="108"/>
-      <c r="K46" s="109"/>
-    </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1">
-      <c r="A47" s="92"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="109"/>
-    </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1">
-      <c r="A48" s="92"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="109"/>
-    </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1">
-      <c r="A49" s="98"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="110"/>
-      <c r="K49" s="111"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:D6"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA13BBD-8037-4D6D-9096-2C2E2CA55F71}">
-  <dimension ref="A1:K49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="K10" activeCellId="1" sqref="G29 K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="43.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="76"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="78"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="76"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="A5" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="80"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="80"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
-      <c r="A7" s="82"/>
-      <c r="B7" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="80"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="A8" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="A9" s="90"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="A15" s="92"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1">
-      <c r="A17" s="92"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="A18" s="92"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1">
-      <c r="A19" s="92"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1">
-      <c r="A20" s="92"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="A21" s="92"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="A22" s="92"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1">
-      <c r="A23" s="92"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1">
-      <c r="A24" s="92"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1">
-      <c r="A25" s="92"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1">
-      <c r="A26" s="92"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1">
-      <c r="A27" s="92"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1">
-      <c r="A28" s="92"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1">
-      <c r="A29" s="92"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="95"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1">
-      <c r="A30" s="92"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="116"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1">
-      <c r="A31" s="92"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="109"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1">
-      <c r="A32" s="92"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="109"/>
-    </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1">
-      <c r="A33" s="92"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="109"/>
-    </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1">
-      <c r="A34" s="92"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="109"/>
-    </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1">
-      <c r="A35" s="92"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="109"/>
-    </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1">
-      <c r="A36" s="92"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="109"/>
-    </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1">
-      <c r="A37" s="92"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="109"/>
-    </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1">
-      <c r="A38" s="92"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="109"/>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1">
-      <c r="A39" s="92"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="109"/>
-    </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1">
-      <c r="A40" s="92"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="109"/>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1">
-      <c r="A41" s="92"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="109"/>
-    </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1">
-      <c r="A42" s="92"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="109"/>
-    </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1">
-      <c r="A43" s="92"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="109"/>
-    </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1">
-      <c r="A44" s="92"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="109"/>
-    </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1">
-      <c r="A45" s="92"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="109"/>
-    </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1">
-      <c r="A46" s="92"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108"/>
-      <c r="J46" s="108"/>
-      <c r="K46" s="109"/>
-    </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1">
-      <c r="A47" s="92"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="109"/>
-    </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1">
-      <c r="A48" s="92"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="109"/>
-    </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1">
-      <c r="A49" s="98"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="110"/>
-      <c r="K49" s="111"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:D6"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -26620,22 +28703,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE99DE6A-D5AF-458E-878B-96B0555D5097}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26651,21 +28736,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_画面設計書.xlsx
+++ b/01_画面設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web\git\2023Dev3Early\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C6628E-45CD-4EF6-BE52-E4922FECDAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886AB08F-9033-4F2F-9917-0890CBDE661F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26989,7 +26989,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>

--- a/01_画面設計書.xlsx
+++ b/01_画面設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web\git\2023Dev3Early\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidakasusumusae/Applications/MAMP/2023Dev3Early/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0162EA45-EC98-43E8-BCCA-34A25278FF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A69385-8288-0944-BCE3-24FCD7ABF9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -82,9 +82,9 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t>簡潔にお客さんが見ても分かる範囲で「何ができる機能か」を書く</t>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="183">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1342,6 +1342,211 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>日高　将冴</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">サエ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホーム画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下書き画面</t>
+    <rPh sb="0" eb="2">
+      <t>シタガキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>投稿画面</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レシピ提案画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レシピ提案一覧画面</t>
+    <rPh sb="0" eb="3">
+      <t>レシピ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テイアn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イティ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果画面</t>
+    <rPh sb="0" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ランキング画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>料理詳細画面</t>
+    <rPh sb="0" eb="6">
+      <t>リョウリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロフィール画面(他人)</t>
+    <rPh sb="9" eb="11">
+      <t>タニn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロフィール画面(本人)</t>
+    <rPh sb="9" eb="11">
+      <t>ホn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォロー一覧画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>設定画面</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トップ画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力フォーム</t>
+  </si>
+  <si>
+    <t>入力フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>情報表示</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一覧画面</t>
+    <rPh sb="0" eb="4">
+      <t>イチラn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ランキング画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロフ他人</t>
+    <rPh sb="3" eb="5">
+      <t>タニn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロフ本人</t>
+    <rPh sb="0" eb="2">
+      <t>プロフ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロフ本人</t>
+    <rPh sb="3" eb="4">
+      <t>ホn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォーロー一覧</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>基本どこからでも行ける</t>
+  </si>
+  <si>
+    <t>基本どこからでも行ける</t>
+    <rPh sb="0" eb="2">
+      <t>キホn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>設定画面から自分のプロフをいじれる</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジブn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>他人をフォロー、他人の料理を見れる</t>
+    <rPh sb="0" eb="2">
+      <t>タニn</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タニn</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミレル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1352,7 +1557,7 @@
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1478,6 +1683,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1694,7 +1906,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -2003,6 +2215,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2011,90 +2226,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2135,26 +2266,89 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2204,6 +2398,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2243,15 +2458,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2278,6 +2484,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -11964,11 +12179,11 @@
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="4.125" style="10" customWidth="1"/>
-    <col min="9" max="32" width="4.125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="4.1640625" style="10" customWidth="1"/>
+    <col min="9" max="32" width="4.1640625" style="1" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="13" style="1"/>
   </cols>
@@ -12176,16 +12391,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="131" t="s">
+      <c r="Y2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="149">
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="157">
         <v>45040</v>
       </c>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="151"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="159"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -12250,14 +12465,14 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="152" t="s">
+      <c r="Y4" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="152"/>
-      <c r="AA4" s="152"/>
-      <c r="AB4" s="152"/>
-      <c r="AC4" s="152"/>
-      <c r="AD4" s="152"/>
+      <c r="Z4" s="160"/>
+      <c r="AA4" s="160"/>
+      <c r="AB4" s="160"/>
+      <c r="AC4" s="160"/>
+      <c r="AD4" s="160"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="13"/>
@@ -12287,14 +12502,14 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="152" t="s">
+      <c r="Y5" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="152"/>
-      <c r="AA5" s="152"/>
-      <c r="AB5" s="152"/>
-      <c r="AC5" s="152"/>
-      <c r="AD5" s="152"/>
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -12307,16 +12522,16 @@
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="146" t="s">
+      <c r="F6" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
@@ -12339,26 +12554,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="133" t="s">
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="135"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="149"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -12366,40 +12581,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="131" t="s">
+      <c r="Y7" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="132"/>
-      <c r="AA7" s="131" t="s">
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="132"/>
-      <c r="AC7" s="131" t="s">
+      <c r="AB7" s="140"/>
+      <c r="AC7" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="132"/>
+      <c r="AD7" s="140"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="66"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="138"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="152"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -12407,16 +12622,16 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="139" t="s">
+      <c r="Y8" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="Z8" s="140"/>
-      <c r="AA8" s="139" t="s">
+      <c r="Z8" s="142"/>
+      <c r="AA8" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" s="140"/>
-      <c r="AC8" s="153"/>
-      <c r="AD8" s="154"/>
+      <c r="AB8" s="142"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="127"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="66"/>
       <c r="AG8" s="2"/>
@@ -12446,12 +12661,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="142"/>
-      <c r="AA9" s="141"/>
-      <c r="AB9" s="142"/>
-      <c r="AC9" s="155"/>
-      <c r="AD9" s="156"/>
+      <c r="Y9" s="143"/>
+      <c r="Z9" s="144"/>
+      <c r="AA9" s="143"/>
+      <c r="AB9" s="144"/>
+      <c r="AC9" s="128"/>
+      <c r="AD9" s="129"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="66"/>
       <c r="AG9" s="2"/>
@@ -12481,12 +12696,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="143"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="157"/>
-      <c r="AD10" s="158"/>
+      <c r="Y10" s="145"/>
+      <c r="Z10" s="146"/>
+      <c r="AA10" s="145"/>
+      <c r="AB10" s="146"/>
+      <c r="AC10" s="130"/>
+      <c r="AD10" s="131"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="66"/>
       <c r="AG10" s="12"/>
@@ -12527,105 +12742,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="145" t="s">
+      <c r="B12" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="145"/>
-      <c r="R12" s="145"/>
-      <c r="S12" s="145"/>
-      <c r="T12" s="145"/>
-      <c r="U12" s="145"/>
-      <c r="V12" s="145"/>
-      <c r="W12" s="145"/>
-      <c r="X12" s="145"/>
-      <c r="Y12" s="145"/>
-      <c r="Z12" s="145"/>
-      <c r="AA12" s="145"/>
-      <c r="AB12" s="145"/>
-      <c r="AC12" s="145"/>
-      <c r="AD12" s="145"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="153"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="153"/>
+      <c r="V12" s="153"/>
+      <c r="W12" s="153"/>
+      <c r="X12" s="153"/>
+      <c r="Y12" s="153"/>
+      <c r="Z12" s="153"/>
+      <c r="AA12" s="153"/>
+      <c r="AB12" s="153"/>
+      <c r="AC12" s="153"/>
+      <c r="AD12" s="153"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="145"/>
-      <c r="R13" s="145"/>
-      <c r="S13" s="145"/>
-      <c r="T13" s="145"/>
-      <c r="U13" s="145"/>
-      <c r="V13" s="145"/>
-      <c r="W13" s="145"/>
-      <c r="X13" s="145"/>
-      <c r="Y13" s="145"/>
-      <c r="Z13" s="145"/>
-      <c r="AA13" s="145"/>
-      <c r="AB13" s="145"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="145"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="153"/>
+      <c r="T13" s="153"/>
+      <c r="U13" s="153"/>
+      <c r="V13" s="153"/>
+      <c r="W13" s="153"/>
+      <c r="X13" s="153"/>
+      <c r="Y13" s="153"/>
+      <c r="Z13" s="153"/>
+      <c r="AA13" s="153"/>
+      <c r="AB13" s="153"/>
+      <c r="AC13" s="153"/>
+      <c r="AD13" s="153"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="145"/>
-      <c r="Q14" s="145"/>
-      <c r="R14" s="145"/>
-      <c r="S14" s="145"/>
-      <c r="T14" s="145"/>
-      <c r="U14" s="145"/>
-      <c r="V14" s="145"/>
-      <c r="W14" s="145"/>
-      <c r="X14" s="145"/>
-      <c r="Y14" s="145"/>
-      <c r="Z14" s="145"/>
-      <c r="AA14" s="145"/>
-      <c r="AB14" s="145"/>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="145"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="153"/>
+      <c r="V14" s="153"/>
+      <c r="W14" s="153"/>
+      <c r="X14" s="153"/>
+      <c r="Y14" s="153"/>
+      <c r="Z14" s="153"/>
+      <c r="AA14" s="153"/>
+      <c r="AB14" s="153"/>
+      <c r="AC14" s="153"/>
+      <c r="AD14" s="153"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
@@ -12837,255 +13052,255 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="122" t="s">
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="122" t="s">
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="123"/>
-      <c r="X21" s="123"/>
-      <c r="Y21" s="123"/>
-      <c r="Z21" s="123"/>
-      <c r="AA21" s="124"/>
-      <c r="AB21" s="122" t="s">
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="124"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="124"/>
+      <c r="S21" s="124"/>
+      <c r="T21" s="124"/>
+      <c r="U21" s="124"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="124"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="124"/>
+      <c r="Z21" s="124"/>
+      <c r="AA21" s="125"/>
+      <c r="AB21" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AC21" s="123"/>
-      <c r="AD21" s="124"/>
+      <c r="AC21" s="124"/>
+      <c r="AD21" s="125"/>
       <c r="AE21" s="14"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="128">
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="164">
         <v>45040</v>
       </c>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="125" t="s">
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="126"/>
-      <c r="S22" s="126"/>
-      <c r="T22" s="126"/>
-      <c r="U22" s="126"/>
-      <c r="V22" s="126"/>
-      <c r="W22" s="126"/>
-      <c r="X22" s="126"/>
-      <c r="Y22" s="126"/>
-      <c r="Z22" s="126"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="122" t="s">
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="162"/>
+      <c r="T22" s="162"/>
+      <c r="U22" s="162"/>
+      <c r="V22" s="162"/>
+      <c r="W22" s="162"/>
+      <c r="X22" s="162"/>
+      <c r="Y22" s="162"/>
+      <c r="Z22" s="162"/>
+      <c r="AA22" s="163"/>
+      <c r="AB22" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="AC22" s="123"/>
-      <c r="AD22" s="124"/>
+      <c r="AC22" s="124"/>
+      <c r="AD22" s="125"/>
       <c r="AE22" s="14"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
-      <c r="T23" s="126"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="126"/>
-      <c r="X23" s="126"/>
-      <c r="Y23" s="126"/>
-      <c r="Z23" s="126"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="122"/>
-      <c r="AC23" s="123"/>
-      <c r="AD23" s="124"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="162"/>
+      <c r="S23" s="162"/>
+      <c r="T23" s="162"/>
+      <c r="U23" s="162"/>
+      <c r="V23" s="162"/>
+      <c r="W23" s="162"/>
+      <c r="X23" s="162"/>
+      <c r="Y23" s="162"/>
+      <c r="Z23" s="162"/>
+      <c r="AA23" s="163"/>
+      <c r="AB23" s="123"/>
+      <c r="AC23" s="124"/>
+      <c r="AD23" s="125"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="126"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="126"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="126"/>
-      <c r="X24" s="126"/>
-      <c r="Y24" s="126"/>
-      <c r="Z24" s="126"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="122"/>
-      <c r="AC24" s="123"/>
-      <c r="AD24" s="124"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="162"/>
+      <c r="M24" s="162"/>
+      <c r="N24" s="162"/>
+      <c r="O24" s="162"/>
+      <c r="P24" s="162"/>
+      <c r="Q24" s="162"/>
+      <c r="R24" s="162"/>
+      <c r="S24" s="162"/>
+      <c r="T24" s="162"/>
+      <c r="U24" s="162"/>
+      <c r="V24" s="162"/>
+      <c r="W24" s="162"/>
+      <c r="X24" s="162"/>
+      <c r="Y24" s="162"/>
+      <c r="Z24" s="162"/>
+      <c r="AA24" s="163"/>
+      <c r="AB24" s="123"/>
+      <c r="AC24" s="124"/>
+      <c r="AD24" s="125"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="126"/>
-      <c r="S25" s="126"/>
-      <c r="T25" s="126"/>
-      <c r="U25" s="126"/>
-      <c r="V25" s="126"/>
-      <c r="W25" s="126"/>
-      <c r="X25" s="126"/>
-      <c r="Y25" s="126"/>
-      <c r="Z25" s="126"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="122"/>
-      <c r="AC25" s="123"/>
-      <c r="AD25" s="124"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="162"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="162"/>
+      <c r="P25" s="162"/>
+      <c r="Q25" s="162"/>
+      <c r="R25" s="162"/>
+      <c r="S25" s="162"/>
+      <c r="T25" s="162"/>
+      <c r="U25" s="162"/>
+      <c r="V25" s="162"/>
+      <c r="W25" s="162"/>
+      <c r="X25" s="162"/>
+      <c r="Y25" s="162"/>
+      <c r="Z25" s="162"/>
+      <c r="AA25" s="163"/>
+      <c r="AB25" s="123"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="125"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="126"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="126"/>
-      <c r="Z26" s="126"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="122"/>
-      <c r="AC26" s="123"/>
-      <c r="AD26" s="124"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="162"/>
+      <c r="M26" s="162"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="162"/>
+      <c r="P26" s="162"/>
+      <c r="Q26" s="162"/>
+      <c r="R26" s="162"/>
+      <c r="S26" s="162"/>
+      <c r="T26" s="162"/>
+      <c r="U26" s="162"/>
+      <c r="V26" s="162"/>
+      <c r="W26" s="162"/>
+      <c r="X26" s="162"/>
+      <c r="Y26" s="162"/>
+      <c r="Z26" s="162"/>
+      <c r="AA26" s="163"/>
+      <c r="AB26" s="123"/>
+      <c r="AC26" s="124"/>
+      <c r="AD26" s="125"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="126"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="126"/>
-      <c r="W27" s="126"/>
-      <c r="X27" s="126"/>
-      <c r="Y27" s="126"/>
-      <c r="Z27" s="126"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="122"/>
-      <c r="AC27" s="123"/>
-      <c r="AD27" s="124"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="162"/>
+      <c r="M27" s="162"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="162"/>
+      <c r="P27" s="162"/>
+      <c r="Q27" s="162"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="162"/>
+      <c r="T27" s="162"/>
+      <c r="U27" s="162"/>
+      <c r="V27" s="162"/>
+      <c r="W27" s="162"/>
+      <c r="X27" s="162"/>
+      <c r="Y27" s="162"/>
+      <c r="Z27" s="162"/>
+      <c r="AA27" s="163"/>
+      <c r="AB27" s="123"/>
+      <c r="AC27" s="124"/>
+      <c r="AD27" s="125"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="2"/>
     </row>
@@ -13193,23 +13408,15 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -13226,15 +13433,23 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -13252,14 +13467,14 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="43.125" customWidth="1"/>
+    <col min="11" max="11" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -13337,13 +13552,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="201"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -13354,8 +13569,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -13963,14 +14178,14 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="43.125" customWidth="1"/>
+    <col min="11" max="11" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -14048,13 +14263,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="201"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -14065,8 +14280,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -14674,14 +14889,14 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="43.125" customWidth="1"/>
+    <col min="11" max="11" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -14771,15 +14986,15 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="199" t="s">
+      <c r="C5" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -14790,8 +15005,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -15523,14 +15738,14 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="43.125" customWidth="1"/>
+    <col min="11" max="11" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -15608,13 +15823,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="201"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -15625,8 +15840,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -16234,14 +16449,14 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="43.125" customWidth="1"/>
+    <col min="11" max="11" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -16319,13 +16534,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="201"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -16336,8 +16551,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -16948,161 +17163,161 @@
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="14" width="8.125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="14" width="8.1640625" customWidth="1"/>
     <col min="15" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="203"/>
-      <c r="T1" s="204"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="213"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="214"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="206"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="199"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
       <c r="L2" s="59"/>
       <c r="M2" s="87"/>
       <c r="N2" s="87"/>
       <c r="O2" s="87"/>
       <c r="P2" s="87"/>
-      <c r="Q2" s="211" t="s">
+      <c r="Q2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="212"/>
+      <c r="R2" s="210"/>
       <c r="S2" s="87"/>
       <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="207"/>
-      <c r="B3" s="208"/>
+      <c r="A3" s="205"/>
+      <c r="B3" s="206"/>
       <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="199"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
       <c r="L3" s="59"/>
       <c r="M3" s="87"/>
       <c r="N3" s="87"/>
       <c r="O3" s="87"/>
       <c r="P3" s="87"/>
-      <c r="Q3" s="211" t="s">
+      <c r="Q3" s="209" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="212"/>
+      <c r="R3" s="210"/>
       <c r="S3" s="87"/>
       <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="209"/>
-      <c r="B4" s="210"/>
+      <c r="A4" s="207"/>
+      <c r="B4" s="208"/>
       <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="199"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="200"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
       <c r="L4" s="59"/>
       <c r="M4" s="87"/>
       <c r="N4" s="87"/>
       <c r="O4" s="87"/>
       <c r="P4" s="87"/>
-      <c r="Q4" s="211" t="s">
+      <c r="Q4" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="212"/>
+      <c r="R4" s="210"/>
       <c r="S4" s="87"/>
       <c r="T4" s="88"/>
     </row>
     <row r="5" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="203" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="206"/>
+      <c r="B5" s="204"/>
       <c r="C5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="199"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="200"/>
-      <c r="J5" s="200"/>
-      <c r="K5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="201"/>
+      <c r="K5" s="201"/>
       <c r="L5" s="59"/>
       <c r="M5" s="87"/>
       <c r="N5" s="87"/>
       <c r="O5" s="87"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="211" t="s">
+      <c r="Q5" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="212"/>
+      <c r="R5" s="210"/>
       <c r="S5" s="87"/>
       <c r="T5" s="88"/>
     </row>
     <row r="6" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="207"/>
-      <c r="B6" s="208"/>
+      <c r="A6" s="205"/>
+      <c r="B6" s="206"/>
       <c r="C6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="213" t="s">
+      <c r="D6" s="197"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="211" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="213"/>
+      <c r="G6" s="211"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
@@ -17120,8 +17335,8 @@
       <c r="T6" s="88"/>
     </row>
     <row r="7" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="209"/>
-      <c r="B7" s="210"/>
+      <c r="A7" s="207"/>
+      <c r="B7" s="208"/>
       <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
@@ -17138,8 +17353,8 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="212"/>
+      <c r="Q7" s="209"/>
+      <c r="R7" s="210"/>
       <c r="S7" s="87"/>
       <c r="T7" s="88"/>
     </row>
@@ -17857,12 +18072,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -17871,6 +18080,12 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17887,14 +18102,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="43.125" customWidth="1"/>
+    <col min="11" max="11" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -17972,13 +18187,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="201"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -17989,8 +18204,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -18598,11 +18813,11 @@
       <selection activeCell="A7" sqref="A7:AG45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.25" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.25" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.1640625" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
@@ -18645,209 +18860,209 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="183" t="s">
+      <c r="B2" s="168"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="166" t="s">
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="182" t="s">
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="184"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="182"/>
-      <c r="AC2" s="182"/>
-      <c r="AD2" s="166" t="s">
+      <c r="AB2" s="176"/>
+      <c r="AC2" s="176"/>
+      <c r="AD2" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="168"/>
+      <c r="AE2" s="184"/>
+      <c r="AF2" s="184"/>
+      <c r="AG2" s="185"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="176"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="183" t="s">
+      <c r="A3" s="170"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="182" t="s">
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="184"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="182"/>
-      <c r="AD3" s="169">
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="176"/>
+      <c r="AD3" s="186">
         <v>45043</v>
       </c>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="168"/>
+      <c r="AE3" s="184"/>
+      <c r="AF3" s="184"/>
+      <c r="AG3" s="185"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="183" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="167"/>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="167"/>
-      <c r="S4" s="167"/>
-      <c r="T4" s="167"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="167"/>
-      <c r="W4" s="167"/>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="167"/>
-      <c r="Z4" s="168"/>
-      <c r="AA4" s="182" t="s">
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="184"/>
+      <c r="R4" s="184"/>
+      <c r="S4" s="184"/>
+      <c r="T4" s="184"/>
+      <c r="U4" s="184"/>
+      <c r="V4" s="184"/>
+      <c r="W4" s="184"/>
+      <c r="X4" s="184"/>
+      <c r="Y4" s="184"/>
+      <c r="Z4" s="185"/>
+      <c r="AA4" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="182"/>
-      <c r="AC4" s="182"/>
-      <c r="AD4" s="170"/>
-      <c r="AE4" s="171"/>
-      <c r="AF4" s="171"/>
-      <c r="AG4" s="172"/>
+      <c r="AB4" s="176"/>
+      <c r="AC4" s="176"/>
+      <c r="AD4" s="187"/>
+      <c r="AE4" s="188"/>
+      <c r="AF4" s="188"/>
+      <c r="AG4" s="189"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="186" t="s">
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="180" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="167"/>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="167"/>
-      <c r="V5" s="167"/>
-      <c r="W5" s="167"/>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="182" t="s">
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="185"/>
+      <c r="AA5" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="182"/>
-      <c r="AC5" s="182"/>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="167"/>
-      <c r="AF5" s="167"/>
-      <c r="AG5" s="168"/>
+      <c r="AB5" s="176"/>
+      <c r="AC5" s="176"/>
+      <c r="AD5" s="183"/>
+      <c r="AE5" s="184"/>
+      <c r="AF5" s="184"/>
+      <c r="AG5" s="185"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="179"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="183" t="s">
+      <c r="A6" s="173"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="167"/>
-      <c r="Q6" s="167"/>
-      <c r="R6" s="167"/>
-      <c r="S6" s="167"/>
-      <c r="T6" s="167"/>
-      <c r="U6" s="167"/>
-      <c r="V6" s="167"/>
-      <c r="W6" s="167"/>
-      <c r="X6" s="167"/>
-      <c r="Y6" s="167"/>
-      <c r="Z6" s="168"/>
-      <c r="AA6" s="182" t="s">
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="184"/>
+      <c r="Q6" s="184"/>
+      <c r="R6" s="184"/>
+      <c r="S6" s="184"/>
+      <c r="T6" s="184"/>
+      <c r="U6" s="184"/>
+      <c r="V6" s="184"/>
+      <c r="W6" s="184"/>
+      <c r="X6" s="184"/>
+      <c r="Y6" s="184"/>
+      <c r="Z6" s="185"/>
+      <c r="AA6" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="182"/>
-      <c r="AC6" s="182"/>
-      <c r="AD6" s="166"/>
-      <c r="AE6" s="167"/>
-      <c r="AF6" s="167"/>
-      <c r="AG6" s="168"/>
+      <c r="AB6" s="176"/>
+      <c r="AC6" s="176"/>
+      <c r="AD6" s="183"/>
+      <c r="AE6" s="184"/>
+      <c r="AF6" s="184"/>
+      <c r="AG6" s="185"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -20111,6 +20326,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H6:Z6"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
@@ -20127,12 +20348,6 @@
     <mergeCell ref="H3:Z3"/>
     <mergeCell ref="H4:Z4"/>
     <mergeCell ref="H5:Z5"/>
-    <mergeCell ref="H6:Z6"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -20150,19 +20365,19 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="46.25" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="46.1640625" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
@@ -20179,81 +20394,85 @@
       <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="193" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="185"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="179"/>
       <c r="H2" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="117"/>
+      <c r="I2" s="117" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="193"/>
+      <c r="A3" s="194"/>
       <c r="B3" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="185"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="179"/>
       <c r="H3" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="117"/>
+      <c r="I3" s="122">
+        <v>45047</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="194"/>
+      <c r="A4" s="195"/>
       <c r="B4" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="185"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="179"/>
       <c r="H4" s="118" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="117"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="192" t="s">
+      <c r="A5" s="193" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="183"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="185"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="179"/>
       <c r="H5" s="118" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="194"/>
+      <c r="A6" s="195"/>
       <c r="B6" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="185"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="179"/>
       <c r="H6" s="118" t="s">
         <v>25</v>
       </c>
@@ -20274,11 +20493,11 @@
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="189" t="s">
+      <c r="D8" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="190"/>
-      <c r="F8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="192"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -20314,43 +20533,79 @@
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
       <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="E10" s="27"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="G10" s="33" t="s">
+        <v>180</v>
+      </c>
       <c r="H10" s="29"/>
       <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="A11" s="25"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="B11" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>155</v>
+      </c>
       <c r="F11" s="27"/>
-      <c r="G11" s="26"/>
+      <c r="G11" s="26" t="s">
+        <v>179</v>
+      </c>
       <c r="H11" s="36"/>
       <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
       <c r="A12" s="25"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="27"/>
+      <c r="B12" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>156</v>
+      </c>
       <c r="G12" s="26"/>
       <c r="H12" s="36"/>
       <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1">
       <c r="A13" s="25"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+      <c r="B13" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>157</v>
+      </c>
       <c r="F13" s="27"/>
       <c r="G13" s="26"/>
       <c r="H13" s="36"/>
@@ -20358,21 +20613,39 @@
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
       <c r="A14" s="25"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="27"/>
+      <c r="B14" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>172</v>
+      </c>
       <c r="G14" s="26"/>
       <c r="H14" s="36"/>
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
       <c r="A15" s="25"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
+      <c r="B15" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>159</v>
+      </c>
       <c r="F15" s="27"/>
       <c r="G15" s="26"/>
       <c r="H15" s="27"/>
@@ -20380,10 +20653,18 @@
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="A16" s="25"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+      <c r="B16" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>173</v>
+      </c>
       <c r="F16" s="27"/>
       <c r="G16" s="26"/>
       <c r="H16" s="27"/>
@@ -20391,64 +20672,122 @@
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="A17" s="25"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="27"/>
+      <c r="B17" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>161</v>
+      </c>
       <c r="G17" s="26"/>
       <c r="H17" s="36"/>
       <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="A18" s="25"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
+      <c r="B18" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>174</v>
+      </c>
       <c r="F18" s="27"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="26" t="s">
+        <v>182</v>
+      </c>
       <c r="H18" s="36"/>
       <c r="I18" s="37"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="A19" s="25"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="B19" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>175</v>
+      </c>
       <c r="F19" s="27"/>
-      <c r="G19" s="26"/>
+      <c r="G19" s="26" t="s">
+        <v>179</v>
+      </c>
       <c r="H19" s="36"/>
       <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="32"/>
+      <c r="B20" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>177</v>
+      </c>
       <c r="G20" s="33"/>
       <c r="H20" s="36"/>
       <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="25"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="26"/>
+      <c r="B21" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>181</v>
+      </c>
       <c r="H21" s="36"/>
       <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
       <c r="A22" s="25"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="35"/>
+      <c r="B22" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>171</v>
+      </c>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="26"/>
@@ -20653,15 +20992,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.25" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.25" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.1640625" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
@@ -20704,17 +21043,17 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="196" t="s">
+      <c r="B2" s="168"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="199"/>
       <c r="H2" s="50"/>
       <c r="I2" s="51"/>
       <c r="J2" s="51"/>
@@ -20734,26 +21073,26 @@
       <c r="X2" s="51"/>
       <c r="Y2" s="51"/>
       <c r="Z2" s="49"/>
-      <c r="AA2" s="195" t="s">
+      <c r="AA2" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="195"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="196"/>
       <c r="AD2" s="50"/>
       <c r="AE2" s="51"/>
       <c r="AF2" s="51"/>
       <c r="AG2" s="49"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="176"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="196" t="s">
+      <c r="A3" s="170"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="197" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="199"/>
       <c r="H3" s="50"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
@@ -20773,26 +21112,26 @@
       <c r="X3" s="51"/>
       <c r="Y3" s="51"/>
       <c r="Z3" s="49"/>
-      <c r="AA3" s="195" t="s">
+      <c r="AA3" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="195"/>
-      <c r="AC3" s="195"/>
+      <c r="AB3" s="196"/>
+      <c r="AC3" s="196"/>
       <c r="AD3" s="50"/>
       <c r="AE3" s="51"/>
       <c r="AF3" s="51"/>
       <c r="AG3" s="49"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="196" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="199"/>
       <c r="H4" s="50"/>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
@@ -20812,22 +21151,22 @@
       <c r="X4" s="51"/>
       <c r="Y4" s="51"/>
       <c r="Z4" s="49"/>
-      <c r="AA4" s="195" t="s">
+      <c r="AA4" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="195"/>
-      <c r="AC4" s="195"/>
+      <c r="AB4" s="196"/>
+      <c r="AC4" s="196"/>
       <c r="AD4" s="50"/>
       <c r="AE4" s="51"/>
       <c r="AF4" s="51"/>
       <c r="AG4" s="49"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="175"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
       <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
@@ -20853,20 +21192,20 @@
       <c r="X5" s="51"/>
       <c r="Y5" s="51"/>
       <c r="Z5" s="49"/>
-      <c r="AA5" s="195" t="s">
+      <c r="AA5" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="195"/>
-      <c r="AC5" s="195"/>
+      <c r="AB5" s="196"/>
+      <c r="AC5" s="196"/>
       <c r="AD5" s="50"/>
       <c r="AE5" s="51"/>
       <c r="AF5" s="51"/>
       <c r="AG5" s="49"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="179"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
+      <c r="A6" s="173"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="86" t="s">
         <v>24</v>
       </c>
@@ -20892,11 +21231,11 @@
       <c r="X6" s="51"/>
       <c r="Y6" s="51"/>
       <c r="Z6" s="49"/>
-      <c r="AA6" s="195" t="s">
+      <c r="AA6" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="195"/>
-      <c r="AC6" s="195"/>
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="196"/>
       <c r="AD6" s="50"/>
       <c r="AE6" s="51"/>
       <c r="AF6" s="51"/>
@@ -22188,18 +22527,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEED7F7-5DDA-4486-BDA5-38C64B4E6C21}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="43.125" customWidth="1"/>
+    <col min="11" max="11" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -22289,15 +22628,15 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="199" t="s">
+      <c r="C5" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -22308,8 +22647,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -23003,14 +23342,14 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="43.125" customWidth="1"/>
+    <col min="11" max="11" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -23088,13 +23427,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="201"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -23105,8 +23444,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -23714,14 +24053,14 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="43.125" customWidth="1"/>
+    <col min="11" max="11" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -23799,13 +24138,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="201"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -23816,8 +24155,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -24425,14 +24764,14 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="43.125" customWidth="1"/>
+    <col min="11" max="11" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -24510,13 +24849,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="201"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -24527,8 +24866,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -25136,14 +25475,14 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="43.125" customWidth="1"/>
+    <col min="11" max="11" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -25221,13 +25560,13 @@
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="201"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
       <c r="J5" s="75" t="s">
         <v>46</v>
       </c>
@@ -25238,8 +25577,8 @@
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="27" t="s">
         <v>48</v>
       </c>
@@ -25840,6 +26179,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -25983,22 +26337,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE99DE6A-D5AF-458E-878B-96B0555D5097}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26014,21 +26370,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_画面設計書.xlsx
+++ b/01_画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web\git\2023Dev3Early\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886AB08F-9033-4F2F-9917-0890CBDE661F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE42983B-6D55-4D55-B1DF-4545811F0199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -2018,6 +2018,90 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2057,89 +2141,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2189,27 +2210,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2249,6 +2249,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2275,15 +2284,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5662,14 +5662,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
@@ -5686,7 +5686,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4200525" y="2162176"/>
+          <a:off x="4219575" y="2162176"/>
           <a:ext cx="1295400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6280,8 +6280,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -6302,7 +6302,7 @@
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
           <a:off x="1609725" y="2457450"/>
-          <a:ext cx="2590800" cy="809625"/>
+          <a:ext cx="2609850" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6336,8 +6336,8 @@
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
@@ -6358,7 +6358,7 @@
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
           <a:off x="3228975" y="2457451"/>
-          <a:ext cx="971550" cy="800100"/>
+          <a:ext cx="990600" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6442,8 +6442,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
@@ -6469,8 +6469,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5495925" y="2457451"/>
-          <a:ext cx="962025" cy="790574"/>
+          <a:off x="5514975" y="2457451"/>
+          <a:ext cx="942975" cy="790574"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6498,8 +6498,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
@@ -6525,8 +6525,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5495925" y="2457451"/>
-          <a:ext cx="3248025" cy="304800"/>
+          <a:off x="5514975" y="2457451"/>
+          <a:ext cx="3228975" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6611,14 +6611,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1951</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1951</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -6637,9 +6637,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4848225" y="2752726"/>
-          <a:ext cx="11476" cy="504824"/>
+        <a:xfrm flipH="1">
+          <a:off x="4859701" y="2752726"/>
+          <a:ext cx="7574" cy="504824"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7150,16 +7150,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7174,7 +7174,75 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4200525" y="1123950"/>
+          <a:off x="2266950" y="1171575"/>
+          <a:ext cx="1295400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>G1-1-2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DD83DE-8BF1-4372-A652-7364A5FF8601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="1171575"/>
           <a:ext cx="1295400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7209,8 +7277,9 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ホーム画面</a:t>
+            <a:t>ログイン画面</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7218,82 +7287,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DD83DE-8BF1-4372-A652-7364A5FF8601}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1943100" y="1123950"/>
-          <a:ext cx="1295400" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>G1-1-0</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ホーム画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
@@ -7307,14 +7308,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
+          <a:stCxn id="11" idx="2"/>
           <a:endCxn id="4" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4848225" y="1714500"/>
-          <a:ext cx="0" cy="447676"/>
+        <a:xfrm flipH="1">
+          <a:off x="4867275" y="1762125"/>
+          <a:ext cx="9525" cy="400051"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7342,16 +7343,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7363,17 +7364,75 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="3"/>
-          <a:endCxn id="2" idx="1"/>
+          <a:stCxn id="11" idx="1"/>
+          <a:endCxn id="2" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3238500" y="1419225"/>
-          <a:ext cx="962025" cy="0"/>
+        <a:xfrm flipH="1">
+          <a:off x="3562350" y="1466850"/>
+          <a:ext cx="666750" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="コネクタ: カギ線 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4374D7A8-4BBC-471E-9C4D-A2C15A62D299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3690937" y="985837"/>
+          <a:ext cx="400051" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -12748,16 +12807,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="138" t="s">
+      <c r="Y2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="156">
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="149">
         <v>45040</v>
       </c>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="158"/>
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="151"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -12822,14 +12881,14 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="159" t="s">
+      <c r="Y4" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
-      <c r="AC4" s="159"/>
-      <c r="AD4" s="159"/>
+      <c r="Z4" s="152"/>
+      <c r="AA4" s="152"/>
+      <c r="AB4" s="152"/>
+      <c r="AC4" s="152"/>
+      <c r="AD4" s="152"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="13"/>
@@ -12859,14 +12918,14 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="159" t="s">
+      <c r="Y5" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="159"/>
-      <c r="AA5" s="159"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="159"/>
-      <c r="AD5" s="159"/>
+      <c r="Z5" s="152"/>
+      <c r="AA5" s="152"/>
+      <c r="AB5" s="152"/>
+      <c r="AC5" s="152"/>
+      <c r="AD5" s="152"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -12879,16 +12938,16 @@
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="153" t="s">
+      <c r="F6" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
@@ -12911,26 +12970,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="146" t="s">
+      <c r="C7" s="160"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="148"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="135"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -12938,40 +12997,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="138" t="s">
+      <c r="Y7" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="138" t="s">
+      <c r="Z7" s="132"/>
+      <c r="AA7" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="139"/>
-      <c r="AC7" s="138" t="s">
+      <c r="AB7" s="132"/>
+      <c r="AC7" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="139"/>
+      <c r="AD7" s="132"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="66"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="151"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="138"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -12979,16 +13038,16 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="140" t="s">
+      <c r="Y8" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="140" t="s">
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="125"/>
-      <c r="AD8" s="126"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="153"/>
+      <c r="AD8" s="154"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="66"/>
       <c r="AG8" s="2"/>
@@ -13018,12 +13077,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="142"/>
-      <c r="Z9" s="143"/>
-      <c r="AA9" s="142"/>
-      <c r="AB9" s="143"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="128"/>
+      <c r="Y9" s="141"/>
+      <c r="Z9" s="142"/>
+      <c r="AA9" s="141"/>
+      <c r="AB9" s="142"/>
+      <c r="AC9" s="155"/>
+      <c r="AD9" s="156"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="66"/>
       <c r="AG9" s="2"/>
@@ -13053,12 +13112,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="145"/>
-      <c r="AA10" s="144"/>
-      <c r="AB10" s="145"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="130"/>
+      <c r="Y10" s="143"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="143"/>
+      <c r="AB10" s="144"/>
+      <c r="AC10" s="157"/>
+      <c r="AD10" s="158"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="66"/>
       <c r="AG10" s="12"/>
@@ -13099,105 +13158,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="152"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="152"/>
-      <c r="U12" s="152"/>
-      <c r="V12" s="152"/>
-      <c r="W12" s="152"/>
-      <c r="X12" s="152"/>
-      <c r="Y12" s="152"/>
-      <c r="Z12" s="152"/>
-      <c r="AA12" s="152"/>
-      <c r="AB12" s="152"/>
-      <c r="AC12" s="152"/>
-      <c r="AD12" s="152"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="145"/>
+      <c r="V12" s="145"/>
+      <c r="W12" s="145"/>
+      <c r="X12" s="145"/>
+      <c r="Y12" s="145"/>
+      <c r="Z12" s="145"/>
+      <c r="AA12" s="145"/>
+      <c r="AB12" s="145"/>
+      <c r="AC12" s="145"/>
+      <c r="AD12" s="145"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="152"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="152"/>
-      <c r="S13" s="152"/>
-      <c r="T13" s="152"/>
-      <c r="U13" s="152"/>
-      <c r="V13" s="152"/>
-      <c r="W13" s="152"/>
-      <c r="X13" s="152"/>
-      <c r="Y13" s="152"/>
-      <c r="Z13" s="152"/>
-      <c r="AA13" s="152"/>
-      <c r="AB13" s="152"/>
-      <c r="AC13" s="152"/>
-      <c r="AD13" s="152"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="145"/>
+      <c r="T13" s="145"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="145"/>
+      <c r="W13" s="145"/>
+      <c r="X13" s="145"/>
+      <c r="Y13" s="145"/>
+      <c r="Z13" s="145"/>
+      <c r="AA13" s="145"/>
+      <c r="AB13" s="145"/>
+      <c r="AC13" s="145"/>
+      <c r="AD13" s="145"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="152"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="152"/>
-      <c r="U14" s="152"/>
-      <c r="V14" s="152"/>
-      <c r="W14" s="152"/>
-      <c r="X14" s="152"/>
-      <c r="Y14" s="152"/>
-      <c r="Z14" s="152"/>
-      <c r="AA14" s="152"/>
-      <c r="AB14" s="152"/>
-      <c r="AC14" s="152"/>
-      <c r="AD14" s="152"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="145"/>
+      <c r="T14" s="145"/>
+      <c r="U14" s="145"/>
+      <c r="V14" s="145"/>
+      <c r="W14" s="145"/>
+      <c r="X14" s="145"/>
+      <c r="Y14" s="145"/>
+      <c r="Z14" s="145"/>
+      <c r="AA14" s="145"/>
+      <c r="AB14" s="145"/>
+      <c r="AC14" s="145"/>
+      <c r="AD14" s="145"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
@@ -13457,32 +13516,32 @@
       <c r="C22" s="123"/>
       <c r="D22" s="123"/>
       <c r="E22" s="124"/>
-      <c r="F22" s="163">
+      <c r="F22" s="128">
         <v>45040</v>
       </c>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="160" t="s">
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="161"/>
-      <c r="S22" s="161"/>
-      <c r="T22" s="161"/>
-      <c r="U22" s="161"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="161"/>
-      <c r="X22" s="161"/>
-      <c r="Y22" s="161"/>
-      <c r="Z22" s="161"/>
-      <c r="AA22" s="162"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="126"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="126"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="126"/>
+      <c r="W22" s="126"/>
+      <c r="X22" s="126"/>
+      <c r="Y22" s="126"/>
+      <c r="Z22" s="126"/>
+      <c r="AA22" s="127"/>
       <c r="AB22" s="122" t="s">
         <v>74</v>
       </c>
@@ -13497,28 +13556,28 @@
       <c r="C23" s="123"/>
       <c r="D23" s="123"/>
       <c r="E23" s="124"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="161"/>
-      <c r="S23" s="161"/>
-      <c r="T23" s="161"/>
-      <c r="U23" s="161"/>
-      <c r="V23" s="161"/>
-      <c r="W23" s="161"/>
-      <c r="X23" s="161"/>
-      <c r="Y23" s="161"/>
-      <c r="Z23" s="161"/>
-      <c r="AA23" s="162"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="126"/>
+      <c r="S23" s="126"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="126"/>
+      <c r="W23" s="126"/>
+      <c r="X23" s="126"/>
+      <c r="Y23" s="126"/>
+      <c r="Z23" s="126"/>
+      <c r="AA23" s="127"/>
       <c r="AB23" s="122"/>
       <c r="AC23" s="123"/>
       <c r="AD23" s="124"/>
@@ -13531,28 +13590,28 @@
       <c r="C24" s="123"/>
       <c r="D24" s="123"/>
       <c r="E24" s="124"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="161"/>
-      <c r="S24" s="161"/>
-      <c r="T24" s="161"/>
-      <c r="U24" s="161"/>
-      <c r="V24" s="161"/>
-      <c r="W24" s="161"/>
-      <c r="X24" s="161"/>
-      <c r="Y24" s="161"/>
-      <c r="Z24" s="161"/>
-      <c r="AA24" s="162"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="126"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="126"/>
+      <c r="V24" s="126"/>
+      <c r="W24" s="126"/>
+      <c r="X24" s="126"/>
+      <c r="Y24" s="126"/>
+      <c r="Z24" s="126"/>
+      <c r="AA24" s="127"/>
       <c r="AB24" s="122"/>
       <c r="AC24" s="123"/>
       <c r="AD24" s="124"/>
@@ -13565,28 +13624,28 @@
       <c r="C25" s="123"/>
       <c r="D25" s="123"/>
       <c r="E25" s="124"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="161"/>
-      <c r="P25" s="161"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="161"/>
-      <c r="S25" s="161"/>
-      <c r="T25" s="161"/>
-      <c r="U25" s="161"/>
-      <c r="V25" s="161"/>
-      <c r="W25" s="161"/>
-      <c r="X25" s="161"/>
-      <c r="Y25" s="161"/>
-      <c r="Z25" s="161"/>
-      <c r="AA25" s="162"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="126"/>
+      <c r="W25" s="126"/>
+      <c r="X25" s="126"/>
+      <c r="Y25" s="126"/>
+      <c r="Z25" s="126"/>
+      <c r="AA25" s="127"/>
       <c r="AB25" s="122"/>
       <c r="AC25" s="123"/>
       <c r="AD25" s="124"/>
@@ -13599,28 +13658,28 @@
       <c r="C26" s="123"/>
       <c r="D26" s="123"/>
       <c r="E26" s="124"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="161"/>
-      <c r="S26" s="161"/>
-      <c r="T26" s="161"/>
-      <c r="U26" s="161"/>
-      <c r="V26" s="161"/>
-      <c r="W26" s="161"/>
-      <c r="X26" s="161"/>
-      <c r="Y26" s="161"/>
-      <c r="Z26" s="161"/>
-      <c r="AA26" s="162"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="126"/>
+      <c r="T26" s="126"/>
+      <c r="U26" s="126"/>
+      <c r="V26" s="126"/>
+      <c r="W26" s="126"/>
+      <c r="X26" s="126"/>
+      <c r="Y26" s="126"/>
+      <c r="Z26" s="126"/>
+      <c r="AA26" s="127"/>
       <c r="AB26" s="122"/>
       <c r="AC26" s="123"/>
       <c r="AD26" s="124"/>
@@ -13633,28 +13692,28 @@
       <c r="C27" s="123"/>
       <c r="D27" s="123"/>
       <c r="E27" s="124"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="161"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="161"/>
-      <c r="S27" s="161"/>
-      <c r="T27" s="161"/>
-      <c r="U27" s="161"/>
-      <c r="V27" s="161"/>
-      <c r="W27" s="161"/>
-      <c r="X27" s="161"/>
-      <c r="Y27" s="161"/>
-      <c r="Z27" s="161"/>
-      <c r="AA27" s="162"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="126"/>
+      <c r="T27" s="126"/>
+      <c r="U27" s="126"/>
+      <c r="V27" s="126"/>
+      <c r="W27" s="126"/>
+      <c r="X27" s="126"/>
+      <c r="Y27" s="126"/>
+      <c r="Z27" s="126"/>
+      <c r="AA27" s="127"/>
       <c r="AB27" s="122"/>
       <c r="AC27" s="123"/>
       <c r="AD27" s="124"/>
@@ -13765,15 +13824,23 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AD5"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -13790,23 +13857,15 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -19527,34 +19586,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="212"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="212"/>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="212"/>
-      <c r="S1" s="212"/>
-      <c r="T1" s="213"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="203"/>
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="203"/>
+      <c r="T1" s="204"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="203"/>
+      <c r="B2" s="206"/>
       <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
@@ -19571,16 +19630,16 @@
       <c r="N2" s="87"/>
       <c r="O2" s="87"/>
       <c r="P2" s="87"/>
-      <c r="Q2" s="208" t="s">
+      <c r="Q2" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="209"/>
+      <c r="R2" s="212"/>
       <c r="S2" s="87"/>
       <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="204"/>
-      <c r="B3" s="205"/>
+      <c r="A3" s="207"/>
+      <c r="B3" s="208"/>
       <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
@@ -19597,16 +19656,16 @@
       <c r="N3" s="87"/>
       <c r="O3" s="87"/>
       <c r="P3" s="87"/>
-      <c r="Q3" s="208" t="s">
+      <c r="Q3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="209"/>
+      <c r="R3" s="212"/>
       <c r="S3" s="87"/>
       <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="206"/>
-      <c r="B4" s="207"/>
+      <c r="A4" s="209"/>
+      <c r="B4" s="210"/>
       <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
@@ -19623,18 +19682,18 @@
       <c r="N4" s="87"/>
       <c r="O4" s="87"/>
       <c r="P4" s="87"/>
-      <c r="Q4" s="208" t="s">
+      <c r="Q4" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="209"/>
+      <c r="R4" s="212"/>
       <c r="S4" s="87"/>
       <c r="T4" s="88"/>
     </row>
     <row r="5" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="202" t="s">
+      <c r="A5" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="203"/>
+      <c r="B5" s="206"/>
       <c r="C5" s="22" t="s">
         <v>45</v>
       </c>
@@ -19651,25 +19710,25 @@
       <c r="N5" s="87"/>
       <c r="O5" s="87"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="208" t="s">
+      <c r="Q5" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="209"/>
+      <c r="R5" s="212"/>
       <c r="S5" s="87"/>
       <c r="T5" s="88"/>
     </row>
     <row r="6" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="204"/>
-      <c r="B6" s="205"/>
+      <c r="A6" s="207"/>
+      <c r="B6" s="208"/>
       <c r="C6" s="22" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="196"/>
       <c r="E6" s="198"/>
-      <c r="F6" s="210" t="s">
+      <c r="F6" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="210"/>
+      <c r="G6" s="213"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
@@ -19687,8 +19746,8 @@
       <c r="T6" s="88"/>
     </row>
     <row r="7" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="206"/>
-      <c r="B7" s="207"/>
+      <c r="A7" s="209"/>
+      <c r="B7" s="210"/>
       <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
@@ -19705,8 +19764,8 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="208"/>
-      <c r="R7" s="209"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="212"/>
       <c r="S7" s="87"/>
       <c r="T7" s="88"/>
     </row>
@@ -20424,6 +20483,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -20432,12 +20497,6 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21212,209 +21271,209 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="176" t="s">
+      <c r="B2" s="174"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="182" t="s">
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="184"/>
-      <c r="AA2" s="175" t="s">
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="182" t="s">
+      <c r="AB2" s="182"/>
+      <c r="AC2" s="182"/>
+      <c r="AD2" s="166" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="184"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="168"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="169"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="176" t="s">
+      <c r="A3" s="176"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="183"/>
-      <c r="U3" s="183"/>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="184"/>
-      <c r="AA3" s="175" t="s">
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167"/>
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="185">
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="182"/>
+      <c r="AD3" s="169">
         <v>45043</v>
       </c>
-      <c r="AE3" s="183"/>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="184"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="168"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="172"/>
-      <c r="B4" s="173"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="176" t="s">
+      <c r="A4" s="179"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="182"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="183"/>
-      <c r="M4" s="183"/>
-      <c r="N4" s="183"/>
-      <c r="O4" s="183"/>
-      <c r="P4" s="183"/>
-      <c r="Q4" s="183"/>
-      <c r="R4" s="183"/>
-      <c r="S4" s="183"/>
-      <c r="T4" s="183"/>
-      <c r="U4" s="183"/>
-      <c r="V4" s="183"/>
-      <c r="W4" s="183"/>
-      <c r="X4" s="183"/>
-      <c r="Y4" s="183"/>
-      <c r="Z4" s="184"/>
-      <c r="AA4" s="175" t="s">
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="167"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="168"/>
+      <c r="AA4" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="175"/>
-      <c r="AC4" s="175"/>
-      <c r="AD4" s="186"/>
-      <c r="AE4" s="187"/>
-      <c r="AF4" s="187"/>
-      <c r="AG4" s="188"/>
+      <c r="AB4" s="182"/>
+      <c r="AC4" s="182"/>
+      <c r="AD4" s="170"/>
+      <c r="AE4" s="171"/>
+      <c r="AF4" s="171"/>
+      <c r="AG4" s="172"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="179" t="s">
+      <c r="B5" s="174"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="183"/>
-      <c r="L5" s="183"/>
-      <c r="M5" s="183"/>
-      <c r="N5" s="183"/>
-      <c r="O5" s="183"/>
-      <c r="P5" s="183"/>
-      <c r="Q5" s="183"/>
-      <c r="R5" s="183"/>
-      <c r="S5" s="183"/>
-      <c r="T5" s="183"/>
-      <c r="U5" s="183"/>
-      <c r="V5" s="183"/>
-      <c r="W5" s="183"/>
-      <c r="X5" s="183"/>
-      <c r="Y5" s="183"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="175" t="s">
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="167"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="167"/>
+      <c r="S5" s="167"/>
+      <c r="T5" s="167"/>
+      <c r="U5" s="167"/>
+      <c r="V5" s="167"/>
+      <c r="W5" s="167"/>
+      <c r="X5" s="167"/>
+      <c r="Y5" s="167"/>
+      <c r="Z5" s="168"/>
+      <c r="AA5" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="175"/>
-      <c r="AC5" s="175"/>
-      <c r="AD5" s="182"/>
-      <c r="AE5" s="183"/>
-      <c r="AF5" s="183"/>
-      <c r="AG5" s="184"/>
+      <c r="AB5" s="182"/>
+      <c r="AC5" s="182"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="167"/>
+      <c r="AF5" s="167"/>
+      <c r="AG5" s="168"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="172"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="176" t="s">
+      <c r="A6" s="179"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="183"/>
-      <c r="L6" s="183"/>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="183"/>
-      <c r="P6" s="183"/>
-      <c r="Q6" s="183"/>
-      <c r="R6" s="183"/>
-      <c r="S6" s="183"/>
-      <c r="T6" s="183"/>
-      <c r="U6" s="183"/>
-      <c r="V6" s="183"/>
-      <c r="W6" s="183"/>
-      <c r="X6" s="183"/>
-      <c r="Y6" s="183"/>
-      <c r="Z6" s="184"/>
-      <c r="AA6" s="175" t="s">
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
+      <c r="R6" s="167"/>
+      <c r="S6" s="167"/>
+      <c r="T6" s="167"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="167"/>
+      <c r="W6" s="167"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="168"/>
+      <c r="AA6" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="175"/>
-      <c r="AC6" s="175"/>
-      <c r="AD6" s="182"/>
-      <c r="AE6" s="183"/>
-      <c r="AF6" s="183"/>
-      <c r="AG6" s="184"/>
+      <c r="AB6" s="182"/>
+      <c r="AC6" s="182"/>
+      <c r="AD6" s="166"/>
+      <c r="AE6" s="167"/>
+      <c r="AF6" s="167"/>
+      <c r="AG6" s="168"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -22678,12 +22737,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H6:Z6"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
@@ -22700,6 +22753,12 @@
     <mergeCell ref="H3:Z3"/>
     <mergeCell ref="H4:Z4"/>
     <mergeCell ref="H5:Z5"/>
+    <mergeCell ref="H6:Z6"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -22752,13 +22811,13 @@
       <c r="B2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="178"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
       <c r="H2" s="118" t="s">
         <v>16</v>
       </c>
@@ -22769,11 +22828,11 @@
       <c r="B3" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="178"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="185"/>
       <c r="H3" s="118" t="s">
         <v>18</v>
       </c>
@@ -22784,11 +22843,11 @@
       <c r="B4" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="176"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="178"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
       <c r="H4" s="118" t="s">
         <v>20</v>
       </c>
@@ -22801,11 +22860,11 @@
       <c r="B5" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="178"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="185"/>
       <c r="H5" s="118" t="s">
         <v>23</v>
       </c>
@@ -22816,11 +22875,11 @@
       <c r="B6" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="176"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="178"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="185"/>
       <c r="H6" s="118" t="s">
         <v>25</v>
       </c>
@@ -23220,8 +23279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -23271,11 +23330,11 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="168"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="175"/>
       <c r="D2" s="196" t="s">
         <v>15</v>
       </c>
@@ -23312,9 +23371,9 @@
       <c r="AG2" s="49"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="169"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="171"/>
+      <c r="A3" s="176"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="178"/>
       <c r="D3" s="196" t="s">
         <v>17</v>
       </c>
@@ -23351,9 +23410,9 @@
       <c r="AG3" s="49"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="172"/>
-      <c r="B4" s="173"/>
-      <c r="C4" s="174"/>
+      <c r="A4" s="179"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="196" t="s">
         <v>19</v>
       </c>
@@ -23390,11 +23449,11 @@
       <c r="AG4" s="49"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
@@ -23431,9 +23490,9 @@
       <c r="AG5" s="49"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="172"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="174"/>
+      <c r="A6" s="179"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="86" t="s">
         <v>24</v>
       </c>
@@ -26988,7 +27047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E41CE9A-4231-4DAD-93D6-DF9FCE3D7F20}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -28545,18 +28604,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28704,18 +28763,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/01_画面設計書.xlsx
+++ b/01_画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Web\2023Dev3Early\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D04F425-A3AE-4542-9241-D6DAE84DEAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB41C730-6F2D-4766-B532-AFACF5F07585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3504" windowWidth="17280" windowHeight="8856" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3504" windowWidth="17280" windowHeight="8856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1404,6 +1404,90 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1443,89 +1527,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1575,27 +1596,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1635,6 +1635,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1661,15 +1670,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6375,16 +6375,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="137" t="s">
+      <c r="Y2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="155">
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="148">
         <v>45040</v>
       </c>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="157"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="150"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -6449,14 +6449,14 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="158" t="s">
+      <c r="Y4" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="158"/>
-      <c r="AD4" s="158"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="13"/>
@@ -6486,14 +6486,14 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="158" t="s">
+      <c r="Y5" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="158"/>
-      <c r="AA5" s="158"/>
-      <c r="AB5" s="158"/>
-      <c r="AC5" s="158"/>
-      <c r="AD5" s="158"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="151"/>
+      <c r="AC5" s="151"/>
+      <c r="AD5" s="151"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -6506,16 +6506,16 @@
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="152" t="s">
+      <c r="F6" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
@@ -6538,26 +6538,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="145" t="s">
+      <c r="C7" s="159"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="147"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="134"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -6565,40 +6565,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="137" t="s">
+      <c r="Y7" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="137" t="s">
+      <c r="Z7" s="131"/>
+      <c r="AA7" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="137" t="s">
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="138"/>
+      <c r="AD7" s="131"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="66"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="149"/>
-      <c r="Q8" s="150"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="137"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -6606,16 +6606,16 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="139" t="s">
+      <c r="Y8" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="Z8" s="140"/>
-      <c r="AA8" s="139" t="s">
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" s="140"/>
-      <c r="AC8" s="124"/>
-      <c r="AD8" s="125"/>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="153"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="66"/>
       <c r="AG8" s="2"/>
@@ -6645,12 +6645,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="142"/>
-      <c r="AA9" s="141"/>
-      <c r="AB9" s="142"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="127"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="140"/>
+      <c r="AB9" s="141"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="155"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="66"/>
       <c r="AG9" s="2"/>
@@ -6680,12 +6680,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="143"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="129"/>
+      <c r="Y10" s="142"/>
+      <c r="Z10" s="143"/>
+      <c r="AA10" s="142"/>
+      <c r="AB10" s="143"/>
+      <c r="AC10" s="156"/>
+      <c r="AD10" s="157"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="66"/>
       <c r="AG10" s="12"/>
@@ -6726,105 +6726,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="151"/>
-      <c r="S12" s="151"/>
-      <c r="T12" s="151"/>
-      <c r="U12" s="151"/>
-      <c r="V12" s="151"/>
-      <c r="W12" s="151"/>
-      <c r="X12" s="151"/>
-      <c r="Y12" s="151"/>
-      <c r="Z12" s="151"/>
-      <c r="AA12" s="151"/>
-      <c r="AB12" s="151"/>
-      <c r="AC12" s="151"/>
-      <c r="AD12" s="151"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="144"/>
+      <c r="T12" s="144"/>
+      <c r="U12" s="144"/>
+      <c r="V12" s="144"/>
+      <c r="W12" s="144"/>
+      <c r="X12" s="144"/>
+      <c r="Y12" s="144"/>
+      <c r="Z12" s="144"/>
+      <c r="AA12" s="144"/>
+      <c r="AB12" s="144"/>
+      <c r="AC12" s="144"/>
+      <c r="AD12" s="144"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="151"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="151"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
-      <c r="AD13" s="151"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="144"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="144"/>
+      <c r="V13" s="144"/>
+      <c r="W13" s="144"/>
+      <c r="X13" s="144"/>
+      <c r="Y13" s="144"/>
+      <c r="Z13" s="144"/>
+      <c r="AA13" s="144"/>
+      <c r="AB13" s="144"/>
+      <c r="AC13" s="144"/>
+      <c r="AD13" s="144"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="151"/>
-      <c r="W14" s="151"/>
-      <c r="X14" s="151"/>
-      <c r="Y14" s="151"/>
-      <c r="Z14" s="151"/>
-      <c r="AA14" s="151"/>
-      <c r="AB14" s="151"/>
-      <c r="AC14" s="151"/>
-      <c r="AD14" s="151"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="144"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="144"/>
+      <c r="S14" s="144"/>
+      <c r="T14" s="144"/>
+      <c r="U14" s="144"/>
+      <c r="V14" s="144"/>
+      <c r="W14" s="144"/>
+      <c r="X14" s="144"/>
+      <c r="Y14" s="144"/>
+      <c r="Z14" s="144"/>
+      <c r="AA14" s="144"/>
+      <c r="AB14" s="144"/>
+      <c r="AC14" s="144"/>
+      <c r="AD14" s="144"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
@@ -7084,32 +7084,32 @@
       <c r="C22" s="122"/>
       <c r="D22" s="122"/>
       <c r="E22" s="123"/>
-      <c r="F22" s="162">
+      <c r="F22" s="127">
         <v>45040</v>
       </c>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="159" t="s">
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="160"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="160"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="160"/>
-      <c r="V22" s="160"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="161"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="125"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="125"/>
+      <c r="W22" s="125"/>
+      <c r="X22" s="125"/>
+      <c r="Y22" s="125"/>
+      <c r="Z22" s="125"/>
+      <c r="AA22" s="126"/>
       <c r="AB22" s="121" t="s">
         <v>74</v>
       </c>
@@ -7124,28 +7124,28 @@
       <c r="C23" s="122"/>
       <c r="D23" s="122"/>
       <c r="E23" s="123"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="159"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="160"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="160"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="160"/>
-      <c r="V23" s="160"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="160"/>
-      <c r="AA23" s="161"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="125"/>
+      <c r="W23" s="125"/>
+      <c r="X23" s="125"/>
+      <c r="Y23" s="125"/>
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="126"/>
       <c r="AB23" s="121"/>
       <c r="AC23" s="122"/>
       <c r="AD23" s="123"/>
@@ -7158,28 +7158,28 @@
       <c r="C24" s="122"/>
       <c r="D24" s="122"/>
       <c r="E24" s="123"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="160"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="160"/>
-      <c r="R24" s="160"/>
-      <c r="S24" s="160"/>
-      <c r="T24" s="160"/>
-      <c r="U24" s="160"/>
-      <c r="V24" s="160"/>
-      <c r="W24" s="160"/>
-      <c r="X24" s="160"/>
-      <c r="Y24" s="160"/>
-      <c r="Z24" s="160"/>
-      <c r="AA24" s="161"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="125"/>
+      <c r="W24" s="125"/>
+      <c r="X24" s="125"/>
+      <c r="Y24" s="125"/>
+      <c r="Z24" s="125"/>
+      <c r="AA24" s="126"/>
       <c r="AB24" s="121"/>
       <c r="AC24" s="122"/>
       <c r="AD24" s="123"/>
@@ -7192,28 +7192,28 @@
       <c r="C25" s="122"/>
       <c r="D25" s="122"/>
       <c r="E25" s="123"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="159"/>
-      <c r="L25" s="160"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="160"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="160"/>
-      <c r="R25" s="160"/>
-      <c r="S25" s="160"/>
-      <c r="T25" s="160"/>
-      <c r="U25" s="160"/>
-      <c r="V25" s="160"/>
-      <c r="W25" s="160"/>
-      <c r="X25" s="160"/>
-      <c r="Y25" s="160"/>
-      <c r="Z25" s="160"/>
-      <c r="AA25" s="161"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="125"/>
+      <c r="U25" s="125"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="125"/>
+      <c r="Y25" s="125"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="126"/>
       <c r="AB25" s="121"/>
       <c r="AC25" s="122"/>
       <c r="AD25" s="123"/>
@@ -7226,28 +7226,28 @@
       <c r="C26" s="122"/>
       <c r="D26" s="122"/>
       <c r="E26" s="123"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="160"/>
-      <c r="N26" s="160"/>
-      <c r="O26" s="160"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="160"/>
-      <c r="R26" s="160"/>
-      <c r="S26" s="160"/>
-      <c r="T26" s="160"/>
-      <c r="U26" s="160"/>
-      <c r="V26" s="160"/>
-      <c r="W26" s="160"/>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="160"/>
-      <c r="Z26" s="160"/>
-      <c r="AA26" s="161"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="125"/>
+      <c r="U26" s="125"/>
+      <c r="V26" s="125"/>
+      <c r="W26" s="125"/>
+      <c r="X26" s="125"/>
+      <c r="Y26" s="125"/>
+      <c r="Z26" s="125"/>
+      <c r="AA26" s="126"/>
       <c r="AB26" s="121"/>
       <c r="AC26" s="122"/>
       <c r="AD26" s="123"/>
@@ -7260,28 +7260,28 @@
       <c r="C27" s="122"/>
       <c r="D27" s="122"/>
       <c r="E27" s="123"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="159"/>
-      <c r="L27" s="160"/>
-      <c r="M27" s="160"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="160"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="160"/>
-      <c r="R27" s="160"/>
-      <c r="S27" s="160"/>
-      <c r="T27" s="160"/>
-      <c r="U27" s="160"/>
-      <c r="V27" s="160"/>
-      <c r="W27" s="160"/>
-      <c r="X27" s="160"/>
-      <c r="Y27" s="160"/>
-      <c r="Z27" s="160"/>
-      <c r="AA27" s="161"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="125"/>
+      <c r="S27" s="125"/>
+      <c r="T27" s="125"/>
+      <c r="U27" s="125"/>
+      <c r="V27" s="125"/>
+      <c r="W27" s="125"/>
+      <c r="X27" s="125"/>
+      <c r="Y27" s="125"/>
+      <c r="Z27" s="125"/>
+      <c r="AA27" s="126"/>
       <c r="AB27" s="121"/>
       <c r="AC27" s="122"/>
       <c r="AD27" s="123"/>
@@ -7392,15 +7392,23 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AD5"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -7417,23 +7425,15 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -8158,7 +8158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FB018E-943A-4468-A679-0F3BEA43E79E}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -11021,34 +11021,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="212"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="203"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="202"/>
+      <c r="B2" s="205"/>
       <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
@@ -11065,16 +11065,16 @@
       <c r="N2" s="87"/>
       <c r="O2" s="87"/>
       <c r="P2" s="87"/>
-      <c r="Q2" s="207" t="s">
+      <c r="Q2" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="208"/>
+      <c r="R2" s="211"/>
       <c r="S2" s="87"/>
       <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="203"/>
-      <c r="B3" s="204"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="207"/>
       <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
@@ -11091,16 +11091,16 @@
       <c r="N3" s="87"/>
       <c r="O3" s="87"/>
       <c r="P3" s="87"/>
-      <c r="Q3" s="207" t="s">
+      <c r="Q3" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="208"/>
+      <c r="R3" s="211"/>
       <c r="S3" s="87"/>
       <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="205"/>
-      <c r="B4" s="206"/>
+      <c r="A4" s="208"/>
+      <c r="B4" s="209"/>
       <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
@@ -11117,18 +11117,18 @@
       <c r="N4" s="87"/>
       <c r="O4" s="87"/>
       <c r="P4" s="87"/>
-      <c r="Q4" s="207" t="s">
+      <c r="Q4" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="208"/>
+      <c r="R4" s="211"/>
       <c r="S4" s="87"/>
       <c r="T4" s="88"/>
     </row>
     <row r="5" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="202"/>
+      <c r="B5" s="205"/>
       <c r="C5" s="22" t="s">
         <v>45</v>
       </c>
@@ -11145,25 +11145,25 @@
       <c r="N5" s="87"/>
       <c r="O5" s="87"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="207" t="s">
+      <c r="Q5" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="208"/>
+      <c r="R5" s="211"/>
       <c r="S5" s="87"/>
       <c r="T5" s="88"/>
     </row>
     <row r="6" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="203"/>
-      <c r="B6" s="204"/>
+      <c r="A6" s="206"/>
+      <c r="B6" s="207"/>
       <c r="C6" s="22" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="195"/>
       <c r="E6" s="197"/>
-      <c r="F6" s="209" t="s">
+      <c r="F6" s="212" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="209"/>
+      <c r="G6" s="212"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
@@ -11181,8 +11181,8 @@
       <c r="T6" s="88"/>
     </row>
     <row r="7" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="205"/>
-      <c r="B7" s="206"/>
+      <c r="A7" s="208"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
@@ -11199,8 +11199,8 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="207"/>
-      <c r="R7" s="208"/>
+      <c r="Q7" s="210"/>
+      <c r="R7" s="211"/>
       <c r="S7" s="87"/>
       <c r="T7" s="88"/>
     </row>
@@ -11918,6 +11918,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -11926,12 +11932,6 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12655,8 +12655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2FA301-F346-4BB4-A6BC-EB44CCEDDEA4}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="83" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U26" sqref="T26:U26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="83" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AI25" sqref="AI25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -12706,209 +12706,209 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="175" t="s">
+      <c r="B2" s="173"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="181" t="s">
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="182"/>
-      <c r="W2" s="182"/>
-      <c r="X2" s="182"/>
-      <c r="Y2" s="182"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="174" t="s">
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="181" t="s">
+      <c r="AB2" s="181"/>
+      <c r="AC2" s="181"/>
+      <c r="AD2" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="167"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="175" t="s">
+      <c r="A3" s="175"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="182"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="174" t="s">
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="174"/>
-      <c r="AD3" s="184">
+      <c r="AB3" s="181"/>
+      <c r="AC3" s="181"/>
+      <c r="AD3" s="168">
         <v>45043</v>
       </c>
-      <c r="AE3" s="182"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="166"/>
+      <c r="AG3" s="167"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="171"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="175" t="s">
+      <c r="A4" s="178"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="182"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="182"/>
-      <c r="N4" s="182"/>
-      <c r="O4" s="182"/>
-      <c r="P4" s="182"/>
-      <c r="Q4" s="182"/>
-      <c r="R4" s="182"/>
-      <c r="S4" s="182"/>
-      <c r="T4" s="182"/>
-      <c r="U4" s="182"/>
-      <c r="V4" s="182"/>
-      <c r="W4" s="182"/>
-      <c r="X4" s="182"/>
-      <c r="Y4" s="182"/>
-      <c r="Z4" s="183"/>
-      <c r="AA4" s="174" t="s">
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="166"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="174"/>
-      <c r="AD4" s="185"/>
-      <c r="AE4" s="186"/>
-      <c r="AF4" s="186"/>
-      <c r="AG4" s="187"/>
+      <c r="AB4" s="181"/>
+      <c r="AC4" s="181"/>
+      <c r="AD4" s="169"/>
+      <c r="AE4" s="170"/>
+      <c r="AF4" s="170"/>
+      <c r="AG4" s="171"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="178" t="s">
+      <c r="B5" s="173"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
-      <c r="P5" s="182"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="182"/>
-      <c r="S5" s="182"/>
-      <c r="T5" s="182"/>
-      <c r="U5" s="182"/>
-      <c r="V5" s="182"/>
-      <c r="W5" s="182"/>
-      <c r="X5" s="182"/>
-      <c r="Y5" s="182"/>
-      <c r="Z5" s="183"/>
-      <c r="AA5" s="174" t="s">
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="166"/>
+      <c r="R5" s="166"/>
+      <c r="S5" s="166"/>
+      <c r="T5" s="166"/>
+      <c r="U5" s="166"/>
+      <c r="V5" s="166"/>
+      <c r="W5" s="166"/>
+      <c r="X5" s="166"/>
+      <c r="Y5" s="166"/>
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="174"/>
-      <c r="AC5" s="174"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="182"/>
-      <c r="AF5" s="182"/>
-      <c r="AG5" s="183"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="181"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="166"/>
+      <c r="AF5" s="166"/>
+      <c r="AG5" s="167"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="175" t="s">
+      <c r="A6" s="178"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="182"/>
-      <c r="S6" s="182"/>
-      <c r="T6" s="182"/>
-      <c r="U6" s="182"/>
-      <c r="V6" s="182"/>
-      <c r="W6" s="182"/>
-      <c r="X6" s="182"/>
-      <c r="Y6" s="182"/>
-      <c r="Z6" s="183"/>
-      <c r="AA6" s="174" t="s">
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="166"/>
+      <c r="S6" s="166"/>
+      <c r="T6" s="166"/>
+      <c r="U6" s="166"/>
+      <c r="V6" s="166"/>
+      <c r="W6" s="166"/>
+      <c r="X6" s="166"/>
+      <c r="Y6" s="166"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="174"/>
-      <c r="AC6" s="174"/>
-      <c r="AD6" s="181"/>
-      <c r="AE6" s="182"/>
-      <c r="AF6" s="182"/>
-      <c r="AG6" s="183"/>
+      <c r="AB6" s="181"/>
+      <c r="AC6" s="181"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="166"/>
+      <c r="AF6" s="166"/>
+      <c r="AG6" s="167"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -14172,12 +14172,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H6:Z6"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
@@ -14194,6 +14188,12 @@
     <mergeCell ref="H3:Z3"/>
     <mergeCell ref="H4:Z4"/>
     <mergeCell ref="H5:Z5"/>
+    <mergeCell ref="H6:Z6"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -14246,13 +14246,13 @@
       <c r="B2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="184"/>
       <c r="H2" s="118" t="s">
         <v>16</v>
       </c>
@@ -14263,11 +14263,11 @@
       <c r="B3" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="177"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="184"/>
       <c r="H3" s="118" t="s">
         <v>18</v>
       </c>
@@ -14278,11 +14278,11 @@
       <c r="B4" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="177"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="184"/>
       <c r="H4" s="118" t="s">
         <v>20</v>
       </c>
@@ -14295,11 +14295,11 @@
       <c r="B5" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="177"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="184"/>
       <c r="H5" s="118" t="s">
         <v>23</v>
       </c>
@@ -14310,11 +14310,11 @@
       <c r="B6" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="175"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="177"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="184"/>
       <c r="H6" s="118" t="s">
         <v>25</v>
       </c>
@@ -14765,11 +14765,11 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="167"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="174"/>
       <c r="D2" s="195" t="s">
         <v>15</v>
       </c>
@@ -14806,9 +14806,9 @@
       <c r="AG2" s="49"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="170"/>
+      <c r="A3" s="175"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="195" t="s">
         <v>17</v>
       </c>
@@ -14845,9 +14845,9 @@
       <c r="AG3" s="49"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="171"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="173"/>
+      <c r="A4" s="178"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="180"/>
       <c r="D4" s="195" t="s">
         <v>19</v>
       </c>
@@ -14884,11 +14884,11 @@
       <c r="AG4" s="49"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="167"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="174"/>
       <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
@@ -14925,9 +14925,9 @@
       <c r="AG5" s="49"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="173"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="180"/>
       <c r="D6" s="86" t="s">
         <v>24</v>
       </c>
@@ -19806,15 +19806,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -19958,6 +19949,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
   <ds:schemaRefs>
@@ -19968,14 +19968,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE99DE6A-D5AF-458E-878B-96B0555D5097}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19991,4 +19983,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_画面設計書.xlsx
+++ b/01_画面設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Web\2023Dev3Early\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB41C730-6F2D-4766-B532-AFACF5F07585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E52772B-35DB-4CAF-BBED-41CD075D7385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3504" windowWidth="17280" windowHeight="8856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="114">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -735,6 +735,292 @@
     <t>谷口</t>
     <rPh sb="0" eb="2">
       <t>タニグチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レシピ提案画面</t>
+    <rPh sb="3" eb="7">
+      <t>テイアンガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果画面</t>
+    <rPh sb="0" eb="6">
+      <t>ケンサクケッカガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ランキング画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>料理詳細画面</t>
+    <rPh sb="0" eb="6">
+      <t>リョウリショウサイガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザ画面(他人)</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下書き画面</t>
+    <rPh sb="0" eb="2">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザ画面(本人)</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホンニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下書き画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>投稿画面</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G2-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G2-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G3-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G4-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G5-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G6-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザ設定画面</t>
+    <rPh sb="3" eb="7">
+      <t>セッテイガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G7-1-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G7-1-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G7-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>色々な画面</t>
+    <rPh sb="0" eb="5">
+      <t>イロイロナガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トップ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>料理のレシピの下書きを作成</t>
+    <rPh sb="0" eb="2">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作成した下書きを他の人が見れるように投稿する</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>特定の条件からレシピを抽出する</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果を表示</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ランキングを表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>料理の詳細情報の表示</t>
+    <rPh sb="0" eb="2">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ショウサイジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自分のユーザ情報の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザ情報の設定を変更</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>他人のユーザ情報の表示</t>
+    <rPh sb="0" eb="2">
+      <t>タニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>01_画面設計書.xlsx</t>
+    <rPh sb="3" eb="8">
+      <t>ガメンセッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面設計</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1404,90 +1690,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1527,26 +1729,89 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1596,6 +1861,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1635,15 +1921,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1670,6 +1947,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6375,16 +6661,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="130" t="s">
+      <c r="Y2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="148">
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="155">
         <v>45040</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="150"/>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="156"/>
+      <c r="AD2" s="157"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -6449,14 +6735,14 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="151" t="s">
+      <c r="Y4" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="151"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
+      <c r="AC4" s="158"/>
+      <c r="AD4" s="158"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="13"/>
@@ -6486,14 +6772,14 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="151" t="s">
+      <c r="Y5" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="151"/>
-      <c r="AA5" s="151"/>
-      <c r="AB5" s="151"/>
-      <c r="AC5" s="151"/>
-      <c r="AD5" s="151"/>
+      <c r="Z5" s="158"/>
+      <c r="AA5" s="158"/>
+      <c r="AB5" s="158"/>
+      <c r="AC5" s="158"/>
+      <c r="AD5" s="158"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -6506,16 +6792,16 @@
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="145" t="s">
+      <c r="F6" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
@@ -6538,26 +6824,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="132" t="s">
+      <c r="C7" s="131"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="134"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="147"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -6565,40 +6851,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="130" t="s">
+      <c r="Y7" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="130" t="s">
+      <c r="Z7" s="138"/>
+      <c r="AA7" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="131"/>
-      <c r="AC7" s="130" t="s">
+      <c r="AB7" s="138"/>
+      <c r="AC7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="131"/>
+      <c r="AD7" s="138"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="66"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="137"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="150"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -6606,16 +6892,16 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="138" t="s">
+      <c r="Y8" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="Z8" s="139"/>
-      <c r="AA8" s="138" t="s">
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" s="139"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="153"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="124"/>
+      <c r="AD8" s="125"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="66"/>
       <c r="AG8" s="2"/>
@@ -6645,12 +6931,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="140"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="140"/>
-      <c r="AB9" s="141"/>
-      <c r="AC9" s="154"/>
-      <c r="AD9" s="155"/>
+      <c r="Y9" s="141"/>
+      <c r="Z9" s="142"/>
+      <c r="AA9" s="141"/>
+      <c r="AB9" s="142"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="127"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="66"/>
       <c r="AG9" s="2"/>
@@ -6680,12 +6966,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="142"/>
-      <c r="Z10" s="143"/>
-      <c r="AA10" s="142"/>
-      <c r="AB10" s="143"/>
-      <c r="AC10" s="156"/>
-      <c r="AD10" s="157"/>
+      <c r="Y10" s="143"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="143"/>
+      <c r="AB10" s="144"/>
+      <c r="AC10" s="128"/>
+      <c r="AD10" s="129"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="66"/>
       <c r="AG10" s="12"/>
@@ -6726,105 +7012,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="144"/>
-      <c r="AB12" s="144"/>
-      <c r="AC12" s="144"/>
-      <c r="AD12" s="144"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="151"/>
+      <c r="Z12" s="151"/>
+      <c r="AA12" s="151"/>
+      <c r="AB12" s="151"/>
+      <c r="AC12" s="151"/>
+      <c r="AD12" s="151"/>
       <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
-      <c r="AB13" s="144"/>
-      <c r="AC13" s="144"/>
-      <c r="AD13" s="144"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="151"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="151"/>
+      <c r="Z13" s="151"/>
+      <c r="AA13" s="151"/>
+      <c r="AB13" s="151"/>
+      <c r="AC13" s="151"/>
+      <c r="AD13" s="151"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="144"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="144"/>
-      <c r="X14" s="144"/>
-      <c r="Y14" s="144"/>
-      <c r="Z14" s="144"/>
-      <c r="AA14" s="144"/>
-      <c r="AB14" s="144"/>
-      <c r="AC14" s="144"/>
-      <c r="AD14" s="144"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="151"/>
+      <c r="X14" s="151"/>
+      <c r="Y14" s="151"/>
+      <c r="Z14" s="151"/>
+      <c r="AA14" s="151"/>
+      <c r="AB14" s="151"/>
+      <c r="AC14" s="151"/>
+      <c r="AD14" s="151"/>
       <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
@@ -7084,32 +7370,32 @@
       <c r="C22" s="122"/>
       <c r="D22" s="122"/>
       <c r="E22" s="123"/>
-      <c r="F22" s="127">
+      <c r="F22" s="162">
         <v>45040</v>
       </c>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="124" t="s">
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="125"/>
-      <c r="S22" s="125"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="125"/>
-      <c r="W22" s="125"/>
-      <c r="X22" s="125"/>
-      <c r="Y22" s="125"/>
-      <c r="Z22" s="125"/>
-      <c r="AA22" s="126"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="160"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="160"/>
+      <c r="R22" s="160"/>
+      <c r="S22" s="160"/>
+      <c r="T22" s="160"/>
+      <c r="U22" s="160"/>
+      <c r="V22" s="160"/>
+      <c r="W22" s="160"/>
+      <c r="X22" s="160"/>
+      <c r="Y22" s="160"/>
+      <c r="Z22" s="160"/>
+      <c r="AA22" s="161"/>
       <c r="AB22" s="121" t="s">
         <v>74</v>
       </c>
@@ -7124,28 +7410,28 @@
       <c r="C23" s="122"/>
       <c r="D23" s="122"/>
       <c r="E23" s="123"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="125"/>
-      <c r="W23" s="125"/>
-      <c r="X23" s="125"/>
-      <c r="Y23" s="125"/>
-      <c r="Z23" s="125"/>
-      <c r="AA23" s="126"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="160"/>
+      <c r="R23" s="160"/>
+      <c r="S23" s="160"/>
+      <c r="T23" s="160"/>
+      <c r="U23" s="160"/>
+      <c r="V23" s="160"/>
+      <c r="W23" s="160"/>
+      <c r="X23" s="160"/>
+      <c r="Y23" s="160"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="161"/>
       <c r="AB23" s="121"/>
       <c r="AC23" s="122"/>
       <c r="AD23" s="123"/>
@@ -7158,28 +7444,28 @@
       <c r="C24" s="122"/>
       <c r="D24" s="122"/>
       <c r="E24" s="123"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="125"/>
-      <c r="V24" s="125"/>
-      <c r="W24" s="125"/>
-      <c r="X24" s="125"/>
-      <c r="Y24" s="125"/>
-      <c r="Z24" s="125"/>
-      <c r="AA24" s="126"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="160"/>
+      <c r="O24" s="160"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="160"/>
+      <c r="R24" s="160"/>
+      <c r="S24" s="160"/>
+      <c r="T24" s="160"/>
+      <c r="U24" s="160"/>
+      <c r="V24" s="160"/>
+      <c r="W24" s="160"/>
+      <c r="X24" s="160"/>
+      <c r="Y24" s="160"/>
+      <c r="Z24" s="160"/>
+      <c r="AA24" s="161"/>
       <c r="AB24" s="121"/>
       <c r="AC24" s="122"/>
       <c r="AD24" s="123"/>
@@ -7192,28 +7478,28 @@
       <c r="C25" s="122"/>
       <c r="D25" s="122"/>
       <c r="E25" s="123"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="125"/>
-      <c r="T25" s="125"/>
-      <c r="U25" s="125"/>
-      <c r="V25" s="125"/>
-      <c r="W25" s="125"/>
-      <c r="X25" s="125"/>
-      <c r="Y25" s="125"/>
-      <c r="Z25" s="125"/>
-      <c r="AA25" s="126"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="160"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="160"/>
+      <c r="O25" s="160"/>
+      <c r="P25" s="160"/>
+      <c r="Q25" s="160"/>
+      <c r="R25" s="160"/>
+      <c r="S25" s="160"/>
+      <c r="T25" s="160"/>
+      <c r="U25" s="160"/>
+      <c r="V25" s="160"/>
+      <c r="W25" s="160"/>
+      <c r="X25" s="160"/>
+      <c r="Y25" s="160"/>
+      <c r="Z25" s="160"/>
+      <c r="AA25" s="161"/>
       <c r="AB25" s="121"/>
       <c r="AC25" s="122"/>
       <c r="AD25" s="123"/>
@@ -7226,28 +7512,28 @@
       <c r="C26" s="122"/>
       <c r="D26" s="122"/>
       <c r="E26" s="123"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="125"/>
-      <c r="S26" s="125"/>
-      <c r="T26" s="125"/>
-      <c r="U26" s="125"/>
-      <c r="V26" s="125"/>
-      <c r="W26" s="125"/>
-      <c r="X26" s="125"/>
-      <c r="Y26" s="125"/>
-      <c r="Z26" s="125"/>
-      <c r="AA26" s="126"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="160"/>
+      <c r="O26" s="160"/>
+      <c r="P26" s="160"/>
+      <c r="Q26" s="160"/>
+      <c r="R26" s="160"/>
+      <c r="S26" s="160"/>
+      <c r="T26" s="160"/>
+      <c r="U26" s="160"/>
+      <c r="V26" s="160"/>
+      <c r="W26" s="160"/>
+      <c r="X26" s="160"/>
+      <c r="Y26" s="160"/>
+      <c r="Z26" s="160"/>
+      <c r="AA26" s="161"/>
       <c r="AB26" s="121"/>
       <c r="AC26" s="122"/>
       <c r="AD26" s="123"/>
@@ -7260,28 +7546,28 @@
       <c r="C27" s="122"/>
       <c r="D27" s="122"/>
       <c r="E27" s="123"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="125"/>
-      <c r="S27" s="125"/>
-      <c r="T27" s="125"/>
-      <c r="U27" s="125"/>
-      <c r="V27" s="125"/>
-      <c r="W27" s="125"/>
-      <c r="X27" s="125"/>
-      <c r="Y27" s="125"/>
-      <c r="Z27" s="125"/>
-      <c r="AA27" s="126"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="160"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="160"/>
+      <c r="O27" s="160"/>
+      <c r="P27" s="160"/>
+      <c r="Q27" s="160"/>
+      <c r="R27" s="160"/>
+      <c r="S27" s="160"/>
+      <c r="T27" s="160"/>
+      <c r="U27" s="160"/>
+      <c r="V27" s="160"/>
+      <c r="W27" s="160"/>
+      <c r="X27" s="160"/>
+      <c r="Y27" s="160"/>
+      <c r="Z27" s="160"/>
+      <c r="AA27" s="161"/>
       <c r="AB27" s="121"/>
       <c r="AC27" s="122"/>
       <c r="AD27" s="123"/>
@@ -7392,23 +7678,15 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -7425,15 +7703,23 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -8869,8 +9155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E41CE9A-4231-4DAD-93D6-DF9FCE3D7F20}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -11021,34 +11307,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="202"/>
-      <c r="T1" s="203"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="211"/>
+      <c r="T1" s="212"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="205"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
@@ -11065,16 +11351,16 @@
       <c r="N2" s="87"/>
       <c r="O2" s="87"/>
       <c r="P2" s="87"/>
-      <c r="Q2" s="210" t="s">
+      <c r="Q2" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="211"/>
+      <c r="R2" s="208"/>
       <c r="S2" s="87"/>
       <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="206"/>
-      <c r="B3" s="207"/>
+      <c r="A3" s="203"/>
+      <c r="B3" s="204"/>
       <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
@@ -11091,16 +11377,16 @@
       <c r="N3" s="87"/>
       <c r="O3" s="87"/>
       <c r="P3" s="87"/>
-      <c r="Q3" s="210" t="s">
+      <c r="Q3" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="211"/>
+      <c r="R3" s="208"/>
       <c r="S3" s="87"/>
       <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="208"/>
-      <c r="B4" s="209"/>
+      <c r="A4" s="205"/>
+      <c r="B4" s="206"/>
       <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
@@ -11117,18 +11403,18 @@
       <c r="N4" s="87"/>
       <c r="O4" s="87"/>
       <c r="P4" s="87"/>
-      <c r="Q4" s="210" t="s">
+      <c r="Q4" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="211"/>
+      <c r="R4" s="208"/>
       <c r="S4" s="87"/>
       <c r="T4" s="88"/>
     </row>
     <row r="5" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="204" t="s">
+      <c r="A5" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="205"/>
+      <c r="B5" s="202"/>
       <c r="C5" s="22" t="s">
         <v>45</v>
       </c>
@@ -11145,25 +11431,25 @@
       <c r="N5" s="87"/>
       <c r="O5" s="87"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="210" t="s">
+      <c r="Q5" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="211"/>
+      <c r="R5" s="208"/>
       <c r="S5" s="87"/>
       <c r="T5" s="88"/>
     </row>
     <row r="6" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="206"/>
-      <c r="B6" s="207"/>
+      <c r="A6" s="203"/>
+      <c r="B6" s="204"/>
       <c r="C6" s="22" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="195"/>
       <c r="E6" s="197"/>
-      <c r="F6" s="212" t="s">
+      <c r="F6" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="212"/>
+      <c r="G6" s="209"/>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
@@ -11181,8 +11467,8 @@
       <c r="T6" s="88"/>
     </row>
     <row r="7" spans="1:20" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="208"/>
-      <c r="B7" s="209"/>
+      <c r="A7" s="205"/>
+      <c r="B7" s="206"/>
       <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
@@ -11199,8 +11485,8 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="210"/>
-      <c r="R7" s="211"/>
+      <c r="Q7" s="207"/>
+      <c r="R7" s="208"/>
       <c r="S7" s="87"/>
       <c r="T7" s="88"/>
     </row>
@@ -11918,12 +12204,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -11932,6 +12212,12 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12655,7 +12941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2FA301-F346-4BB4-A6BC-EB44CCEDDEA4}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="83" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AI25" sqref="AI25"/>
     </sheetView>
   </sheetViews>
@@ -12706,209 +12992,209 @@
       <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="182" t="s">
+      <c r="B2" s="166"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="165" t="s">
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="181" t="s">
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="165" t="s">
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174"/>
+      <c r="AD2" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="166"/>
-      <c r="AG2" s="167"/>
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="175"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="182" t="s">
+      <c r="A3" s="168"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="181" t="s">
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="182"/>
+      <c r="W3" s="182"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="181"/>
-      <c r="AC3" s="181"/>
-      <c r="AD3" s="168">
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="184">
         <v>45043</v>
       </c>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="166"/>
-      <c r="AG3" s="167"/>
+      <c r="AE3" s="182"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="178"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="182" t="s">
+      <c r="A4" s="171"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="166"/>
-      <c r="V4" s="166"/>
-      <c r="W4" s="166"/>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="166"/>
-      <c r="Z4" s="167"/>
-      <c r="AA4" s="181" t="s">
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="182"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="182"/>
+      <c r="Q4" s="182"/>
+      <c r="R4" s="182"/>
+      <c r="S4" s="182"/>
+      <c r="T4" s="182"/>
+      <c r="U4" s="182"/>
+      <c r="V4" s="182"/>
+      <c r="W4" s="182"/>
+      <c r="X4" s="182"/>
+      <c r="Y4" s="182"/>
+      <c r="Z4" s="183"/>
+      <c r="AA4" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="181"/>
-      <c r="AC4" s="181"/>
-      <c r="AD4" s="169"/>
-      <c r="AE4" s="170"/>
-      <c r="AF4" s="170"/>
-      <c r="AG4" s="171"/>
+      <c r="AB4" s="174"/>
+      <c r="AC4" s="174"/>
+      <c r="AD4" s="185"/>
+      <c r="AE4" s="186"/>
+      <c r="AF4" s="186"/>
+      <c r="AG4" s="187"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="185" t="s">
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="166"/>
-      <c r="R5" s="166"/>
-      <c r="S5" s="166"/>
-      <c r="T5" s="166"/>
-      <c r="U5" s="166"/>
-      <c r="V5" s="166"/>
-      <c r="W5" s="166"/>
-      <c r="X5" s="166"/>
-      <c r="Y5" s="166"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="181" t="s">
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="182"/>
+      <c r="V5" s="182"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="182"/>
+      <c r="Y5" s="182"/>
+      <c r="Z5" s="183"/>
+      <c r="AA5" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="166"/>
-      <c r="AF5" s="166"/>
-      <c r="AG5" s="167"/>
+      <c r="AB5" s="174"/>
+      <c r="AC5" s="174"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="182"/>
+      <c r="AF5" s="182"/>
+      <c r="AG5" s="183"/>
     </row>
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="178"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="182" t="s">
+      <c r="A6" s="171"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="166"/>
-      <c r="T6" s="166"/>
-      <c r="U6" s="166"/>
-      <c r="V6" s="166"/>
-      <c r="W6" s="166"/>
-      <c r="X6" s="166"/>
-      <c r="Y6" s="166"/>
-      <c r="Z6" s="167"/>
-      <c r="AA6" s="181" t="s">
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="182"/>
+      <c r="S6" s="182"/>
+      <c r="T6" s="182"/>
+      <c r="U6" s="182"/>
+      <c r="V6" s="182"/>
+      <c r="W6" s="182"/>
+      <c r="X6" s="182"/>
+      <c r="Y6" s="182"/>
+      <c r="Z6" s="183"/>
+      <c r="AA6" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="181"/>
-      <c r="AC6" s="181"/>
-      <c r="AD6" s="165"/>
-      <c r="AE6" s="166"/>
-      <c r="AF6" s="166"/>
-      <c r="AG6" s="167"/>
+      <c r="AB6" s="174"/>
+      <c r="AC6" s="174"/>
+      <c r="AD6" s="181"/>
+      <c r="AE6" s="182"/>
+      <c r="AF6" s="182"/>
+      <c r="AG6" s="183"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="45"/>
@@ -14172,6 +14458,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H6:Z6"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
@@ -14188,12 +14480,6 @@
     <mergeCell ref="H3:Z3"/>
     <mergeCell ref="H4:Z4"/>
     <mergeCell ref="H5:Z5"/>
-    <mergeCell ref="H6:Z6"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -14211,8 +14497,8 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -14246,13 +14532,13 @@
       <c r="B2" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="184"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="177"/>
       <c r="H2" s="118" t="s">
         <v>16</v>
       </c>
@@ -14263,11 +14549,13 @@
       <c r="B3" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="184"/>
+      <c r="C3" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="177"/>
       <c r="H3" s="118" t="s">
         <v>18</v>
       </c>
@@ -14278,11 +14566,13 @@
       <c r="B4" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="184"/>
+      <c r="C4" s="175" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="177"/>
       <c r="H4" s="118" t="s">
         <v>20</v>
       </c>
@@ -14295,11 +14585,11 @@
       <c r="B5" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="184"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="177"/>
       <c r="H5" s="118" t="s">
         <v>23</v>
       </c>
@@ -14310,11 +14600,11 @@
       <c r="B6" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="184"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="177"/>
       <c r="H6" s="118" t="s">
         <v>25</v>
       </c>
@@ -14374,112 +14664,252 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>77</v>
+      </c>
       <c r="H10" s="29"/>
       <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="26"/>
+      <c r="A11" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>103</v>
+      </c>
       <c r="H11" s="36"/>
       <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="26"/>
+      <c r="A12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>104</v>
+      </c>
       <c r="H12" s="36"/>
       <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="26"/>
+      <c r="A13" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>105</v>
+      </c>
       <c r="H13" s="36"/>
       <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="26"/>
+      <c r="A14" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>106</v>
+      </c>
       <c r="H14" s="36"/>
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
+      <c r="A15" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>107</v>
+      </c>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="26"/>
+      <c r="A16" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="H16" s="27"/>
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="26"/>
+      <c r="A17" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>109</v>
+      </c>
       <c r="H17" s="36"/>
       <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="26"/>
+      <c r="A18" s="25" t="s">